--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB7BE8-3F4B-4F21-B21F-692A11E70967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A90B3B6-4DD6-43F3-A154-50CA4AFEE9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1199,7 +1199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1508,15 +1508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1534,110 +1525,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1661,7 +1548,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1730,7 +1617,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,7 +1723,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1863,76 +1750,13 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,10 +1765,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1965,20 +1789,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1998,94 +1897,55 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2094,43 +1954,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2420,7 +2256,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2932,7 +2768,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J9"/>
+      <selection activeCell="C23" sqref="C23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2943,73 +2779,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87">
+      <c r="A4" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118">
         <f>H4</f>
         <v>43831</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="93">
+      <c r="H4" s="119">
         <f>Дано!B20</f>
         <v>43831</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -3023,21 +2859,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="98" t="str">
+      <c r="B7" s="107"/>
+      <c r="C7" s="109" t="str">
         <f>Дано!B2</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -3051,21 +2887,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="98" t="str">
+      <c r="B9" s="107"/>
+      <c r="C9" s="109" t="str">
         <f>"Договор №"&amp;Дано!B3&amp;" от "&amp;TEXT(Дано!B20,"[$-x-sysdate]ДДДД, ММММ ДД, ГГГГ")</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -3079,20 +2915,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="99" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -3106,96 +2942,96 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107" t="s">
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="107" t="s">
+      <c r="H13" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="86" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="89"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="106"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="109">
+      <c r="A15" s="88">
         <v>1</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="113" t="str">
+      <c r="C15" s="92" t="str">
         <f>"Экспертиза и оценка: "&amp;Дано!B4&amp;" "&amp;Дано!B5&amp;", "&amp;Дано!B6</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="104" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="98">
         <v>1</v>
       </c>
-      <c r="I15" s="100">
+      <c r="I15" s="99">
         <f>Дано!B34</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="102">
+      <c r="J15" s="101">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="110"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="103"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="10">
         <f>J15</f>
         <v>2500</v>
@@ -3213,18 +3049,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -3238,18 +3074,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -3263,21 +3099,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="121" t="str">
+      <c r="B23" s="107"/>
+      <c r="C23" s="108" t="str">
         <f>Дано!B35</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -3303,16 +3139,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -3441,76 +3277,76 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="85" t="str">
+      <c r="A38" s="116" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис"; г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87">
+      <c r="A41" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="118">
         <f>D4</f>
         <v>43831</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="93">
+      <c r="H41" s="119">
         <f>H4</f>
         <v>43831</v>
       </c>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -3524,21 +3360,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="98" t="str">
+      <c r="B44" s="107"/>
+      <c r="C44" s="109" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -3552,21 +3388,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="98" t="str">
+      <c r="B46" s="107"/>
+      <c r="C46" s="109" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -3580,21 +3416,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="99" t="str">
+      <c r="B48" s="107"/>
+      <c r="C48" s="110" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -3608,99 +3444,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="107" t="s">
+      <c r="C50" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107" t="s">
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="107" t="s">
+      <c r="H50" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="107" t="s">
+      <c r="I50" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="105" t="s">
+      <c r="J50" s="86" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="89"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="106"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="87"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="109">
+      <c r="A52" s="88">
         <v>1</v>
       </c>
-      <c r="B52" s="122" t="str">
+      <c r="B52" s="90" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="113" t="str">
+      <c r="C52" s="92" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="104" t="str">
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="98" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="104">
+      <c r="H52" s="98">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="100">
+      <c r="I52" s="99">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="102">
+      <c r="J52" s="101">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="110"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="103"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="97"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="105"/>
       <c r="J54" s="10">
         <f>J52</f>
         <v>2500</v>
@@ -3718,18 +3554,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -3743,18 +3579,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="120" t="s">
+      <c r="A58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -3768,21 +3604,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="121" t="str">
+      <c r="B60" s="107"/>
+      <c r="C60" s="108" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="121"/>
-      <c r="E60" s="121"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="121"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="121"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -3808,16 +3644,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="119" t="s">
+      <c r="C63" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="119"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="119"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -4440,41 +4276,15 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H4:J5"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C7:J7"/>
@@ -4491,15 +4301,41 @@
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:F16"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4514,7 +4350,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="C9" sqref="C9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4525,76 +4361,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="116" t="str">
         <f>счёт!A1</f>
         <v>ОсОО "Первый Автосервис"; г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="123" t="str">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="134" t="str">
         <f>LEFT(Дано!B3,3)</f>
         <v>001</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="93">
+      <c r="H4" s="119">
         <f ca="1">TODAY()</f>
         <v>43951</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="123"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -4608,21 +4444,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="98" t="str">
+      <c r="B7" s="107"/>
+      <c r="C7" s="109" t="str">
         <f>счёт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -4636,21 +4472,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="98" t="str">
+      <c r="B9" s="107"/>
+      <c r="C9" s="109" t="str">
         <f>счёт!C9:J9</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -4664,20 +4500,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="99" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -4691,98 +4527,98 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128" t="s">
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="128" t="s">
+      <c r="H13" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="128" t="s">
+      <c r="I13" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="130" t="s">
+      <c r="J13" s="123" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="125"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="131"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="109">
+      <c r="A15" s="88">
         <v>1</v>
       </c>
-      <c r="B15" s="111" t="str">
+      <c r="B15" s="121" t="str">
         <f>счёт!B15:B16</f>
         <v>00001</v>
       </c>
-      <c r="C15" s="113" t="str">
+      <c r="C15" s="92" t="str">
         <f>счёт!C15:F16</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="104" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="98">
         <f>счёт!H15:H16</f>
         <v>1</v>
       </c>
-      <c r="I15" s="100">
+      <c r="I15" s="99">
         <f>счёт!I15:I16</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="102">
+      <c r="J15" s="101">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="110"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="103"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="127"/>
       <c r="J17" s="13">
         <f>J15</f>
         <v>2500</v>
@@ -4800,18 +4636,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -4825,18 +4661,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -4850,21 +4686,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="121" t="str">
+      <c r="B23" s="107"/>
+      <c r="C23" s="108" t="str">
         <f>счёт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -4890,16 +4726,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -5028,76 +4864,76 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="85" t="str">
+      <c r="A38" s="116" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис"; г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87" t="str">
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="118" t="str">
         <f>D4</f>
         <v>001</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="93">
+      <c r="H41" s="119">
         <f ca="1">H4</f>
         <v>43951</v>
       </c>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -5111,21 +4947,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="98" t="str">
+      <c r="B44" s="107"/>
+      <c r="C44" s="109" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -5139,21 +4975,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="98" t="str">
+      <c r="B46" s="107"/>
+      <c r="C46" s="109" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -5167,21 +5003,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="99" t="str">
+      <c r="B48" s="107"/>
+      <c r="C48" s="110" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -5195,99 +5031,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="124" t="s">
+      <c r="A50" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="126" t="s">
+      <c r="B50" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="128" t="s">
+      <c r="C50" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128" t="s">
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="128" t="s">
+      <c r="H50" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="128" t="s">
+      <c r="I50" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="130" t="s">
+      <c r="J50" s="123" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="125"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="131"/>
+      <c r="A51" s="129"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="124"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="109">
+      <c r="A52" s="88">
         <v>1</v>
       </c>
-      <c r="B52" s="122" t="str">
+      <c r="B52" s="90" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="113" t="str">
+      <c r="C52" s="92" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="104" t="str">
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="98" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="104">
+      <c r="H52" s="98">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="100">
+      <c r="I52" s="99">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="102">
+      <c r="J52" s="101">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="110"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="103"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="132" t="s">
+      <c r="A54" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="134"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="127"/>
       <c r="J54" s="13">
         <f>J52</f>
         <v>2500</v>
@@ -5305,18 +5141,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -5330,18 +5166,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="120" t="s">
+      <c r="A58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -5355,21 +5191,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="121" t="str">
+      <c r="B60" s="107"/>
+      <c r="C60" s="108" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="121"/>
-      <c r="E60" s="121"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="121"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="121"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -5395,16 +5231,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="119" t="s">
+      <c r="C63" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="119"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="119"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -6027,6 +5863,52 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
     <mergeCell ref="C63:J63"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="A52:A53"/>
@@ -6041,52 +5923,6 @@
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:J60"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -6101,7 +5937,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C12"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6124,362 +5960,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="H1" s="138" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="H1" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="138"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="168" t="s">
+      <c r="K1" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="135" t="s">
+      <c r="L1" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="136" t="s">
+      <c r="K2" s="138"/>
+      <c r="L2" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="141"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="168"/>
+      <c r="K3" s="138"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="156"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="137" t="s">
+      <c r="K4" s="138"/>
+      <c r="L4" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="137" t="s">
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+    </row>
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="137" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="142" t="s">
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="142" t="s">
+      <c r="G6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="158"/>
+      <c r="I6" s="140"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="168"/>
+      <c r="K6" s="138"/>
       <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="160" t="str">
+      <c r="N6" s="151" t="str">
         <f>A11</f>
         <v>001</v>
       </c>
-      <c r="O6" s="161"/>
+      <c r="O6" s="152"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="151"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="159"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="168"/>
+      <c r="K7" s="138"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="151"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="159"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="140"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="162" t="s">
+      <c r="K8" s="138"/>
+      <c r="L8" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="162"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="151"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="159"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="164" t="str">
+      <c r="K9" s="138"/>
+      <c r="L9" s="141" t="str">
         <f>C14</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="151"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="159"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="140"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="146" t="str">
+      <c r="A11" s="148" t="str">
         <f>факт!D4</f>
         <v>001</v>
       </c>
-      <c r="B11" s="169">
+      <c r="B11" s="139">
         <f ca="1">факт!H4</f>
         <v>43951</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="149">
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="150">
         <f>факт!J17</f>
         <v>2500</v>
       </c>
-      <c r="H11" s="139"/>
-      <c r="I11" s="159"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-    </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="147"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="163"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+    </row>
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="149"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="162" t="s">
+      <c r="K12" s="138"/>
+      <c r="L12" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="162"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="168"/>
-      <c r="L13" s="164" t="str">
-        <f>C17</f>
-        <v>Договор №001-01/20 от 1 января 2020 г.</v>
-      </c>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="141" t="str">
+        <f>"Договор №"&amp;Дано!B3&amp;CHAR(10)&amp;" от "&amp;TEXT(Дано!B20,"[$-x-sysdate]ДДДД, ММММ ДД, ГГГГ")</f>
+        <v>Договор №001-01/20
+ от 1 января 2020 г.</v>
+      </c>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="162"/>
-      <c r="C14" s="166" t="str">
+      <c r="B14" s="135"/>
+      <c r="C14" s="136" t="str">
         <f>факт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="167"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="137"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="167"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="162" t="s">
+      <c r="K16" s="138"/>
+      <c r="L16" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="162"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="162"/>
-      <c r="C17" s="166" t="str">
+      <c r="B17" s="135"/>
+      <c r="C17" s="136" t="str">
         <f>факт!C9:J9</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="137"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="164" t="str">
+      <c r="K17" s="138"/>
+      <c r="L17" s="141" t="str">
         <f>C20</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="137"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="162"/>
-      <c r="C20" s="166" t="str">
+      <c r="B20" s="135"/>
+      <c r="C20" s="136" t="str">
         <f>факт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="137"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="168"/>
+      <c r="K20" s="138"/>
       <c r="L20" s="19">
         <f>G11</f>
         <v>2500</v>
@@ -6497,15 +6334,15 @@
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="167"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="137"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="168"/>
+      <c r="K21" s="138"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="16"/>
@@ -6514,71 +6351,71 @@
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="K22" s="168"/>
+      <c r="K22" s="138"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="166" t="str">
+      <c r="B23" s="135"/>
+      <c r="C23" s="136" t="str">
         <f>факт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="137"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="173">
+      <c r="K23" s="138"/>
+      <c r="L23" s="143">
         <f ca="1">B11</f>
         <v>43951</v>
       </c>
-      <c r="M23" s="173"/>
-      <c r="N23" s="174"/>
-      <c r="O23" s="174"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="137"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="168"/>
+      <c r="K24" s="138"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="168"/>
+      <c r="K25" s="138"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="167"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="137"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="168"/>
+      <c r="K26" s="138"/>
       <c r="L26" s="8" t="s">
         <v>16</v>
       </c>
@@ -6586,41 +6423,41 @@
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="167"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="137"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="168"/>
+      <c r="K27" s="138"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="K28" s="168"/>
+      <c r="K28" s="138"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="162" t="s">
+      <c r="K29" s="138"/>
+      <c r="L29" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="162"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
@@ -6633,7 +6470,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="168"/>
+      <c r="K30" s="138"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K31" s="26"/>
@@ -6643,6 +6480,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:C10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L9:O11"/>
+    <mergeCell ref="L13:O15"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="C14:I15"/>
     <mergeCell ref="K1:K30"/>
@@ -6659,36 +6526,6 @@
     <mergeCell ref="C20:I21"/>
     <mergeCell ref="C17:I18"/>
     <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L9:O11"/>
-    <mergeCell ref="L13:O15"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:C10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9595,7 +9432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -9941,7 +9778,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10569,7 +10406,7 @@
   <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A90B3B6-4DD6-43F3-A154-50CA4AFEE9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A3802C-38A7-438C-BFAD-999855F1F029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1750,13 +1750,76 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1765,10 +1828,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1789,95 +1852,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1897,40 +1885,40 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1954,19 +1942,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,7 +2256,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2265,7 +2265,7 @@
     <col min="2" max="2" width="125.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" customWidth="1"/>
     <col min="4" max="13" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -2708,40 +2708,41 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Точно?" error="Выбери между Отчетом и Заключением!" promptTitle="Тип документа" prompt="Выберите между Отчетом и Заключением" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" errorTitle="Точно?" error="Выбери между Отчетом и Заключением!" promptTitle="Тип документа" prompt="Выберите между Отчетом и Заключением" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$1:$E$1</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Проверь!" promptTitle="Чья собственнойсть?" prompt="Укажите кому принадлежит объект оценки" sqref="D16:G16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$D$16:$G$16</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showErrorMessage="1" errorTitle="Точно?" error="Проверь!" sqref="B16" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" errorStyle="warning" errorTitle="Точно?" error="Проверь!" sqref="B16" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$D$16:$G$16</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Точно?" error="Проверь!" sqref="B19" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" errorStyle="information" errorTitle="Точно?" error="Проверь!" sqref="B19" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$D$19:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showErrorMessage="1" errorTitle="Точно?" error="Проверь!" sqref="B22" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" errorStyle="warning" errorTitle="Точно?" error="Проверь!" sqref="B22" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$D$22:$I$22</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showErrorMessage="1" errorTitle="Точно?" error="Проверь!" sqref="B23" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" errorStyle="warning" errorTitle="Точно?" error="Проверь!" sqref="B23" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$D$23:$G$23</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showErrorMessage="1" errorTitle="Точно?" error="Проверь!" sqref="B24" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" errorStyle="warning" errorTitle="Точно?" error="Проверь!" sqref="B24" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>$D$24:$I$24</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Точно?" error="Проверь!" sqref="B30" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" errorTitle="Точно?" error="Проверь!" sqref="B30" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>$D$30:$E$30</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="щэщзэщ" error="щэщзэщ" promptTitle="шгщшгзщ" prompt="щгшщшщшгщгшщгщ" sqref="C17" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>$O$23:$O$25</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Внимание!" error="Проверь!" sqref="B25" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" errorTitle="Внимание!" error="Проверь!" sqref="B25" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>$D$25:$F$25</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$D$2:$M$2</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" sqref="B3 B4 B5 B6 B20 B7 B8" xr:uid="{2B9FCA5B-EF99-46CA-8CDC-788B07F28D51}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2779,73 +2780,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87">
         <f>H4</f>
         <v>43831</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="119">
+      <c r="H4" s="93">
         <f>Дано!B20</f>
         <v>43831</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -2859,21 +2860,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="109" t="str">
+      <c r="B7" s="90"/>
+      <c r="C7" s="98" t="str">
         <f>Дано!B2</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -2887,21 +2888,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="109" t="str">
+      <c r="B9" s="90"/>
+      <c r="C9" s="98" t="str">
         <f>"Договор №"&amp;Дано!B3&amp;" от "&amp;TEXT(Дано!B20,"[$-x-sysdate]ДДДД, ММММ ДД, ГГГГ")</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -2915,20 +2916,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="110" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -2942,96 +2943,96 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114" t="s">
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="114" t="s">
+      <c r="I13" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="86" t="s">
+      <c r="J13" s="105" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="87"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="88">
+      <c r="A15" s="109">
         <v>1</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="113" t="str">
         <f>"Экспертиза и оценка: "&amp;Дано!B4&amp;" "&amp;Дано!B5&amp;", "&amp;Дано!B6</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="98" t="s">
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="104">
         <v>1</v>
       </c>
-      <c r="I15" s="99">
+      <c r="I15" s="100">
         <f>Дано!B34</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="102">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="89"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="102"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="103"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="10">
         <f>J15</f>
         <v>2500</v>
@@ -3049,18 +3050,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -3074,18 +3075,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -3099,21 +3100,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108" t="str">
+      <c r="B23" s="90"/>
+      <c r="C23" s="121" t="str">
         <f>Дано!B35</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -3139,16 +3140,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -3277,76 +3278,76 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="116" t="str">
+      <c r="A38" s="85" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис"; г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="118">
+      <c r="A41" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87">
         <f>D4</f>
         <v>43831</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="119">
+      <c r="H41" s="93">
         <f>H4</f>
         <v>43831</v>
       </c>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="117"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="118"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -3360,21 +3361,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="109" t="str">
+      <c r="B44" s="90"/>
+      <c r="C44" s="98" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -3388,21 +3389,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="109" t="str">
+      <c r="B46" s="90"/>
+      <c r="C46" s="98" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -3416,21 +3417,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="110" t="str">
+      <c r="B48" s="90"/>
+      <c r="C48" s="99" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -3444,99 +3445,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114" t="s">
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="114" t="s">
+      <c r="H50" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="114" t="s">
+      <c r="I50" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="86" t="s">
+      <c r="J50" s="105" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="112"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="87"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="106"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="88">
+      <c r="A52" s="109">
         <v>1</v>
       </c>
-      <c r="B52" s="90" t="str">
+      <c r="B52" s="122" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="92" t="str">
+      <c r="C52" s="113" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="98" t="str">
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="104" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="98">
+      <c r="H52" s="104">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="99">
+      <c r="I52" s="100">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="101">
+      <c r="J52" s="102">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="89"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="102"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="105"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="97"/>
       <c r="J54" s="10">
         <f>J52</f>
         <v>2500</v>
@@ -3554,18 +3555,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -3579,18 +3580,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -3604,21 +3605,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="108" t="str">
+      <c r="B60" s="90"/>
+      <c r="C60" s="121" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -3644,16 +3645,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="119"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="119"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -4276,15 +4277,41 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C7:J7"/>
@@ -4301,41 +4328,15 @@
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:F16"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H4:J5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4361,76 +4362,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="str">
+      <c r="A1" s="85" t="str">
         <f>счёт!A1</f>
         <v>ОсОО "Первый Автосервис"; г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="134" t="str">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="123" t="str">
         <f>LEFT(Дано!B3,3)</f>
         <v>001</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="119">
+      <c r="H4" s="93">
         <f ca="1">TODAY()</f>
-        <v>43951</v>
-      </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
+        <v>43975</v>
+      </c>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="134"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -4444,21 +4445,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="109" t="str">
+      <c r="B7" s="90"/>
+      <c r="C7" s="98" t="str">
         <f>счёт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -4472,21 +4473,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="109" t="str">
+      <c r="B9" s="90"/>
+      <c r="C9" s="98" t="str">
         <f>счёт!C9:J9</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -4500,20 +4501,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="110" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -4527,98 +4528,98 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132" t="s">
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="132" t="s">
+      <c r="I13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="123" t="s">
+      <c r="J13" s="130" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="129"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="124"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="88">
+      <c r="A15" s="109">
         <v>1</v>
       </c>
-      <c r="B15" s="121" t="str">
+      <c r="B15" s="111" t="str">
         <f>счёт!B15:B16</f>
         <v>00001</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="113" t="str">
         <f>счёт!C15:F16</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="98" t="s">
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="104">
         <f>счёт!H15:H16</f>
         <v>1</v>
       </c>
-      <c r="I15" s="99">
+      <c r="I15" s="100">
         <f>счёт!I15:I16</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="102">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="89"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="102"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="103"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="132" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="127"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
       <c r="J17" s="13">
         <f>J15</f>
         <v>2500</v>
@@ -4636,18 +4637,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -4661,18 +4662,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -4686,21 +4687,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108" t="str">
+      <c r="B23" s="90"/>
+      <c r="C23" s="121" t="str">
         <f>счёт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -4726,16 +4727,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -4864,76 +4865,76 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="116" t="str">
+      <c r="A38" s="85" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис"; г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="118" t="str">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87" t="str">
         <f>D4</f>
         <v>001</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="119">
+      <c r="H41" s="93">
         <f ca="1">H4</f>
-        <v>43951</v>
-      </c>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
+        <v>43975</v>
+      </c>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="117"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="118"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -4947,21 +4948,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="109" t="str">
+      <c r="B44" s="90"/>
+      <c r="C44" s="98" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -4975,21 +4976,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="109" t="str">
+      <c r="B46" s="90"/>
+      <c r="C46" s="98" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -5003,21 +5004,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="110" t="str">
+      <c r="B48" s="90"/>
+      <c r="C48" s="99" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -5031,99 +5032,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="128" t="s">
+      <c r="A50" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="132" t="s">
+      <c r="C50" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132" t="s">
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="132" t="s">
+      <c r="H50" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="132" t="s">
+      <c r="I50" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="123" t="s">
+      <c r="J50" s="130" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="129"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="124"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="131"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="88">
+      <c r="A52" s="109">
         <v>1</v>
       </c>
-      <c r="B52" s="90" t="str">
+      <c r="B52" s="122" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="92" t="str">
+      <c r="C52" s="113" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="98" t="str">
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="104" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="98">
+      <c r="H52" s="104">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="99">
+      <c r="I52" s="100">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="101">
+      <c r="J52" s="102">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="89"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="102"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="125" t="s">
+      <c r="A54" s="132" t="s">
         <v>318</v>
       </c>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="127"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="134"/>
       <c r="J54" s="13">
         <f>J52</f>
         <v>2500</v>
@@ -5141,18 +5142,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -5166,18 +5167,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -5191,21 +5192,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="108" t="str">
+      <c r="B60" s="90"/>
+      <c r="C60" s="121" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -5231,16 +5232,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="119"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="119"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -5863,22 +5864,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="A15:A16"/>
@@ -5893,36 +5908,22 @@
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -5937,7 +5938,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+      <selection activeCell="B11" sqref="B11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5960,363 +5961,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="H1" s="155" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="H1" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="155"/>
+      <c r="I1" s="138"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="138" t="s">
+      <c r="K1" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="153" t="s">
+      <c r="L1" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="154" t="s">
+      <c r="K2" s="154"/>
+      <c r="L2" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="141"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="138"/>
+      <c r="K3" s="154"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="140"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="145" t="s">
+      <c r="K4" s="154"/>
+      <c r="L4" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="145" t="s">
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="146" t="s">
+      <c r="C6" s="142"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="146" t="s">
+      <c r="G6" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="146" t="s">
+      <c r="H6" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="139"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="138"/>
+      <c r="K6" s="154"/>
       <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="151" t="str">
+      <c r="N6" s="147" t="str">
         <f>A11</f>
         <v>001</v>
       </c>
-      <c r="O6" s="152"/>
+      <c r="O6" s="148"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="140"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="139"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="138"/>
+      <c r="K7" s="154"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="140"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="139"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="135" t="s">
+      <c r="K8" s="154"/>
+      <c r="L8" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="135"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="146"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="140"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="141" t="str">
+      <c r="K9" s="154"/>
+      <c r="L9" s="150" t="str">
         <f>C14</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="146"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="140"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="139"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="148" t="str">
+      <c r="A11" s="144" t="str">
         <f>факт!D4</f>
         <v>001</v>
       </c>
-      <c r="B11" s="139">
-        <f ca="1">факт!H4</f>
-        <v>43951</v>
-      </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="150">
+      <c r="B11" s="155">
+        <f>Дано!B20</f>
+        <v>43831</v>
+      </c>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="146">
         <f>факт!J17</f>
         <v>2500</v>
       </c>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="149"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="135" t="s">
+      <c r="K12" s="154"/>
+      <c r="L12" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="135"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="138"/>
-      <c r="L13" s="141" t="str">
+      <c r="K13" s="154"/>
+      <c r="L13" s="150" t="str">
         <f>"Договор №"&amp;Дано!B3&amp;CHAR(10)&amp;" от "&amp;TEXT(Дано!B20,"[$-x-sysdate]ДДДД, ММММ ДД, ГГГГ")</f>
         <v>Договор №001-01/20
  от 1 января 2020 г.</v>
       </c>
-      <c r="M13" s="142"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="142"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="136" t="str">
+      <c r="B14" s="149"/>
+      <c r="C14" s="152" t="str">
         <f>факт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="137"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="153"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="137"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="153"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="135" t="s">
+      <c r="K16" s="154"/>
+      <c r="L16" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="136" t="str">
+      <c r="B17" s="149"/>
+      <c r="C17" s="152" t="str">
         <f>факт!C9:J9</f>
         <v>Договор №001-01/20 от 1 января 2020 г.</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="137"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="141" t="str">
+      <c r="K17" s="154"/>
+      <c r="L17" s="150" t="str">
         <f>C20</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="137"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="135" t="s">
+      <c r="A20" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="136" t="str">
+      <c r="B20" s="149"/>
+      <c r="C20" s="152" t="str">
         <f>факт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="137"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="153"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="138"/>
+      <c r="K20" s="154"/>
       <c r="L20" s="19">
         <f>G11</f>
         <v>2500</v>
@@ -6334,15 +6335,15 @@
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="137"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="153"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="138"/>
+      <c r="K21" s="154"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="16"/>
@@ -6351,71 +6352,71 @@
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="K22" s="138"/>
+      <c r="K22" s="154"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="136" t="str">
+      <c r="B23" s="149"/>
+      <c r="C23" s="152" t="str">
         <f>факт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="137"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="153"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="143">
-        <f ca="1">B11</f>
-        <v>43951</v>
-      </c>
-      <c r="M23" s="143"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="156">
+        <f>B11</f>
+        <v>43831</v>
+      </c>
+      <c r="M23" s="156"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="137"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="153"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="138"/>
+      <c r="K24" s="154"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="137"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="153"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="138"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="137"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="138"/>
+      <c r="K26" s="154"/>
       <c r="L26" s="8" t="s">
         <v>16</v>
       </c>
@@ -6423,41 +6424,41 @@
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="137"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="138"/>
+      <c r="K27" s="154"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="K28" s="138"/>
+      <c r="K28" s="154"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="135" t="s">
+      <c r="A29" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="135" t="s">
+      <c r="K29" s="154"/>
+      <c r="L29" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="135"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
@@ -6470,7 +6471,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="138"/>
+      <c r="K30" s="154"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K31" s="26"/>
@@ -6480,15 +6481,27 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="K1:K30"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O19"/>
+    <mergeCell ref="C23:I27"/>
+    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L9:O11"/>
+    <mergeCell ref="L13:O15"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="H6:H10"/>
@@ -6505,27 +6518,15 @@
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L9:O11"/>
-    <mergeCell ref="L13:O15"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="C14:I15"/>
-    <mergeCell ref="K1:K30"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O19"/>
-    <mergeCell ref="C23:I27"/>
-    <mergeCell ref="C20:I21"/>
-    <mergeCell ref="C17:I18"/>
-    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A3802C-38A7-438C-BFAD-999855F1F029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1251591D-C19A-4B04-BAF2-0DB47BADFDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2253,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2708,41 +2708,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" errorTitle="Точно?" error="Выбери между Отчетом и Заключением!" promptTitle="Тип документа" prompt="Выберите между Отчетом и Заключением" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$D$1:$E$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Проверь!" promptTitle="Чья собственнойсть?" prompt="Укажите кому принадлежит объект оценки" sqref="D16:G16" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$D$16:$G$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" errorTitle="Точно?" error="Проверь!" sqref="B16" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$D$16:$G$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" errorTitle="Точно?" error="Проверь!" sqref="B19" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$D$19:$M$19</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" errorTitle="Точно?" error="Проверь!" sqref="B22" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>$D$22:$I$22</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" errorTitle="Точно?" error="Проверь!" sqref="B23" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>$D$23:$G$23</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" errorTitle="Точно?" error="Проверь!" sqref="B24" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>$D$24:$I$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorTitle="Точно?" error="Проверь!" sqref="B30" xr:uid="{00000000-0002-0000-0000-000007000000}">
-      <formula1>$D$30:$E$30</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="щэщзэщ" error="щэщзэщ" promptTitle="шгщшгзщ" prompt="щгшщшщшгщгшщгщ" sqref="C17" xr:uid="{00000000-0002-0000-0000-000008000000}">
-      <formula1>$O$23:$O$25</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" errorTitle="Внимание!" error="Проверь!" sqref="B25" xr:uid="{00000000-0002-0000-0000-000009000000}">
-      <formula1>$D$25:$F$25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
-      <formula1>$D$2:$M$2</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" sqref="B3 B4 B5 B6 B20 B7 B8" xr:uid="{2B9FCA5B-EF99-46CA-8CDC-788B07F28D51}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" sqref="A1:XFD1048576" xr:uid="{2B9FCA5B-EF99-46CA-8CDC-788B07F28D51}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1251591D-C19A-4B04-BAF2-0DB47BADFDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E11088A-FAB4-4B38-A927-89E041ED2C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="293">
   <si>
     <t>Счет на оплату №</t>
   </si>
@@ -223,36 +223,12 @@
     <t>Сумма оплаты прописью:</t>
   </si>
   <si>
-    <t>Для страховой выплаты</t>
-  </si>
-  <si>
     <t>Частная собственность</t>
   </si>
   <si>
-    <t>Определение стоимости транспортного средства</t>
-  </si>
-  <si>
     <t>Для возмещения убытков (ст. 14 ГК КР)</t>
   </si>
   <si>
-    <t>Рыночная стоимость</t>
-  </si>
-  <si>
-    <t>Определение стоимости ущерба, причиненного вследствие возгорания транспортного средства</t>
-  </si>
-  <si>
-    <t>Для принятия управленческих решений</t>
-  </si>
-  <si>
-    <t>Для залогового  обеспечения кредитных обязательств</t>
-  </si>
-  <si>
-    <t>Рыночная стоимость восстановления и утрата товарной стоимости транспортного средства</t>
-  </si>
-  <si>
-    <t>Рыночная стоимость годных остатков (утилизационная стоимость)</t>
-  </si>
-  <si>
     <t>Наименование услуг</t>
   </si>
   <si>
@@ -316,15 +292,6 @@
     <t>Отчет</t>
   </si>
   <si>
-    <t>г. Бишкек, ул. Атбашинская, 2/1</t>
-  </si>
-  <si>
-    <t>г. Шопоков, штрафстоянка</t>
-  </si>
-  <si>
-    <t>г. Бишкек, штрафстоянка вблизи пересечения ул. Фучика и Московской</t>
-  </si>
-  <si>
     <t>Идентификация имущества:</t>
   </si>
   <si>
@@ -352,12 +319,6 @@
     <t>Стоим. деталей определ-ся:</t>
   </si>
   <si>
-    <t>стоимостью новых запасных частей под заказ и на местном рынке альтернативы им нет</t>
-  </si>
-  <si>
-    <t>Заключение</t>
-  </si>
-  <si>
     <t>Тип документа:</t>
   </si>
   <si>
@@ -382,40 +343,7 @@
     <t>г. Бишкек</t>
   </si>
   <si>
-    <t>г. Бишкек, штрафстоянка на ул. Горького, 19/2 (ГорГАИ)</t>
-  </si>
-  <si>
-    <t>г. Бишкек, штрафстоянка на пересечении ул. Анкара и Чокана Валиханова (Респ. ГАИ)</t>
-  </si>
-  <si>
-    <t>г. Бишкек, штрафстоянка на пер. Багижском, 78 (Щербакова)</t>
-  </si>
-  <si>
-    <t>г. Бишкек, штрафстоянка на ул. 7 апреля, 4Б/2 (Ак-Жол)</t>
-  </si>
-  <si>
-    <t>г. Кант, штрафстоянка</t>
-  </si>
-  <si>
     <t>г. Бишкек, 88 мкр-н, 8-48</t>
-  </si>
-  <si>
-    <t>Государственная собственность</t>
-  </si>
-  <si>
-    <t>Муниципальная собственность</t>
-  </si>
-  <si>
-    <t>Без осмотра</t>
-  </si>
-  <si>
-    <t>Определение стоимости причиненного ущерба</t>
-  </si>
-  <si>
-    <t>Определение стоимости ущерба, причиненного вследствие ненадлежащего ремонта транспортного средства</t>
-  </si>
-  <si>
-    <t>Рыночная стоимость восстановления</t>
   </si>
   <si>
     <t>Две тысячи пятьсот сом, 00 тыйын</t>
@@ -486,12 +414,6 @@
     <t>Объем ДВС (в куб. см):</t>
   </si>
   <si>
-    <t>Среднерыночная стоимость транспортного средства</t>
-  </si>
-  <si>
-    <t>Метод сравнительного анализа продаж</t>
-  </si>
-  <si>
     <t>Наименование агрегата, узла, детали</t>
   </si>
   <si>
@@ -969,15 +891,6 @@
     <t>Для грузовых</t>
   </si>
   <si>
-    <t>Метод расчета годных остатков затратным подходом и метод рыночной информации сравнительного подхода</t>
-  </si>
-  <si>
-    <t>Навальный Алексей «ФБК»</t>
-  </si>
-  <si>
-    <t>Определение среднерыночной стоимости транспортного средства</t>
-  </si>
-  <si>
     <t>средняя рыночная стоимость принимается на основании рыночных данных о продаже аналогичных транспортных средств в технически исправном состоянии за период январь-февраль 2020 г. Учитываются следующие характеристики: модель, тип кузова, год выпуска, объем двигателя и комплектация транспортного средства. В качестве источника информации была использована база данных ОсОО "Первый-Автосервис", периодическое издание "АвтоГид", интернет-ресурсы: mashina.kg, cars.kg, lalafo.kg, riom.kg</t>
   </si>
   <si>
@@ -996,34 +909,7 @@
     <t>Итого к оплате, сом</t>
   </si>
   <si>
-    <t>ЗАО «Страховая компания «АЮ Гарант»</t>
-  </si>
-  <si>
-    <t>ЗАО СК «Алма-Иншуренс»</t>
-  </si>
-  <si>
-    <t>ЗАО СК «АТН Полис»</t>
-  </si>
-  <si>
     <t>ЗАО СК «Кыргызстан»</t>
-  </si>
-  <si>
-    <t>ЗАО «НСК»</t>
-  </si>
-  <si>
-    <t>ЗСАО «Ингосстрах»</t>
-  </si>
-  <si>
-    <t>ЗАО «СК Арсеналъ-Кыргызстан»</t>
-  </si>
-  <si>
-    <t>ЗАО «Страховая компания «А Плюс»</t>
-  </si>
-  <si>
-    <t>ЗАО «Мега Иншуренс Групп»</t>
-  </si>
-  <si>
-    <t>ЗАО «Jubilee Kyrgyzstan Insurance Company»</t>
   </si>
   <si>
     <t>$/сом:</t>
@@ -1036,15 +922,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\'sh\е\т\ \н\а\ \о\п\л\а\т\у\ \№\'\ dd\/mm"/>
     <numFmt numFmtId="166" formatCode="&quot;№&quot;dd\/mm"/>
-    <numFmt numFmtId="167" formatCode="dd\/mm"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ _₽"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0\ _₽"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0\ _₽"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1636,14 +1521,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1665,13 +1550,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1681,23 +1566,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1717,7 +1602,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1747,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1756,7 +1641,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,10 +1848,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,7 +2141,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2264,71 +2149,35 @@
     <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="125.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="13" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="4" max="13" width="8.7265625" customWidth="1"/>
     <col min="14" max="14" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
@@ -2336,31 +2185,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -2368,15 +2217,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>54</v>
       </c>
@@ -2384,120 +2233,85 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B11" s="29">
         <v>2498</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="28" t="str">
-        <f>B2</f>
-        <v>Навальный Алексей «ФБК»</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="45" t="s">
-        <v>123</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
@@ -2522,86 +2336,40 @@
       <c r="B22" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>312</v>
-      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s">
-        <v>149</v>
-      </c>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>310</v>
-      </c>
-      <c r="F25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -2615,10 +2383,10 @@
     </row>
     <row r="27" spans="1:13" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -2626,53 +2394,48 @@
         <v>59</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="34" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>316</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.35">
@@ -2688,12 +2451,12 @@
         <v>61</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="80" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B36" s="29">
         <v>600</v>
@@ -2701,10 +2464,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="80" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="B37" s="29">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2736,7 +2499,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:J23"/>
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2748,7 +2511,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -2790,9 +2553,9 @@
       </c>
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
-      <c r="D4" s="87">
-        <f>H4</f>
-        <v>43831</v>
+      <c r="D4" s="87" t="str">
+        <f>LEFT(Дано!B3,3)&amp;"-"&amp;MONTH(H4)</f>
+        <v>001-1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
@@ -2833,7 +2596,7 @@
       <c r="B7" s="90"/>
       <c r="C7" s="98" t="str">
         <f>Дано!B2</f>
-        <v>Навальный Алексей «ФБК»</v>
+        <v>ЗАО СК «Кыргызстан»</v>
       </c>
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
@@ -2962,7 +2725,7 @@
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
       <c r="G15" s="104" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="H15" s="104">
         <v>1</v>
@@ -2990,7 +2753,7 @@
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="95" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B17" s="96"/>
       <c r="C17" s="96"/>
@@ -3291,9 +3054,9 @@
       </c>
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
-      <c r="D41" s="87">
+      <c r="D41" s="87" t="str">
         <f>D4</f>
-        <v>43831</v>
+        <v>001-1</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
@@ -3334,7 +3097,7 @@
       <c r="B44" s="90"/>
       <c r="C44" s="98" t="str">
         <f>C7</f>
-        <v>Навальный Алексей «ФБК»</v>
+        <v>ЗАО СК «Кыргызстан»</v>
       </c>
       <c r="D44" s="98"/>
       <c r="E44" s="98"/>
@@ -3495,7 +3258,7 @@
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B54" s="96"/>
       <c r="C54" s="96"/>
@@ -4318,7 +4081,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J9"/>
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4383,7 +4146,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="93">
         <f ca="1">TODAY()</f>
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="I4" s="94"/>
       <c r="J4" s="94"/>
@@ -4418,7 +4181,7 @@
       <c r="B7" s="90"/>
       <c r="C7" s="98" t="str">
         <f>счёт!C7:J7</f>
-        <v>Навальный Алексей «ФБК»</v>
+        <v>ЗАО СК «Кыргызстан»</v>
       </c>
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
@@ -4548,7 +4311,7 @@
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
       <c r="G15" s="104" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="H15" s="104">
         <f>счёт!H15:H16</f>
@@ -4577,7 +4340,7 @@
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="132" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133"/>
@@ -4886,7 +4649,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="93">
         <f ca="1">H4</f>
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="I41" s="94"/>
       <c r="J41" s="94"/>
@@ -4921,7 +4684,7 @@
       <c r="B44" s="90"/>
       <c r="C44" s="98" t="str">
         <f>C7</f>
-        <v>Навальный Алексей «ФБК»</v>
+        <v>ЗАО СК «Кыргызстан»</v>
       </c>
       <c r="D44" s="98"/>
       <c r="E44" s="98"/>
@@ -5082,7 +4845,7 @@
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="132" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B54" s="133"/>
       <c r="C54" s="133"/>
@@ -5905,7 +5668,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C12"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6088,7 +5851,7 @@
       <c r="K9" s="154"/>
       <c r="L9" s="150" t="str">
         <f>C14</f>
-        <v>Навальный Алексей «ФБК»</v>
+        <v>ЗАО СК «Кыргызстан»</v>
       </c>
       <c r="M9" s="151"/>
       <c r="N9" s="151"/>
@@ -6174,7 +5937,7 @@
       <c r="B14" s="149"/>
       <c r="C14" s="152" t="str">
         <f>факт!C7:J7</f>
-        <v>Навальный Алексей «ФБК»</v>
+        <v>ЗАО СК «Кыргызстан»</v>
       </c>
       <c r="D14" s="152"/>
       <c r="E14" s="152"/>
@@ -6517,7 +6280,7 @@
   <dimension ref="A1:M400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6537,38 +6300,38 @@
         <v>4</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F1" s="53"/>
       <c r="G1" s="54" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="H1" s="54" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="M1" s="54" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -9401,7 +9164,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9417,13 +9180,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -9431,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C2" s="33">
         <v>0</v>
@@ -9446,7 +9209,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C3" s="33">
         <v>0</v>
@@ -9461,7 +9224,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
@@ -9476,7 +9239,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C5" s="33">
         <v>0</v>
@@ -9491,7 +9254,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C6" s="33">
         <v>0</v>
@@ -9506,7 +9269,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C7" s="33">
         <v>0</v>
@@ -9521,7 +9284,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C8" s="33">
         <v>0</v>
@@ -9536,7 +9299,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>
@@ -9551,7 +9314,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C10" s="33">
         <v>0</v>
@@ -9566,7 +9329,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
@@ -9581,7 +9344,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C12" s="33">
         <v>0</v>
@@ -9596,7 +9359,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C13" s="33">
         <v>0</v>
@@ -9611,7 +9374,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C14" s="33">
         <v>0</v>
@@ -9626,7 +9389,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C15" s="33">
         <v>0</v>
@@ -9641,7 +9404,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C16" s="33">
         <v>0</v>
@@ -9656,7 +9419,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C17" s="33">
         <v>0</v>
@@ -9671,7 +9434,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C18" s="33">
         <v>0</v>
@@ -9686,7 +9449,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C19" s="33">
         <v>0</v>
@@ -9701,7 +9464,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C20" s="33">
         <v>0</v>
@@ -9716,7 +9479,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C21" s="33">
         <v>0</v>
@@ -9746,7 +9509,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9766,16 +9529,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -10373,9 +10136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10392,29 +10153,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="68"/>
       <c r="E1" s="57" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E2" s="57">
         <v>0.7</v>
@@ -10428,7 +10189,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B3" s="71">
         <v>20</v>
@@ -10440,7 +10201,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B4" s="71">
         <v>30</v>
@@ -10452,7 +10213,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B5" s="71">
         <v>13</v>
@@ -10464,7 +10225,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B6" s="71">
         <v>3</v>
@@ -10476,7 +10237,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B7" s="71">
         <v>3</v>
@@ -10488,7 +10249,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B8" s="71">
         <v>2.5</v>
@@ -10500,7 +10261,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B9" s="71">
         <v>2</v>
@@ -10512,7 +10273,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B10" s="71">
         <v>2</v>
@@ -10524,7 +10285,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B11" s="71">
         <v>2.5</v>
@@ -10536,7 +10297,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B12" s="71">
         <v>2</v>
@@ -10548,7 +10309,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13" s="71">
         <v>16</v>
@@ -10560,7 +10321,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B14" s="71">
         <v>10</v>
@@ -10572,7 +10333,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B15" s="71">
         <v>7</v>
@@ -10584,7 +10345,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B16" s="71">
         <v>10</v>
@@ -10596,7 +10357,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B17" s="71">
         <v>2</v>
@@ -10608,7 +10369,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B18" s="71">
         <v>8</v>
@@ -10620,7 +10381,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="B19" s="71">
         <v>18</v>
@@ -10632,7 +10393,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B20" s="71">
         <v>2</v>
@@ -10644,7 +10405,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B21" s="71">
         <v>2</v>
@@ -10656,7 +10417,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B22" s="71">
         <v>3</v>
@@ -10689,7 +10450,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B25" s="72"/>
       <c r="F25" s="39"/>
@@ -10698,13 +10459,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="57" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="40"/>
@@ -10712,7 +10473,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B27" s="74">
         <v>50</v>
@@ -10722,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="41"/>
@@ -10730,7 +10491,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B28" s="74">
         <v>14</v>
@@ -10742,7 +10503,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B29" s="74">
         <v>1.9</v>
@@ -10754,7 +10515,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B30" s="74">
         <v>0.8</v>
@@ -10766,7 +10527,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B31" s="74">
         <v>1.9</v>
@@ -10778,7 +10539,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B32" s="74">
         <v>0.8</v>
@@ -10790,7 +10551,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B33" s="74">
         <v>0.8</v>
@@ -10802,7 +10563,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B34" s="74">
         <v>1.4</v>
@@ -10814,7 +10575,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B35" s="74">
         <v>1.7</v>
@@ -10826,7 +10587,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B36" s="74">
         <v>1.4</v>
@@ -10838,7 +10599,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="35" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B37" s="74">
         <v>0.3</v>
@@ -10850,7 +10611,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B38" s="74">
         <v>12</v>
@@ -10860,12 +10621,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B39" s="74">
         <v>1.6</v>
@@ -10877,7 +10638,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B40" s="74">
         <v>2.1</v>
@@ -10887,12 +10648,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B41" s="74">
         <v>1.9</v>
@@ -10904,7 +10665,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B42" s="74">
         <v>0.8</v>
@@ -10916,7 +10677,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B43" s="74">
         <v>0.8</v>
@@ -10928,7 +10689,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B44" s="74">
         <v>1.1000000000000001</v>
@@ -10940,7 +10701,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B45" s="74">
         <v>1.6</v>
@@ -10952,7 +10713,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B46" s="74">
         <v>24</v>
@@ -10962,12 +10723,12 @@
         <v>0</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B47" s="74">
         <v>1.4</v>
@@ -10979,7 +10740,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B48" s="74">
         <v>1.4</v>
@@ -10989,12 +10750,12 @@
         <v>0</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B49" s="74">
         <v>2.5</v>
@@ -11004,12 +10765,12 @@
         <v>0</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B50" s="74">
         <v>1.9</v>
@@ -11021,7 +10782,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="35" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B51" s="74">
         <v>0.5</v>
@@ -11033,7 +10794,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B52" s="74">
         <v>1.1000000000000001</v>
@@ -11045,7 +10806,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B53" s="74">
         <v>3.5</v>
@@ -11057,7 +10818,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B54" s="74">
         <v>0.8</v>
@@ -11069,7 +10830,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B55" s="74">
         <v>2.5</v>
@@ -11081,7 +10842,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B56" s="74">
         <v>0.3</v>
@@ -11093,7 +10854,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B57" s="74">
         <v>0.6</v>
@@ -11105,7 +10866,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B58" s="74">
         <v>11</v>
@@ -11115,12 +10876,12 @@
         <v>0</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B59" s="74">
         <v>4.9000000000000004</v>
@@ -11132,7 +10893,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B60" s="74">
         <v>0.5</v>
@@ -11144,7 +10905,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="35" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B61" s="74">
         <v>0.5</v>
@@ -11156,7 +10917,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B62" s="74">
         <v>2.2000000000000002</v>
@@ -11168,7 +10929,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B63" s="74">
         <v>1.4</v>
@@ -11180,7 +10941,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B64" s="74">
         <v>0.8</v>
@@ -11192,7 +10953,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B65" s="74">
         <v>0.5</v>
@@ -11204,7 +10965,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="35" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B66" s="74">
         <v>0.5</v>
@@ -11216,7 +10977,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B67" s="74">
         <v>0.8</v>
@@ -11228,7 +10989,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B68" s="74">
         <v>0.5</v>
@@ -11240,7 +11001,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B69" s="74">
         <v>0.5</v>
@@ -11252,7 +11013,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B70" s="74">
         <v>0.8</v>
@@ -11264,7 +11025,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B71" s="74">
         <v>1.4</v>
@@ -11274,12 +11035,12 @@
         <v>0</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B72" s="74">
         <v>0.6</v>
@@ -11289,12 +11050,12 @@
         <v>0</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B73" s="74">
         <v>2.5</v>
@@ -11306,7 +11067,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B74" s="74">
         <v>0.7</v>
@@ -11318,7 +11079,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="35" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B75" s="74">
         <v>1.8</v>
@@ -11330,7 +11091,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B76" s="74">
         <v>4.5</v>
@@ -11342,7 +11103,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B77" s="74">
         <v>4.5</v>
@@ -11354,7 +11115,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B78" s="74">
         <v>10</v>
@@ -11366,7 +11127,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="35" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B79" s="74">
         <v>5.5</v>
@@ -11376,12 +11137,12 @@
         <v>0</v>
       </c>
       <c r="D79" s="34" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B80" s="74">
         <v>4.5</v>
@@ -11391,12 +11152,12 @@
         <v>0</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B81" s="74">
         <v>10</v>
@@ -11406,12 +11167,12 @@
         <v>0</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B82" s="74">
         <v>3</v>
@@ -11423,7 +11184,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="35" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B83" s="74">
         <v>0.5</v>
@@ -11435,7 +11196,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B84" s="74">
         <v>0.8</v>
@@ -11447,7 +11208,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B85" s="74">
         <v>1.2</v>
@@ -11459,7 +11220,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B86" s="74">
         <v>0.5</v>
@@ -11471,7 +11232,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B87" s="74">
         <v>0.3</v>
@@ -11483,7 +11244,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B88" s="74">
         <v>3.5</v>
@@ -11495,7 +11256,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B89" s="74">
         <v>0.5</v>
@@ -11507,7 +11268,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B90" s="74">
         <v>0.5</v>
@@ -11519,7 +11280,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B91" s="74">
         <v>0.3</v>
@@ -11531,7 +11292,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B92" s="74">
         <v>0.7</v>
@@ -11543,7 +11304,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B93" s="74">
         <v>12.5</v>
@@ -11555,7 +11316,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B94" s="74">
         <v>0.5</v>
@@ -11567,7 +11328,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B95" s="74">
         <v>0.5</v>
@@ -11579,7 +11340,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="35" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B96" s="74">
         <v>1</v>
@@ -11591,7 +11352,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B97" s="74">
         <v>0.5</v>
@@ -11603,7 +11364,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B98" s="74">
         <v>0.8</v>
@@ -11615,7 +11376,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="35" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B99" s="74">
         <v>2.1</v>
@@ -11627,7 +11388,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B100" s="74">
         <v>0.5</v>
@@ -11639,7 +11400,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="35" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B101" s="74">
         <v>0.6</v>
@@ -11651,7 +11412,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="35" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B102" s="74">
         <v>1.1000000000000001</v>
@@ -11663,7 +11424,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="35" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B103" s="74">
         <v>0.9</v>
@@ -11675,7 +11436,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="35" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B104" s="74">
         <v>0.8</v>
@@ -11687,7 +11448,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="35" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B105" s="74">
         <v>0.3</v>
@@ -11699,7 +11460,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="35" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B106" s="74">
         <v>0.8</v>
@@ -11711,7 +11472,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="35" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B107" s="74">
         <v>3</v>
@@ -11721,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -11736,70 +11497,70 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="34" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="B109" s="72"/>
       <c r="C109" s="36"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="34" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B110" s="72"/>
       <c r="C110" s="36"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="34" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B111" s="72"/>
       <c r="C111" s="36"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="34" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B112" s="72"/>
       <c r="C112" s="36"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="68" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B114" s="72"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="57" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B115" s="77" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C115" s="76" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D115" s="77" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="E115" s="78" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="F115" s="79" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="G115" s="79" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="H115" s="79" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="I115" s="79" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="35" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B116" s="74">
         <v>24</v>
@@ -11809,27 +11570,27 @@
         <v>0</v>
       </c>
       <c r="D116" s="75" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="E116" s="75" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="F116" s="75" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G116" s="75" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H116" s="75" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="35" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B117" s="74">
         <v>1</v>
@@ -11859,7 +11620,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="35" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B118" s="74">
         <v>1.3</v>
@@ -11869,27 +11630,27 @@
         <v>0</v>
       </c>
       <c r="D118" s="75" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="E118" s="75" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="F118" s="75" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="G118" s="75" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="H118" s="75" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="I118" s="75" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="35" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B119" s="74">
         <v>0.4</v>
@@ -11919,7 +11680,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="35" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B120" s="74">
         <v>0.6</v>
@@ -11949,7 +11710,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="35" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B121" s="74">
         <v>0.5</v>
@@ -11979,7 +11740,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="35" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B122" s="74">
         <v>0.3</v>
@@ -12009,7 +11770,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="35" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B123" s="74">
         <v>0.9</v>
@@ -12039,7 +11800,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="35" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B124" s="74">
         <v>2.8</v>
@@ -12069,7 +11830,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="35" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="B125" s="74">
         <v>0.6</v>
@@ -12099,7 +11860,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="35" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B126" s="74">
         <v>2.1</v>
@@ -12129,7 +11890,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="35" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B127" s="74">
         <v>0.5</v>
@@ -12159,7 +11920,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="35" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B128" s="74">
         <v>0.8</v>
@@ -12189,7 +11950,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="35" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B129" s="74">
         <v>1.3</v>
@@ -12219,7 +11980,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="35" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B130" s="74">
         <v>0.6</v>
@@ -12249,7 +12010,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="35" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B131" s="74">
         <v>0.7</v>
@@ -12279,7 +12040,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="35" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B132" s="74">
         <v>0.3</v>
@@ -12309,7 +12070,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="35" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B133" s="74">
         <v>0.2</v>
@@ -12339,7 +12100,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="35" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B134" s="74">
         <v>0.6</v>
@@ -12369,7 +12130,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="35" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B135" s="74">
         <v>0.2</v>
@@ -12399,7 +12160,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="35" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B136" s="74">
         <v>0.6</v>
@@ -12429,7 +12190,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="35" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="B137" s="74">
         <v>2.5</v>
@@ -12459,7 +12220,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="35" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B138" s="74">
         <v>34</v>
@@ -12489,7 +12250,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="35" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B139" s="74">
         <v>21</v>
@@ -12519,7 +12280,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="35" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B140" s="74">
         <v>1</v>
@@ -12549,7 +12310,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="35" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B141" s="74">
         <v>1</v>
@@ -12579,7 +12340,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="35" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B142" s="74">
         <v>14</v>
@@ -12609,7 +12370,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="35" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B143" s="74">
         <v>1.1000000000000001</v>
@@ -12639,7 +12400,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="35" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B144" s="74">
         <v>0.5</v>
@@ -12669,7 +12430,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="35" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B145" s="74">
         <v>0.5</v>
@@ -12699,7 +12460,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="35" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B146" s="74">
         <v>0.9</v>
@@ -12729,7 +12490,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="35" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B147" s="74">
         <v>1.4</v>
@@ -12759,7 +12520,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="35" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B148" s="74">
         <v>0.8</v>
@@ -12789,7 +12550,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="35" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B149" s="74">
         <v>0.9</v>
@@ -12819,7 +12580,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="35" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B150" s="74">
         <v>0.8</v>
@@ -12849,7 +12610,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="35" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B151" s="74">
         <v>1</v>
@@ -12879,7 +12640,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="35" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B152" s="74">
         <v>1.2</v>
@@ -12909,7 +12670,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="35" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B153" s="74">
         <v>1</v>
@@ -12939,7 +12700,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="35" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B154" s="74">
         <v>2.1</v>
@@ -12969,7 +12730,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="35" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B155" s="74">
         <v>1.6</v>
@@ -12999,7 +12760,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="35" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="B156" s="74">
         <v>3</v>
@@ -13029,7 +12790,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="35" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B157" s="74">
         <v>10</v>
@@ -13059,7 +12820,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="35" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B158" s="74">
         <v>15</v>
@@ -13089,7 +12850,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="35" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B159" s="74">
         <v>3</v>
@@ -13119,7 +12880,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="35" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B160" s="74">
         <v>0.5</v>
@@ -13149,7 +12910,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="35" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B161" s="74">
         <v>1</v>
@@ -13179,7 +12940,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="35" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B162" s="74">
         <v>1.2</v>
@@ -13209,7 +12970,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="35" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B163" s="74">
         <v>0.3</v>
@@ -13239,7 +13000,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="35" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B164" s="74">
         <v>0.1</v>
@@ -13269,7 +13030,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="35" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B165" s="74">
         <v>3</v>
@@ -13299,7 +13060,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="35" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B166" s="74">
         <v>5</v>
@@ -13329,7 +13090,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="35" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B167" s="74">
         <v>3</v>
@@ -13339,27 +13100,27 @@
         <v>0</v>
       </c>
       <c r="D167" s="75" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="E167" s="75" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="F167" s="75" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="G167" s="75" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="H167" s="75" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="I167" s="75" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B168" s="58">
         <f t="shared" ref="B168:C168" si="0">SUM(B116:B167)</f>

--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D911F9E5-2140-4FFF-9357-A03D98175A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A944A3F-0C54-4FA2-9E9A-A402D5A824AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Дано" sheetId="5" r:id="rId1"/>
@@ -2145,6 +2145,99 @@
     <xf numFmtId="173" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2154,146 +2247,158 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2301,120 +2406,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2439,23 +2439,23 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="21" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2744,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3199,10 +3199,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="222" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="223"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="76">
         <v>0</v>
       </c>
@@ -3217,10 +3217,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="227"/>
+      <c r="B8" s="224"/>
       <c r="C8" s="77" t="s">
         <v>61</v>
       </c>
@@ -3235,10 +3235,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="223" t="s">
+      <c r="A9" s="222" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="223"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="74">
         <v>1</v>
       </c>
@@ -3253,10 +3253,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="224"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="73">
         <f>C7*C9</f>
         <v>0</v>
@@ -3275,10 +3275,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="223" t="s">
+      <c r="A11" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="223"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="74">
         <v>1</v>
       </c>
@@ -3293,10 +3293,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="224"/>
+      <c r="B12" s="225"/>
       <c r="C12" s="73">
         <f>C10*C11</f>
         <v>0</v>
@@ -3315,10 +3315,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="223" t="s">
+      <c r="A13" s="222" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="223"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="74">
         <v>1</v>
       </c>
@@ -3333,10 +3333,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="224" t="s">
+      <c r="A14" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="224"/>
+      <c r="B14" s="225"/>
       <c r="C14" s="73">
         <f>C12*C13</f>
         <v>0</v>
@@ -3355,10 +3355,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="222" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="223"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="74">
         <v>1</v>
       </c>
@@ -3373,10 +3373,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="224" t="s">
+      <c r="A16" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="224"/>
+      <c r="B16" s="225"/>
       <c r="C16" s="73">
         <f>C14*C15</f>
         <v>0</v>
@@ -3395,10 +3395,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="223" t="s">
+      <c r="A17" s="222" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="223"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="74">
         <v>1</v>
       </c>
@@ -3413,10 +3413,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="224" t="s">
+      <c r="A18" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="224"/>
+      <c r="B18" s="225"/>
       <c r="C18" s="73">
         <f>C16*C17</f>
         <v>0</v>
@@ -3435,10 +3435,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="223" t="s">
+      <c r="A19" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="223"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="74">
         <v>1</v>
       </c>
@@ -3453,10 +3453,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="224" t="s">
+      <c r="A20" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="224"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="73">
         <f>C18*C19</f>
         <v>0</v>
@@ -3475,17 +3475,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="225" t="s">
+      <c r="A21" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="225"/>
-      <c r="C21" s="222">
+      <c r="B21" s="227"/>
+      <c r="C21" s="226">
         <f>ROUND(AVERAGE(C20:F20),-2)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="222"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="222"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="226"/>
     </row>
     <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
@@ -3497,22 +3497,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3538,73 +3538,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126" t="str">
+      <c r="A4" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="157" t="str">
         <f>LEFT(Дано!B2,3)&amp;"-"&amp;MONTH(H4)</f>
         <v>001-1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="132">
+      <c r="H4" s="158">
         <f>Дано!B4</f>
         <v>43831</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -3618,21 +3618,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="137" t="str">
+      <c r="B7" s="146"/>
+      <c r="C7" s="148" t="str">
         <f>Дано!B6</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -3646,21 +3646,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="137" t="str">
+      <c r="B9" s="146"/>
+      <c r="C9" s="148" t="str">
         <f>"Договор №"&amp;Дано!B2&amp;" от "&amp;TEXT(Дано!B4,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -3674,20 +3674,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="138" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -3701,96 +3701,96 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146" t="s">
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="146" t="s">
+      <c r="H13" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="146" t="s">
+      <c r="I13" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="144" t="s">
+      <c r="J13" s="125" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="128"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="145"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="126"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="148">
+      <c r="A15" s="127">
         <v>1</v>
       </c>
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="152" t="str">
+      <c r="C15" s="131" t="str">
         <f>"Экспертиза и оценка: "&amp;Дано!B16&amp;" "&amp;Дано!B17&amp;", "&amp;Дано!B18</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="143" t="s">
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="137" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="143">
+      <c r="H15" s="137">
         <v>1</v>
       </c>
-      <c r="I15" s="139">
+      <c r="I15" s="138">
         <f>Дано!B13</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="141">
+      <c r="J15" s="140">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="149"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="142"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="142" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="136"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="144"/>
       <c r="J17" s="10">
         <f>J15</f>
         <v>2500</v>
@@ -3808,18 +3808,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -3833,18 +3833,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -3858,21 +3858,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="160" t="str">
+      <c r="B23" s="146"/>
+      <c r="C23" s="147" t="str">
         <f>Дано!B14&amp;" сом, 00 тыйын"</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -3898,16 +3898,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="158" t="s">
+      <c r="C26" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -4034,76 +4034,76 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="124" t="str">
+      <c r="A38" s="155" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="124"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="126" t="str">
+      <c r="A41" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157" t="str">
         <f>D4</f>
         <v>001-1</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="132">
+      <c r="H41" s="158">
         <f>H4</f>
         <v>43831</v>
       </c>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="126"/>
+      <c r="A42" s="156"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="157"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -4117,21 +4117,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="137" t="str">
+      <c r="B44" s="146"/>
+      <c r="C44" s="148" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -4145,21 +4145,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="129"/>
-      <c r="C46" s="137" t="str">
+      <c r="B46" s="146"/>
+      <c r="C46" s="148" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -4173,21 +4173,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="129" t="s">
+      <c r="A48" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="129"/>
-      <c r="C48" s="138" t="str">
+      <c r="B48" s="146"/>
+      <c r="C48" s="149" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -4201,99 +4201,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="146" t="s">
+      <c r="C50" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="146" t="s">
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="146" t="s">
+      <c r="H50" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="146" t="s">
+      <c r="I50" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="144" t="s">
+      <c r="J50" s="125" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="128"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="145"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="126"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="148">
+      <c r="A52" s="127">
         <v>1</v>
       </c>
-      <c r="B52" s="161" t="str">
+      <c r="B52" s="129" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="152" t="str">
+      <c r="C52" s="131" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="143" t="str">
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="137" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="143">
+      <c r="H52" s="137">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="139">
+      <c r="I52" s="138">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="141">
+      <c r="J52" s="140">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="149"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="142"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="141"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="134" t="s">
+      <c r="A54" s="142" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="135"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="136"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="144"/>
       <c r="J54" s="10">
         <f>J52</f>
         <v>2500</v>
@@ -4311,18 +4311,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="159" t="s">
+      <c r="A56" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="159"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -4336,18 +4336,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="159" t="s">
+      <c r="A58" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="159"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="159"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -4361,21 +4361,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="129"/>
-      <c r="C60" s="160" t="str">
+      <c r="B60" s="146"/>
+      <c r="C60" s="147" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="160"/>
-      <c r="H60" s="160"/>
-      <c r="I60" s="160"/>
-      <c r="J60" s="160"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
+      <c r="G60" s="147"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
+      <c r="J60" s="147"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -4401,16 +4401,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="158" t="s">
+      <c r="C63" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="158"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -5079,41 +5079,15 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H4:J5"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C7:J7"/>
@@ -5130,15 +5104,41 @@
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:F16"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5164,76 +5164,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="124" t="str">
+      <c r="A1" s="155" t="str">
         <f>счёт!A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="162" t="str">
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="173" t="str">
         <f>счёт!D4</f>
         <v>001-1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="132">
+      <c r="H4" s="158">
         <f ca="1">TODAY()</f>
         <v>44011</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="162"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -5247,21 +5247,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="137" t="str">
+      <c r="B7" s="146"/>
+      <c r="C7" s="148" t="str">
         <f>счёт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -5275,21 +5275,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="137" t="str">
+      <c r="B9" s="146"/>
+      <c r="C9" s="148" t="str">
         <f>счёт!C9:J9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -5303,20 +5303,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="138" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -5330,98 +5330,98 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167" t="s">
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="167" t="s">
+      <c r="H13" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="167" t="s">
+      <c r="I13" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="169" t="s">
+      <c r="J13" s="162" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="164"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="170"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="148">
+      <c r="A15" s="127">
         <v>1</v>
       </c>
-      <c r="B15" s="150" t="str">
+      <c r="B15" s="160" t="str">
         <f>счёт!B15:B16</f>
         <v>00001</v>
       </c>
-      <c r="C15" s="152" t="str">
+      <c r="C15" s="131" t="str">
         <f>счёт!C15:F16</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="143" t="s">
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="137" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="143">
+      <c r="H15" s="137">
         <f>счёт!H15:H16</f>
         <v>1</v>
       </c>
-      <c r="I15" s="139">
+      <c r="I15" s="138">
         <f>счёт!I15:I16</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="141">
+      <c r="J15" s="140">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="149"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="142"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="164" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="173"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="166"/>
       <c r="J17" s="13">
         <f>J15</f>
         <v>2500</v>
@@ -5439,18 +5439,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -5464,18 +5464,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -5489,21 +5489,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="160" t="str">
+      <c r="B23" s="146"/>
+      <c r="C23" s="147" t="str">
         <f>счёт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -5529,16 +5529,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="158" t="s">
+      <c r="C26" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -5667,76 +5667,76 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="124" t="str">
+      <c r="A38" s="155" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="124"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="125" t="s">
+      <c r="A41" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="126" t="str">
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157" t="str">
         <f>D4</f>
         <v>001-1</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="132">
+      <c r="H41" s="158">
         <f ca="1">H4</f>
         <v>44011</v>
       </c>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="126"/>
+      <c r="A42" s="156"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="157"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -5750,21 +5750,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="137" t="str">
+      <c r="B44" s="146"/>
+      <c r="C44" s="148" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -5778,21 +5778,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="129"/>
-      <c r="C46" s="137" t="str">
+      <c r="B46" s="146"/>
+      <c r="C46" s="148" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -5806,21 +5806,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="129" t="s">
+      <c r="A48" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="129"/>
-      <c r="C48" s="138" t="str">
+      <c r="B48" s="146"/>
+      <c r="C48" s="149" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -5834,99 +5834,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="163" t="s">
+      <c r="A50" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="167" t="s">
+      <c r="C50" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167" t="s">
+      <c r="D50" s="171"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="167" t="s">
+      <c r="H50" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="167" t="s">
+      <c r="I50" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="169" t="s">
+      <c r="J50" s="162" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="164"/>
-      <c r="B51" s="166"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="170"/>
+      <c r="A51" s="168"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="172"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="172"/>
+      <c r="G51" s="172"/>
+      <c r="H51" s="172"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="163"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="148">
+      <c r="A52" s="127">
         <v>1</v>
       </c>
-      <c r="B52" s="161" t="str">
+      <c r="B52" s="129" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="152" t="str">
+      <c r="C52" s="131" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="143" t="str">
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="137" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="143">
+      <c r="H52" s="137">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="139">
+      <c r="I52" s="138">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="141">
+      <c r="J52" s="140">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="149"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="142"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="141"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="171" t="s">
+      <c r="A54" s="164" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="172"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="172"/>
-      <c r="F54" s="172"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="173"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="166"/>
       <c r="J54" s="13">
         <f>J52</f>
         <v>2500</v>
@@ -5944,18 +5944,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="159" t="s">
+      <c r="A56" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="159"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -5969,18 +5969,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="159" t="s">
+      <c r="A58" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="159"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="159"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -5994,21 +5994,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="129"/>
-      <c r="C60" s="160" t="str">
+      <c r="B60" s="146"/>
+      <c r="C60" s="147" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="160"/>
-      <c r="H60" s="160"/>
-      <c r="I60" s="160"/>
-      <c r="J60" s="160"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
+      <c r="G60" s="147"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
+      <c r="J60" s="147"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -6034,16 +6034,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="158" t="s">
+      <c r="C63" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="158"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -6666,6 +6666,52 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
     <mergeCell ref="C63:J63"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="A52:A53"/>
@@ -6680,52 +6726,6 @@
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:J60"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
@@ -6763,362 +6763,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="H1" s="177" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="H1" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="177"/>
+      <c r="I1" s="211"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="207" t="s">
+      <c r="K1" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="174" t="s">
+      <c r="L1" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="175" t="s">
+      <c r="K2" s="177"/>
+      <c r="L2" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="180"/>
+      <c r="I3" s="213"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="207"/>
+      <c r="K3" s="177"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="178"/>
-      <c r="I4" s="179"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="212"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="176" t="s">
+      <c r="K4" s="177"/>
+      <c r="L4" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="190"/>
+      <c r="O4" s="190"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="176" t="s">
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="190"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="181" t="s">
+      <c r="C6" s="201"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="181" t="s">
+      <c r="F6" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="181" t="s">
+      <c r="G6" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="181" t="s">
+      <c r="H6" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="197"/>
+      <c r="I6" s="206"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="207"/>
+      <c r="K6" s="177"/>
       <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="199" t="str">
+      <c r="N6" s="207" t="str">
         <f>A11</f>
         <v>001-1</v>
       </c>
-      <c r="O6" s="200"/>
+      <c r="O6" s="208"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="190"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="198"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="188"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="207"/>
+      <c r="K7" s="177"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="190"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="198"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="188"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="201" t="s">
+      <c r="K8" s="177"/>
+      <c r="L8" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="201"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="190"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="198"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="188"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="203" t="str">
+      <c r="K9" s="177"/>
+      <c r="L9" s="182" t="str">
         <f>C14</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="190"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="198"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="188"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="185" t="str">
+      <c r="A11" s="195" t="str">
         <f>факт!D4</f>
         <v>001-1</v>
       </c>
-      <c r="B11" s="208">
+      <c r="B11" s="178">
         <f>Дано!B4</f>
         <v>43831</v>
       </c>
-      <c r="C11" s="209"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="188">
+      <c r="C11" s="179"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="197">
         <f>факт!J17</f>
         <v>2500</v>
       </c>
-      <c r="H11" s="178"/>
-      <c r="I11" s="198"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="188"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="207"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="186"/>
-      <c r="B12" s="210"/>
-      <c r="C12" s="211"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="187"/>
       <c r="E12" s="187"/>
       <c r="F12" s="187"/>
       <c r="G12" s="187"/>
       <c r="H12" s="187"/>
-      <c r="I12" s="202"/>
+      <c r="I12" s="189"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="207"/>
-      <c r="L12" s="201" t="s">
+      <c r="K12" s="177"/>
+      <c r="L12" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="201"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="207"/>
-      <c r="L13" s="203" t="str">
+      <c r="K13" s="177"/>
+      <c r="L13" s="182" t="str">
         <f>C17</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="183"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="201" t="s">
+      <c r="A14" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="201"/>
-      <c r="C14" s="205" t="str">
+      <c r="B14" s="174"/>
+      <c r="C14" s="175" t="str">
         <f>факт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="206"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="176"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="206"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="201" t="s">
+      <c r="K16" s="177"/>
+      <c r="L16" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="201"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="201" t="s">
+      <c r="A17" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="205" t="str">
+      <c r="B17" s="174"/>
+      <c r="C17" s="175" t="str">
         <f>факт!C9:J9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="206"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="176"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="203" t="str">
+      <c r="K17" s="177"/>
+      <c r="L17" s="182" t="str">
         <f>C20</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="M17" s="204"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="204"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="206"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="176"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="204"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="K19" s="207"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="201" t="s">
+      <c r="A20" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="201"/>
-      <c r="C20" s="205" t="str">
+      <c r="B20" s="174"/>
+      <c r="C20" s="175" t="str">
         <f>факт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D20" s="205"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="206"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="176"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="207"/>
+      <c r="K20" s="177"/>
       <c r="L20" s="19">
         <f>G11</f>
         <v>2500</v>
@@ -7136,15 +7136,15 @@
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="206"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="176"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="207"/>
+      <c r="K21" s="177"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="16"/>
@@ -7153,71 +7153,71 @@
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="K22" s="207"/>
+      <c r="K22" s="177"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="201" t="s">
+      <c r="A23" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="201"/>
-      <c r="C23" s="205" t="str">
+      <c r="B23" s="174"/>
+      <c r="C23" s="175" t="str">
         <f>факт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D23" s="205"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="206"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="176"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="207"/>
-      <c r="L23" s="212" t="str">
+      <c r="K23" s="177"/>
+      <c r="L23" s="184" t="str">
         <f>TEXT(B11,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="M23" s="212"/>
-      <c r="N23" s="213"/>
-      <c r="O23" s="213"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="185"/>
+      <c r="O23" s="185"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="206"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="176"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="207"/>
+      <c r="K24" s="177"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="206"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="176"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="207"/>
+      <c r="K25" s="177"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="206"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="176"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="207"/>
+      <c r="K26" s="177"/>
       <c r="L26" s="8" t="s">
         <v>16</v>
       </c>
@@ -7225,41 +7225,41 @@
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="206"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="176"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="207"/>
+      <c r="K27" s="177"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="K28" s="207"/>
+      <c r="K28" s="177"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="201" t="s">
+      <c r="A29" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="201"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="207"/>
-      <c r="L29" s="201" t="s">
+      <c r="K29" s="177"/>
+      <c r="L29" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="201"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
@@ -7272,7 +7272,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="207"/>
+      <c r="K30" s="177"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K31" s="26"/>
@@ -7282,6 +7282,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:C10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L9:O11"/>
+    <mergeCell ref="L13:O15"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="C14:I15"/>
     <mergeCell ref="K1:K30"/>
@@ -7298,36 +7328,6 @@
     <mergeCell ref="C20:I21"/>
     <mergeCell ref="C17:I18"/>
     <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L9:O11"/>
-    <mergeCell ref="L13:O15"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:C10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7944,7 +7944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A944A3F-0C54-4FA2-9E9A-A402D5A824AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C0BF8A-FBFB-4A3C-8861-BD3AA72AEAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="317">
   <si>
     <t>Счет на оплату №</t>
   </si>
@@ -980,9 +980,6 @@
   </si>
   <si>
     <t>Марка, модель</t>
-  </si>
-  <si>
-    <t>Наименование услуг, материалов, запчастей</t>
   </si>
   <si>
     <t>Хорошее состояние, 3,0 турбодизель, монитор, полный электропакет, 888 888 км, торг</t>
@@ -1010,12 +1007,20 @@
     <numFmt numFmtId="172" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
     <numFmt numFmtId="173" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1830,102 +1835,102 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1937,10 +1942,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1949,11 +1954,11 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1961,21 +1966,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1987,112 +1992,112 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2119,7 +2124,7 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2136,326 +2141,344 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3043,11 +3066,11 @@
         <v>298</v>
       </c>
       <c r="B35" s="122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3183,26 +3206,26 @@
         <v>66</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="222" t="s">
+      <c r="A7" s="227" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="222"/>
+      <c r="B7" s="227"/>
       <c r="C7" s="76">
         <v>0</v>
       </c>
@@ -3217,10 +3240,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="224"/>
+      <c r="B8" s="229"/>
       <c r="C8" s="77" t="s">
         <v>61</v>
       </c>
@@ -3235,10 +3258,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="222" t="s">
+      <c r="A9" s="227" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="222"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="74">
         <v>1</v>
       </c>
@@ -3253,10 +3276,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="225"/>
+      <c r="B10" s="230"/>
       <c r="C10" s="73">
         <f>C7*C9</f>
         <v>0</v>
@@ -3275,10 +3298,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="222"/>
+      <c r="B11" s="227"/>
       <c r="C11" s="74">
         <v>1</v>
       </c>
@@ -3293,10 +3316,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="225" t="s">
+      <c r="A12" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="225"/>
+      <c r="B12" s="230"/>
       <c r="C12" s="73">
         <f>C10*C11</f>
         <v>0</v>
@@ -3315,10 +3338,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="227" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="222"/>
+      <c r="B13" s="227"/>
       <c r="C13" s="74">
         <v>1</v>
       </c>
@@ -3333,10 +3356,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="225" t="s">
+      <c r="A14" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="225"/>
+      <c r="B14" s="230"/>
       <c r="C14" s="73">
         <f>C12*C13</f>
         <v>0</v>
@@ -3355,10 +3378,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="227" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="222"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="74">
         <v>1</v>
       </c>
@@ -3373,10 +3396,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="225" t="s">
+      <c r="A16" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="225"/>
+      <c r="B16" s="230"/>
       <c r="C16" s="73">
         <f>C14*C15</f>
         <v>0</v>
@@ -3395,10 +3418,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="222" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="222"/>
+      <c r="A17" s="227" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="227"/>
       <c r="C17" s="74">
         <v>1</v>
       </c>
@@ -3413,10 +3436,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="225" t="s">
+      <c r="A18" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="225"/>
+      <c r="B18" s="230"/>
       <c r="C18" s="73">
         <f>C16*C17</f>
         <v>0</v>
@@ -3435,10 +3458,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="222" t="s">
+      <c r="A19" s="227" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="222"/>
+      <c r="B19" s="227"/>
       <c r="C19" s="74">
         <v>1</v>
       </c>
@@ -3453,10 +3476,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="225" t="s">
+      <c r="A20" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="225"/>
+      <c r="B20" s="230"/>
       <c r="C20" s="73">
         <f>C18*C19</f>
         <v>0</v>
@@ -3475,17 +3498,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="227" t="s">
+      <c r="A21" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="227"/>
-      <c r="C21" s="226">
+      <c r="B21" s="232"/>
+      <c r="C21" s="231">
         <f>ROUND(AVERAGE(C20:F20),-2)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="226"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="226"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
     </row>
     <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
@@ -3538,73 +3561,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="160" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="155"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157" t="str">
+      <c r="A4" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162" t="str">
         <f>LEFT(Дано!B2,3)&amp;"-"&amp;MONTH(H4)</f>
         <v>001-1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="158">
+      <c r="H4" s="163">
         <f>Дано!B4</f>
         <v>43831</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -3618,21 +3641,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="148" t="str">
+      <c r="B7" s="151"/>
+      <c r="C7" s="153" t="str">
         <f>Дано!B6</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -3646,21 +3669,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="148" t="str">
+      <c r="B9" s="151"/>
+      <c r="C9" s="153" t="str">
         <f>"Договор №"&amp;Дано!B2&amp;" от "&amp;TEXT(Дано!B4,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -3674,20 +3697,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="149" t="s">
+      <c r="B11" s="151"/>
+      <c r="C11" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -3701,96 +3724,96 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="B13" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153" t="s">
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="153" t="s">
+      <c r="H13" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="153" t="s">
+      <c r="I13" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="125" t="s">
+      <c r="J13" s="130" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="151"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="126"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="127">
+      <c r="A15" s="132">
         <v>1</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="131" t="str">
+      <c r="C15" s="136" t="str">
         <f>"Экспертиза и оценка: "&amp;Дано!B16&amp;" "&amp;Дано!B17&amp;", "&amp;Дано!B18</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="137" t="s">
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="142" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="137">
+      <c r="H15" s="142">
         <v>1</v>
       </c>
-      <c r="I15" s="138">
+      <c r="I15" s="143">
         <f>Дано!B13</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="140">
+      <c r="J15" s="145">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="128"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="141"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="147" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="144"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="10">
         <f>J15</f>
         <v>2500</v>
@@ -3808,18 +3831,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -3833,18 +3856,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -3858,21 +3881,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147" t="str">
+      <c r="B23" s="151"/>
+      <c r="C23" s="152" t="str">
         <f>Дано!B14&amp;" сом, 00 тыйын"</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -3898,16 +3921,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -4034,76 +4057,76 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="155" t="str">
+      <c r="A38" s="160" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="155"/>
-      <c r="B39" s="155"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="155"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
+      <c r="A40" s="160"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="157" t="str">
+      <c r="A41" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="161"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="162" t="str">
         <f>D4</f>
         <v>001-1</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="158">
+      <c r="H41" s="163">
         <f>H4</f>
         <v>43831</v>
       </c>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="156"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="157"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="162"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -4117,21 +4140,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="148" t="str">
+      <c r="B44" s="151"/>
+      <c r="C44" s="153" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -4145,21 +4168,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="148" t="str">
+      <c r="B46" s="151"/>
+      <c r="C46" s="153" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -4173,21 +4196,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="146" t="s">
+      <c r="A48" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="146"/>
-      <c r="C48" s="149" t="str">
+      <c r="B48" s="151"/>
+      <c r="C48" s="154" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="149"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -4201,99 +4224,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="150" t="s">
+      <c r="A50" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="152" t="s">
+      <c r="B50" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="153" t="s">
+      <c r="C50" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="153"/>
-      <c r="E50" s="153"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153" t="s">
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="153" t="s">
+      <c r="H50" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="153" t="s">
+      <c r="I50" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="125" t="s">
+      <c r="J50" s="130" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="151"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="126"/>
+      <c r="A51" s="156"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="159"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="159"/>
+      <c r="I51" s="159"/>
+      <c r="J51" s="131"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="127">
+      <c r="A52" s="132">
         <v>1</v>
       </c>
-      <c r="B52" s="129" t="str">
+      <c r="B52" s="134" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="131" t="str">
+      <c r="C52" s="136" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="137" t="str">
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="142" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="137">
+      <c r="H52" s="142">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="138">
+      <c r="I52" s="143">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="140">
+      <c r="J52" s="145">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="128"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="141"/>
+      <c r="A53" s="133"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="146"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="142" t="s">
+      <c r="A54" s="147" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="143"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="144"/>
+      <c r="B54" s="148"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="149"/>
       <c r="J54" s="10">
         <f>J52</f>
         <v>2500</v>
@@ -4311,18 +4334,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -4336,18 +4359,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="145" t="s">
+      <c r="A58" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="150"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -4361,21 +4384,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="146" t="s">
+      <c r="A60" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="146"/>
-      <c r="C60" s="147" t="str">
+      <c r="B60" s="151"/>
+      <c r="C60" s="152" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="147"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -4401,16 +4424,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="124" t="s">
+      <c r="C63" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -5164,76 +5187,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="155" t="str">
+      <c r="A1" s="160" t="str">
         <f>счёт!A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="155"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="173" t="str">
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="178" t="str">
         <f>счёт!D4</f>
         <v>001-1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="158">
+      <c r="H4" s="163">
         <f ca="1">TODAY()</f>
-        <v>44011</v>
-      </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
+        <v>44013</v>
+      </c>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="173"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="178"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -5247,21 +5270,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="148" t="str">
+      <c r="B7" s="151"/>
+      <c r="C7" s="153" t="str">
         <f>счёт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -5275,21 +5298,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="148" t="str">
+      <c r="B9" s="151"/>
+      <c r="C9" s="153" t="str">
         <f>счёт!C9:J9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -5303,20 +5326,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="149" t="s">
+      <c r="B11" s="151"/>
+      <c r="C11" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -5330,98 +5353,98 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171" t="s">
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="171" t="s">
+      <c r="H13" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="171" t="s">
+      <c r="I13" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="162" t="s">
+      <c r="J13" s="167" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="168"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="163"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="168"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="127">
+      <c r="A15" s="132">
         <v>1</v>
       </c>
-      <c r="B15" s="160" t="str">
+      <c r="B15" s="165" t="str">
         <f>счёт!B15:B16</f>
         <v>00001</v>
       </c>
-      <c r="C15" s="131" t="str">
+      <c r="C15" s="136" t="str">
         <f>счёт!C15:F16</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="137" t="s">
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="142" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="137">
+      <c r="H15" s="142">
         <f>счёт!H15:H16</f>
         <v>1</v>
       </c>
-      <c r="I15" s="138">
+      <c r="I15" s="143">
         <f>счёт!I15:I16</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="140">
+      <c r="J15" s="145">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="128"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="141"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="169" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="165"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="166"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="171"/>
       <c r="J17" s="13">
         <f>J15</f>
         <v>2500</v>
@@ -5439,18 +5462,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -5464,18 +5487,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -5489,21 +5512,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147" t="str">
+      <c r="B23" s="151"/>
+      <c r="C23" s="152" t="str">
         <f>счёт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -5529,16 +5552,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -5667,76 +5690,76 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="155" t="str">
+      <c r="A38" s="160" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="155"/>
-      <c r="B39" s="155"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="155"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
+      <c r="A40" s="160"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="156" t="s">
+      <c r="A41" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="157" t="str">
+      <c r="B41" s="161"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="162" t="str">
         <f>D4</f>
         <v>001-1</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="158">
+      <c r="H41" s="163">
         <f ca="1">H4</f>
-        <v>44011</v>
-      </c>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
+        <v>44013</v>
+      </c>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="156"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="157"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="162"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -5750,21 +5773,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="148" t="str">
+      <c r="B44" s="151"/>
+      <c r="C44" s="153" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -5778,21 +5801,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="148" t="str">
+      <c r="B46" s="151"/>
+      <c r="C46" s="153" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -5806,21 +5829,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="146" t="s">
+      <c r="A48" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="146"/>
-      <c r="C48" s="149" t="str">
+      <c r="B48" s="151"/>
+      <c r="C48" s="154" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="149"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -5834,99 +5857,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="167" t="s">
+      <c r="A50" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="169" t="s">
+      <c r="B50" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="171" t="s">
+      <c r="C50" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="171"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
-      <c r="G50" s="171" t="s">
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="171" t="s">
+      <c r="H50" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="171" t="s">
+      <c r="I50" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="162" t="s">
+      <c r="J50" s="167" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="168"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="172"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="172"/>
-      <c r="F51" s="172"/>
-      <c r="G51" s="172"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="163"/>
+      <c r="A51" s="173"/>
+      <c r="B51" s="175"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="177"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="168"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="127">
+      <c r="A52" s="132">
         <v>1</v>
       </c>
-      <c r="B52" s="129" t="str">
+      <c r="B52" s="134" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="131" t="str">
+      <c r="C52" s="136" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="137" t="str">
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="142" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="137">
+      <c r="H52" s="142">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="138">
+      <c r="I52" s="143">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="140">
+      <c r="J52" s="145">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="128"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="141"/>
+      <c r="A53" s="133"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="146"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="164" t="s">
+      <c r="A54" s="169" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="166"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="171"/>
       <c r="J54" s="13">
         <f>J52</f>
         <v>2500</v>
@@ -5944,18 +5967,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -5969,18 +5992,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="145" t="s">
+      <c r="A58" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="150"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -5994,21 +6017,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="146" t="s">
+      <c r="A60" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="146"/>
-      <c r="C60" s="147" t="str">
+      <c r="B60" s="151"/>
+      <c r="C60" s="152" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="147"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -6034,16 +6057,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="124" t="s">
+      <c r="C63" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -6763,362 +6786,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="H1" s="211" t="s">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="H1" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="211"/>
+      <c r="I1" s="216"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="209" t="s">
+      <c r="L1" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="210" t="s">
+      <c r="K2" s="182"/>
+      <c r="L2" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="213" t="s">
+      <c r="H3" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="213"/>
+      <c r="I3" s="218"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="177"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="186"/>
-      <c r="I4" s="212"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="217"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="190" t="s">
+      <c r="K4" s="182"/>
+      <c r="L4" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="190" t="s">
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="190"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="195"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="198" t="s">
+      <c r="A6" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="191" t="s">
+      <c r="C6" s="206"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="191" t="s">
+      <c r="F6" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="191" t="s">
+      <c r="G6" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="191" t="s">
+      <c r="H6" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="206"/>
+      <c r="I6" s="211"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="177"/>
+      <c r="K6" s="182"/>
       <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="207" t="str">
+      <c r="N6" s="212" t="str">
         <f>A11</f>
         <v>001-1</v>
       </c>
-      <c r="O6" s="208"/>
+      <c r="O6" s="213"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="199"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="188"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="193"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="177"/>
+      <c r="K7" s="182"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="199"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="188"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="193"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="174" t="s">
+      <c r="K8" s="182"/>
+      <c r="L8" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="174"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="199"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="188"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="182" t="str">
+      <c r="K9" s="182"/>
+      <c r="L9" s="187" t="str">
         <f>C14</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="199"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="188"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="209"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="188"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="195" t="str">
+      <c r="A11" s="200" t="str">
         <f>факт!D4</f>
         <v>001-1</v>
       </c>
-      <c r="B11" s="178">
+      <c r="B11" s="183">
         <f>Дано!B4</f>
         <v>43831</v>
       </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="197">
+      <c r="C11" s="184"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="202">
         <f>факт!J17</f>
         <v>2500</v>
       </c>
-      <c r="H11" s="186"/>
-      <c r="I11" s="188"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="193"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="188"/>
+      <c r="O11" s="188"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="196"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="189"/>
+      <c r="A12" s="201"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="194"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="174" t="s">
+      <c r="K12" s="182"/>
+      <c r="L12" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="174"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="177"/>
-      <c r="L13" s="182" t="str">
+      <c r="K13" s="182"/>
+      <c r="L13" s="187" t="str">
         <f>C17</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175" t="str">
+      <c r="B14" s="179"/>
+      <c r="C14" s="180" t="str">
         <f>факт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="176"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="181"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="181"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="174" t="s">
+      <c r="K16" s="182"/>
+      <c r="L16" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="174"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175" t="str">
+      <c r="B17" s="179"/>
+      <c r="C17" s="180" t="str">
         <f>факт!C9:J9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="176"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="181"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="182" t="str">
+      <c r="K17" s="182"/>
+      <c r="L17" s="187" t="str">
         <f>C20</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="176"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="181"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="188"/>
+      <c r="O19" s="188"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="175" t="str">
+      <c r="B20" s="179"/>
+      <c r="C20" s="180" t="str">
         <f>факт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="181"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="177"/>
+      <c r="K20" s="182"/>
       <c r="L20" s="19">
         <f>G11</f>
         <v>2500</v>
@@ -7136,15 +7159,15 @@
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="181"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="177"/>
+      <c r="K21" s="182"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="16"/>
@@ -7153,71 +7176,71 @@
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="K22" s="177"/>
+      <c r="K22" s="182"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="174" t="s">
+      <c r="A23" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="174"/>
-      <c r="C23" s="175" t="str">
+      <c r="B23" s="179"/>
+      <c r="C23" s="180" t="str">
         <f>факт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="181"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="184" t="str">
+      <c r="K23" s="182"/>
+      <c r="L23" s="189" t="str">
         <f>TEXT(B11,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="M23" s="184"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="190"/>
+      <c r="O23" s="190"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="176"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="181"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="177"/>
+      <c r="K24" s="182"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="181"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="177"/>
+      <c r="K25" s="182"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="181"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="177"/>
+      <c r="K26" s="182"/>
       <c r="L26" s="8" t="s">
         <v>16</v>
       </c>
@@ -7225,41 +7248,41 @@
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="181"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="177"/>
+      <c r="K27" s="182"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="K28" s="177"/>
+      <c r="K28" s="182"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="174"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="174" t="s">
+      <c r="K29" s="182"/>
+      <c r="L29" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="174"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
@@ -7272,7 +7295,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="177"/>
+      <c r="K30" s="182"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K31" s="26"/>
@@ -7350,26 +7373,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="215" t="str">
+      <c r="A1" s="220" t="str">
         <f>"Акт о приемке выполненных работ №"&amp;счёт!D4</f>
         <v>Акт о приемке выполненных работ №001-1</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
       <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="216" t="str">
+      <c r="A2" s="221" t="str">
         <f ca="1">"от "&amp;TEXT(TODAY(),"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
-        <v>от 29 июня 2020 г.</v>
-      </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
+        <v>от 01 июля 2020 г.</v>
+      </c>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
       <c r="E2" s="84"/>
       <c r="F2" s="84"/>
       <c r="G2" s="84"/>
@@ -7387,11 +7410,11 @@
       <c r="A4" s="87" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="222" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
       <c r="G4" s="88"/>
@@ -7410,12 +7433,12 @@
       <c r="A6" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="217" t="str">
+      <c r="B6" s="222" t="str">
         <f>Дано!B6</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
       <c r="G6" s="88"/>
@@ -7471,11 +7494,11 @@
       <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" s="95" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="218" t="s">
+      <c r="A10" s="223" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="219"/>
-      <c r="C10" s="220"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="225"/>
       <c r="D10" s="99">
         <f>SUM(D9:D9)</f>
         <v>2500</v>
@@ -7568,27 +7591,27 @@
       <c r="H18" s="90"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="221" t="s">
+      <c r="A19" s="226" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="221"/>
-      <c r="C19" s="221" t="s">
+      <c r="B19" s="226"/>
+      <c r="C19" s="226" t="s">
         <v>312</v>
       </c>
-      <c r="D19" s="221"/>
+      <c r="D19" s="226"/>
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
       <c r="H19" s="101"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214" t="s">
+      <c r="B20" s="219"/>
+      <c r="C20" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="214"/>
+      <c r="D20" s="219"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" s="90"/>
@@ -7942,38 +7965,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="126" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="126" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="126" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.26953125" style="28"/>
     <col min="7" max="12" width="11.7265625" style="28" customWidth="1"/>
     <col min="13" max="16384" width="9.26953125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="127" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="42"/>
@@ -7999,9 +8022,9 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
       <c r="G2" s="45">
         <v>0</v>
       </c>
@@ -8016,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="48">
-        <f>G2+H2+I2</f>
+        <f>G2+H2+I2+J2</f>
         <v>0</v>
       </c>
       <c r="L2" s="44">
@@ -8027,761 +8050,1394 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="29"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="29"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="29"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
       <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="29"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="29"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="29"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="29"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="29"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="29"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="29"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="29"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="29"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="29"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="29"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="29"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="29"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="29"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="29"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="29"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="29"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="29"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="29"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="29"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="29"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="29"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="29"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="29"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="29"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="29"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="29"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="29"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="29"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="29"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="29"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="29"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="29"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="29"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="29"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="128"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="29"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="29"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="128"/>
+      <c r="E62" s="128"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="29"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="128"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="29"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="128"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="29"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="128"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="29"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="29"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="31"/>
       <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="29"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="128"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="29"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="128"/>
+      <c r="E69" s="128"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="29"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="128"/>
+      <c r="E70" s="128"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="29"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="29"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="128"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="29"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="128"/>
+      <c r="E73" s="128"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="31"/>
       <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="29"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="128"/>
+      <c r="E74" s="128"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="29"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="128"/>
+      <c r="E75" s="128"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="29"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="128"/>
+      <c r="E76" s="128"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="29"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="128"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="29"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="29"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="128"/>
+      <c r="E79" s="128"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="31"/>
       <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="29"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="128"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="29"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="128"/>
+      <c r="E81" s="128"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="29"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="128"/>
+      <c r="E82" s="128"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="29"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="29"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="29"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="128"/>
+      <c r="E85" s="128"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="29"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="128"/>
+      <c r="E86" s="128"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="29"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="128"/>
+      <c r="E87" s="128"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="29"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="128"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="29"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="31"/>
       <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="29"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="128"/>
+      <c r="E90" s="128"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="31"/>
       <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="29"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="128"/>
+      <c r="E91" s="128"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="29"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="128"/>
+      <c r="E92" s="128"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="29"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="128"/>
+      <c r="E93" s="128"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="29"/>
+      <c r="C94" s="125"/>
+      <c r="D94" s="128"/>
+      <c r="E94" s="128"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="31"/>
       <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="29"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="128"/>
+      <c r="E95" s="128"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="29"/>
+      <c r="C96" s="125"/>
+      <c r="D96" s="128"/>
+      <c r="E96" s="128"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="29"/>
+      <c r="C97" s="125"/>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="29"/>
+      <c r="C98" s="125"/>
+      <c r="D98" s="128"/>
+      <c r="E98" s="128"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="29"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="128"/>
+      <c r="E99" s="128"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="31"/>
       <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="29"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="29"/>
+      <c r="C101" s="125"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="128"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="29"/>
+      <c r="C102" s="125"/>
+      <c r="D102" s="128"/>
+      <c r="E102" s="128"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="29"/>
+      <c r="C103" s="125"/>
+      <c r="D103" s="128"/>
+      <c r="E103" s="128"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="29"/>
+      <c r="C104" s="125"/>
+      <c r="D104" s="128"/>
+      <c r="E104" s="128"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="31"/>
       <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="29"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="128"/>
+      <c r="E105" s="128"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="31"/>
       <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="29"/>
+      <c r="C106" s="125"/>
+      <c r="D106" s="128"/>
+      <c r="E106" s="128"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="29"/>
+      <c r="C107" s="125"/>
+      <c r="D107" s="128"/>
+      <c r="E107" s="128"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="29"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="128"/>
+      <c r="E108" s="128"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="29"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="128"/>
+      <c r="E109" s="128"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="29"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="128"/>
+      <c r="E110" s="128"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="128"/>
+      <c r="E111" s="128"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="125"/>
+      <c r="D112" s="128"/>
+      <c r="E112" s="128"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="31"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="128"/>
+      <c r="E113" s="128"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="31"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="128"/>
+      <c r="E114" s="128"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="31"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="128"/>
+      <c r="E115" s="128"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="31"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="128"/>
+      <c r="E116" s="128"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="31"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="128"/>
+      <c r="E117" s="128"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="31"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="128"/>
+      <c r="E118" s="128"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="31"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="125"/>
+      <c r="D119" s="128"/>
+      <c r="E119" s="128"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="31"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="125"/>
+      <c r="D120" s="128"/>
+      <c r="E120" s="128"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="31"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="128"/>
+      <c r="E121" s="128"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="31"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="125"/>
+      <c r="D122" s="128"/>
+      <c r="E122" s="128"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="31"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="125"/>
+      <c r="D123" s="128"/>
+      <c r="E123" s="128"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="125"/>
+      <c r="D124" s="128"/>
+      <c r="E124" s="128"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="125"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="128"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="31"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="125"/>
+      <c r="D126" s="128"/>
+      <c r="E126" s="128"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="128"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="128"/>
+      <c r="E128" s="128"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="31"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="125"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="128"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="31"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="125"/>
+      <c r="D130" s="128"/>
+      <c r="E130" s="128"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="31"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="128"/>
+      <c r="E131" s="128"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="31"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="128"/>
+      <c r="E132" s="128"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="31"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="125"/>
+      <c r="D133" s="128"/>
+      <c r="E133" s="128"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="31"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="128"/>
+      <c r="E134" s="128"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="125"/>
+      <c r="D135" s="128"/>
+      <c r="E135" s="128"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="31"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="125"/>
+      <c r="D136" s="128"/>
+      <c r="E136" s="128"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="31"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="125"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="128"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="31"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="125"/>
+      <c r="D138" s="128"/>
+      <c r="E138" s="128"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="125"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="128"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="125"/>
+      <c r="D140" s="128"/>
+      <c r="E140" s="128"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="31"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="125"/>
+      <c r="D141" s="128"/>
+      <c r="E141" s="128"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="31"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="125"/>
+      <c r="D142" s="128"/>
+      <c r="E142" s="128"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="125"/>
+      <c r="D143" s="128"/>
+      <c r="E143" s="128"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="31"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="128"/>
+      <c r="E144" s="128"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="31"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="125"/>
+      <c r="D145" s="128"/>
+      <c r="E145" s="128"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="31"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="125"/>
+      <c r="D146" s="128"/>
+      <c r="E146" s="128"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="125"/>
+      <c r="D147" s="128"/>
+      <c r="E147" s="128"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="31"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="125"/>
+      <c r="D148" s="128"/>
+      <c r="E148" s="128"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="31"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="125"/>
+      <c r="D149" s="128"/>
+      <c r="E149" s="128"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="31"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="125"/>
+      <c r="D150" s="128"/>
+      <c r="E150" s="128"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="31"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="125"/>
+      <c r="D151" s="128"/>
+      <c r="E151" s="128"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="31"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="125"/>
+      <c r="D152" s="128"/>
+      <c r="E152" s="128"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="31"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="125"/>
+      <c r="D153" s="128"/>
+      <c r="E153" s="128"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="31"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="125"/>
+      <c r="D154" s="128"/>
+      <c r="E154" s="128"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="31"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="125"/>
+      <c r="D155" s="128"/>
+      <c r="E155" s="128"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="31"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="125"/>
+      <c r="D156" s="128"/>
+      <c r="E156" s="128"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="31"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="125"/>
+      <c r="D157" s="128"/>
+      <c r="E157" s="128"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="31"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="125"/>
+      <c r="D158" s="128"/>
+      <c r="E158" s="128"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="31"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="125"/>
+      <c r="D159" s="128"/>
+      <c r="E159" s="128"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="31"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="125"/>
+      <c r="D160" s="128"/>
+      <c r="E160" s="128"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="31"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="125"/>
+      <c r="D161" s="128"/>
+      <c r="E161" s="128"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="31"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="125"/>
+      <c r="D162" s="128"/>
+      <c r="E162" s="128"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="31"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="125"/>
+      <c r="D163" s="128"/>
+      <c r="E163" s="128"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="31"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="125"/>
+      <c r="D164" s="128"/>
+      <c r="E164" s="128"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="31"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="125"/>
+      <c r="D165" s="128"/>
+      <c r="E165" s="128"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="31"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="125"/>
+      <c r="D166" s="128"/>
+      <c r="E166" s="128"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="31"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="125"/>
+      <c r="D167" s="128"/>
+      <c r="E167" s="128"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="31"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="125"/>
+      <c r="D168" s="128"/>
+      <c r="E168" s="128"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="31"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="125"/>
+      <c r="D169" s="128"/>
+      <c r="E169" s="128"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="31"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="125"/>
+      <c r="D170" s="128"/>
+      <c r="E170" s="128"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="31"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="125"/>
+      <c r="D171" s="128"/>
+      <c r="E171" s="128"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="125"/>
+      <c r="D172" s="128"/>
+      <c r="E172" s="128"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="31"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="125"/>
+      <c r="D173" s="128"/>
+      <c r="E173" s="128"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="31"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="125"/>
+      <c r="D174" s="128"/>
+      <c r="E174" s="128"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="31"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="125"/>
+      <c r="D175" s="128"/>
+      <c r="E175" s="128"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="31"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="125"/>
+      <c r="D176" s="128"/>
+      <c r="E176" s="128"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="31"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="125"/>
+      <c r="D177" s="128"/>
+      <c r="E177" s="128"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="31"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="125"/>
+      <c r="D178" s="128"/>
+      <c r="E178" s="128"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="31"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="125"/>
+      <c r="D179" s="128"/>
+      <c r="E179" s="128"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="31"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="125"/>
+      <c r="D180" s="128"/>
+      <c r="E180" s="128"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="31"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="125"/>
+      <c r="D181" s="128"/>
+      <c r="E181" s="128"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="31"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="125"/>
+      <c r="D182" s="128"/>
+      <c r="E182" s="128"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="31"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="125"/>
+      <c r="D183" s="128"/>
+      <c r="E183" s="128"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="31"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="125"/>
+      <c r="D184" s="128"/>
+      <c r="E184" s="128"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="31"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="125"/>
+      <c r="D185" s="128"/>
+      <c r="E185" s="128"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="31"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="125"/>
+      <c r="D186" s="128"/>
+      <c r="E186" s="128"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="31"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="125"/>
+      <c r="D187" s="128"/>
+      <c r="E187" s="128"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="31"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="125"/>
+      <c r="D188" s="128"/>
+      <c r="E188" s="128"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="31"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="125"/>
+      <c r="D189" s="128"/>
+      <c r="E189" s="128"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="31"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="125"/>
+      <c r="D190" s="128"/>
+      <c r="E190" s="128"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="31"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="125"/>
+      <c r="D191" s="128"/>
+      <c r="E191" s="128"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="31"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="125"/>
+      <c r="D192" s="128"/>
+      <c r="E192" s="128"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="31"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="125"/>
+      <c r="D193" s="128"/>
+      <c r="E193" s="128"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="31"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="125"/>
+      <c r="D194" s="128"/>
+      <c r="E194" s="128"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="31"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="125"/>
+      <c r="D195" s="128"/>
+      <c r="E195" s="128"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="31"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="125"/>
+      <c r="D196" s="128"/>
+      <c r="E196" s="128"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="31"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="125"/>
+      <c r="D197" s="128"/>
+      <c r="E197" s="128"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="31"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="125"/>
+      <c r="D198" s="128"/>
+      <c r="E198" s="128"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="31"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="125"/>
+      <c r="D199" s="128"/>
+      <c r="E199" s="128"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="31"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="125"/>
+      <c r="D200" s="128"/>
+      <c r="E200" s="128"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C0BF8A-FBFB-4A3C-8861-BD3AA72AEAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354FE1D6-68B0-4A19-BAB6-681B3E0466CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="318">
   <si>
     <t>Счет на оплату №</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>Восемьсот восемьдесят восемь тысяч восемьсот восемьдесят</t>
+  </si>
+  <si>
+    <t>Автоматически</t>
   </si>
 </sst>
 </file>
@@ -2165,118 +2168,139 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2294,30 +2318,99 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2339,102 +2432,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2459,25 +2462,25 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3222,10 +3225,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="228" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="227"/>
+      <c r="B7" s="228"/>
       <c r="C7" s="76">
         <v>0</v>
       </c>
@@ -3240,10 +3243,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="231" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="229"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="77" t="s">
         <v>61</v>
       </c>
@@ -3258,10 +3261,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="228" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="227"/>
+      <c r="B9" s="228"/>
       <c r="C9" s="74">
         <v>1</v>
       </c>
@@ -3276,10 +3279,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="230"/>
+      <c r="B10" s="229"/>
       <c r="C10" s="73">
         <f>C7*C9</f>
         <v>0</v>
@@ -3298,10 +3301,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="228" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="227"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="74">
         <v>1</v>
       </c>
@@ -3316,10 +3319,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="230" t="s">
+      <c r="A12" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="230"/>
+      <c r="B12" s="229"/>
       <c r="C12" s="73">
         <f>C10*C11</f>
         <v>0</v>
@@ -3338,10 +3341,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="227" t="s">
+      <c r="A13" s="228" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="227"/>
+      <c r="B13" s="228"/>
       <c r="C13" s="74">
         <v>1</v>
       </c>
@@ -3356,10 +3359,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="230"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="73">
         <f>C12*C13</f>
         <v>0</v>
@@ -3378,10 +3381,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="228" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="227"/>
+      <c r="B15" s="228"/>
       <c r="C15" s="74">
         <v>1</v>
       </c>
@@ -3396,10 +3399,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="230"/>
+      <c r="B16" s="229"/>
       <c r="C16" s="73">
         <f>C14*C15</f>
         <v>0</v>
@@ -3418,10 +3421,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="227" t="s">
+      <c r="A17" s="228" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="227"/>
+      <c r="B17" s="228"/>
       <c r="C17" s="74">
         <v>1</v>
       </c>
@@ -3436,10 +3439,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="230" t="s">
+      <c r="A18" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="230"/>
+      <c r="B18" s="229"/>
       <c r="C18" s="73">
         <f>C16*C17</f>
         <v>0</v>
@@ -3458,10 +3461,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="227" t="s">
+      <c r="A19" s="228" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="227"/>
+      <c r="B19" s="228"/>
       <c r="C19" s="74">
         <v>1</v>
       </c>
@@ -3476,10 +3479,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="230" t="s">
+      <c r="A20" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="230"/>
+      <c r="B20" s="229"/>
       <c r="C20" s="73">
         <f>C18*C19</f>
         <v>0</v>
@@ -3498,17 +3501,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="232" t="s">
+      <c r="A21" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="232"/>
-      <c r="C21" s="231">
+      <c r="B21" s="230"/>
+      <c r="C21" s="227">
         <f>ROUND(AVERAGE(C20:F20),-2)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
     </row>
     <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
@@ -3520,22 +3523,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3561,73 +3564,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="129" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162" t="str">
+      <c r="A4" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131" t="str">
         <f>LEFT(Дано!B2,3)&amp;"-"&amp;MONTH(H4)</f>
         <v>001-1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="163">
+      <c r="H4" s="137">
         <f>Дано!B4</f>
         <v>43831</v>
       </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="162"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -3641,21 +3644,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="153" t="str">
+      <c r="B7" s="134"/>
+      <c r="C7" s="142" t="str">
         <f>Дано!B6</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -3669,21 +3672,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="153" t="str">
+      <c r="B9" s="134"/>
+      <c r="C9" s="142" t="str">
         <f>"Договор №"&amp;Дано!B2&amp;" от "&amp;TEXT(Дано!B4,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -3697,20 +3700,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="154" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -3724,96 +3727,96 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158" t="s">
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="158" t="s">
+      <c r="H13" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="158" t="s">
+      <c r="I13" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="130" t="s">
+      <c r="J13" s="149" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="156"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="131"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="150"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="132">
+      <c r="A15" s="153">
         <v>1</v>
       </c>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="136" t="str">
+      <c r="C15" s="157" t="str">
         <f>"Экспертиза и оценка: "&amp;Дано!B16&amp;" "&amp;Дано!B17&amp;", "&amp;Дано!B18</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="142" t="s">
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="142">
+      <c r="H15" s="148">
         <v>1</v>
       </c>
-      <c r="I15" s="143">
+      <c r="I15" s="144">
         <f>Дано!B13</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="145">
+      <c r="J15" s="146">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="133"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="146"/>
+      <c r="A16" s="154"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="141"/>
       <c r="J17" s="10">
         <f>J15</f>
         <v>2500</v>
@@ -3831,18 +3834,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -3856,18 +3859,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -3881,21 +3884,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="151" t="s">
+      <c r="A23" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152" t="str">
+      <c r="B23" s="134"/>
+      <c r="C23" s="165" t="str">
         <f>Дано!B14&amp;" сом, 00 тыйын"</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -3921,16 +3924,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -4057,76 +4060,76 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="160" t="str">
+      <c r="A38" s="129" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="160"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="160"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="161"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="162" t="str">
+      <c r="A41" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="131" t="str">
         <f>D4</f>
         <v>001-1</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="163">
+      <c r="H41" s="137">
         <f>H4</f>
         <v>43831</v>
       </c>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="161"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="162"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="131"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -4140,21 +4143,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="153" t="str">
+      <c r="B44" s="134"/>
+      <c r="C44" s="142" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -4168,21 +4171,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="151" t="s">
+      <c r="A46" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="151"/>
-      <c r="C46" s="153" t="str">
+      <c r="B46" s="134"/>
+      <c r="C46" s="142" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -4196,21 +4199,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="151" t="s">
+      <c r="A48" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="154" t="str">
+      <c r="B48" s="134"/>
+      <c r="C48" s="143" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="154"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="143"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -4224,99 +4227,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="157" t="s">
+      <c r="B50" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="158" t="s">
+      <c r="C50" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158" t="s">
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="158" t="s">
+      <c r="H50" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="158" t="s">
+      <c r="I50" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="130" t="s">
+      <c r="J50" s="149" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="156"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="159"/>
-      <c r="F51" s="159"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="159"/>
-      <c r="I51" s="159"/>
-      <c r="J51" s="131"/>
+      <c r="A51" s="133"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="150"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="132">
+      <c r="A52" s="153">
         <v>1</v>
       </c>
-      <c r="B52" s="134" t="str">
+      <c r="B52" s="166" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="136" t="str">
+      <c r="C52" s="157" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="142" t="str">
+      <c r="D52" s="158"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="148" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="142">
+      <c r="H52" s="148">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="143">
+      <c r="I52" s="144">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="145">
+      <c r="J52" s="146">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="133"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="146"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="162"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="147"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="147" t="s">
+      <c r="A54" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="148"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="149"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="141"/>
       <c r="J54" s="10">
         <f>J52</f>
         <v>2500</v>
@@ -4334,18 +4337,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="150" t="s">
+      <c r="A56" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="150"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -4359,18 +4362,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="150" t="s">
+      <c r="A58" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="150"/>
-      <c r="C58" s="150"/>
-      <c r="D58" s="150"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -4384,21 +4387,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="151" t="s">
+      <c r="A60" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="151"/>
-      <c r="C60" s="152" t="str">
+      <c r="B60" s="134"/>
+      <c r="C60" s="165" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="152"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="165"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -4424,16 +4427,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="129" t="s">
+      <c r="C63" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="129"/>
-      <c r="I63" s="129"/>
-      <c r="J63" s="129"/>
+      <c r="D63" s="163"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="163"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="163"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -5102,15 +5105,41 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C7:J7"/>
@@ -5127,41 +5156,15 @@
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:F16"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H4:J5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5187,76 +5190,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="str">
+      <c r="A1" s="129" t="str">
         <f>счёт!A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="178" t="str">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="167" t="str">
         <f>счёт!D4</f>
         <v>001-1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="163">
+      <c r="H4" s="137">
         <f ca="1">TODAY()</f>
         <v>44013</v>
       </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="178"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -5270,21 +5273,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="153" t="str">
+      <c r="B7" s="134"/>
+      <c r="C7" s="142" t="str">
         <f>счёт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -5298,21 +5301,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="153" t="str">
+      <c r="B9" s="134"/>
+      <c r="C9" s="142" t="str">
         <f>счёт!C9:J9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -5326,20 +5329,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="154" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -5353,98 +5356,98 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176" t="s">
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="176" t="s">
+      <c r="H13" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="176" t="s">
+      <c r="I13" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="167" t="s">
+      <c r="J13" s="174" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="173"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="168"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="175"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="132">
+      <c r="A15" s="153">
         <v>1</v>
       </c>
-      <c r="B15" s="165" t="str">
+      <c r="B15" s="155" t="str">
         <f>счёт!B15:B16</f>
         <v>00001</v>
       </c>
-      <c r="C15" s="136" t="str">
+      <c r="C15" s="157" t="str">
         <f>счёт!C15:F16</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="142" t="s">
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="142">
+      <c r="H15" s="148">
         <f>счёт!H15:H16</f>
         <v>1</v>
       </c>
-      <c r="I15" s="143">
+      <c r="I15" s="144">
         <f>счёт!I15:I16</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="145">
+      <c r="J15" s="146">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="133"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="146"/>
+      <c r="A16" s="154"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="176" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="171"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="178"/>
       <c r="J17" s="13">
         <f>J15</f>
         <v>2500</v>
@@ -5462,18 +5465,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -5487,18 +5490,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -5512,21 +5515,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="151" t="s">
+      <c r="A23" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152" t="str">
+      <c r="B23" s="134"/>
+      <c r="C23" s="165" t="str">
         <f>счёт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -5552,16 +5555,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -5690,76 +5693,76 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="160" t="str">
+      <c r="A38" s="129" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="160"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="160"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="161"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="162" t="str">
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="131" t="str">
         <f>D4</f>
         <v>001-1</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="163">
+      <c r="H41" s="137">
         <f ca="1">H4</f>
         <v>44013</v>
       </c>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="161"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="162"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="131"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -5773,21 +5776,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="153" t="str">
+      <c r="B44" s="134"/>
+      <c r="C44" s="142" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -5801,21 +5804,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="151" t="s">
+      <c r="A46" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="151"/>
-      <c r="C46" s="153" t="str">
+      <c r="B46" s="134"/>
+      <c r="C46" s="142" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -5829,21 +5832,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="151" t="s">
+      <c r="A48" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="154" t="str">
+      <c r="B48" s="134"/>
+      <c r="C48" s="143" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="154"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="143"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -5857,99 +5860,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="172" t="s">
+      <c r="A50" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="176" t="s">
+      <c r="C50" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="176"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176" t="s">
+      <c r="D50" s="172"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="176" t="s">
+      <c r="H50" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="176" t="s">
+      <c r="I50" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="167" t="s">
+      <c r="J50" s="174" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="173"/>
-      <c r="B51" s="175"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
-      <c r="E51" s="177"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="177"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="177"/>
-      <c r="J51" s="168"/>
+      <c r="A51" s="169"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="173"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="173"/>
+      <c r="H51" s="173"/>
+      <c r="I51" s="173"/>
+      <c r="J51" s="175"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="132">
+      <c r="A52" s="153">
         <v>1</v>
       </c>
-      <c r="B52" s="134" t="str">
+      <c r="B52" s="166" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="136" t="str">
+      <c r="C52" s="157" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="142" t="str">
+      <c r="D52" s="158"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="148" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="142">
+      <c r="H52" s="148">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="143">
+      <c r="I52" s="144">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="145">
+      <c r="J52" s="146">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="133"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="146"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="162"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="147"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="169" t="s">
+      <c r="A54" s="176" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="171"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="178"/>
       <c r="J54" s="13">
         <f>J52</f>
         <v>2500</v>
@@ -5967,18 +5970,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="150" t="s">
+      <c r="A56" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="150"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -5992,18 +5995,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="150" t="s">
+      <c r="A58" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="150"/>
-      <c r="C58" s="150"/>
-      <c r="D58" s="150"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -6017,21 +6020,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="151" t="s">
+      <c r="A60" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="151"/>
-      <c r="C60" s="152" t="str">
+      <c r="B60" s="134"/>
+      <c r="C60" s="165" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="152"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="165"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -6057,16 +6060,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="129" t="s">
+      <c r="C63" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="129"/>
-      <c r="I63" s="129"/>
-      <c r="J63" s="129"/>
+      <c r="D63" s="163"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="163"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="163"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -6689,22 +6692,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="A15:A16"/>
@@ -6719,36 +6736,22 @@
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
@@ -6786,362 +6789,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="H1" s="216" t="s">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="H1" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="216"/>
+      <c r="I1" s="182"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="182" t="s">
+      <c r="K1" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="214" t="s">
+      <c r="L1" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="215" t="s">
+      <c r="K2" s="212"/>
+      <c r="L2" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="218" t="s">
+      <c r="H3" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="218"/>
+      <c r="I3" s="185"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="182"/>
+      <c r="K3" s="212"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="191"/>
-      <c r="I4" s="217"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="184"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="195" t="s">
+      <c r="K4" s="212"/>
+      <c r="L4" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="195" t="s">
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="196" t="s">
+      <c r="C6" s="197"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="196" t="s">
+      <c r="F6" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="196" t="s">
+      <c r="G6" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="196" t="s">
+      <c r="H6" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="211"/>
+      <c r="I6" s="202"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="182"/>
+      <c r="K6" s="212"/>
       <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="212" t="str">
+      <c r="N6" s="204" t="str">
         <f>A11</f>
         <v>001-1</v>
       </c>
-      <c r="O6" s="213"/>
+      <c r="O6" s="205"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="204"/>
-      <c r="B7" s="207"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="193"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="203"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="182"/>
+      <c r="K7" s="212"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="204"/>
-      <c r="B8" s="207"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="193"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="203"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="179" t="s">
+      <c r="K8" s="212"/>
+      <c r="L8" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="179"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="204"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="193"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="203"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="187" t="str">
+      <c r="K9" s="212"/>
+      <c r="L9" s="208" t="str">
         <f>C14</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
+      <c r="M9" s="209"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="209"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="204"/>
-      <c r="B10" s="209"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="193"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="203"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="188"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="209"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="200" t="str">
+      <c r="A11" s="190" t="str">
         <f>факт!D4</f>
         <v>001-1</v>
       </c>
-      <c r="B11" s="183">
+      <c r="B11" s="213">
         <f>Дано!B4</f>
         <v>43831</v>
       </c>
-      <c r="C11" s="184"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="202">
+      <c r="C11" s="214"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="193">
         <f>факт!J17</f>
         <v>2500</v>
       </c>
-      <c r="H11" s="191"/>
-      <c r="I11" s="193"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="203"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="188"/>
-      <c r="O11" s="188"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="209"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="201"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="186"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="216"/>
       <c r="D12" s="192"/>
       <c r="E12" s="192"/>
       <c r="F12" s="192"/>
       <c r="G12" s="192"/>
       <c r="H12" s="192"/>
-      <c r="I12" s="194"/>
+      <c r="I12" s="207"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="179" t="s">
+      <c r="K12" s="212"/>
+      <c r="L12" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="179"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
+      <c r="M12" s="206"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="182"/>
-      <c r="L13" s="187" t="str">
+      <c r="K13" s="212"/>
+      <c r="L13" s="208" t="str">
         <f>C17</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="188"/>
+      <c r="M13" s="209"/>
+      <c r="N13" s="209"/>
+      <c r="O13" s="209"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="179"/>
-      <c r="C14" s="180" t="str">
+      <c r="B14" s="206"/>
+      <c r="C14" s="210" t="str">
         <f>факт!C7:J7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="181"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="211"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188"/>
+      <c r="K14" s="212"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="209"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="181"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="211"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="188"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="209"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="209"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="179" t="s">
+      <c r="K16" s="212"/>
+      <c r="L16" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="179"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
+      <c r="M16" s="206"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="179" t="s">
+      <c r="A17" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="179"/>
-      <c r="C17" s="180" t="str">
+      <c r="B17" s="206"/>
+      <c r="C17" s="210" t="str">
         <f>факт!C9:J9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="181"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="211"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="187" t="str">
+      <c r="K17" s="212"/>
+      <c r="L17" s="208" t="str">
         <f>C20</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="209"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="181"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
-      <c r="O18" s="188"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="188"/>
+      <c r="K19" s="212"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="209"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="180" t="str">
+      <c r="B20" s="206"/>
+      <c r="C20" s="210" t="str">
         <f>факт!C23:J23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="181"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="211"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="182"/>
+      <c r="K20" s="212"/>
       <c r="L20" s="19">
         <f>G11</f>
         <v>2500</v>
@@ -7159,15 +7162,15 @@
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="181"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="211"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="182"/>
+      <c r="K21" s="212"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="16"/>
@@ -7176,71 +7179,71 @@
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="K22" s="182"/>
+      <c r="K22" s="212"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="179"/>
-      <c r="C23" s="180" t="str">
+      <c r="B23" s="206"/>
+      <c r="C23" s="210" t="str">
         <f>факт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="181"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="211"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="189" t="str">
+      <c r="K23" s="212"/>
+      <c r="L23" s="217" t="str">
         <f>TEXT(B11,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="M23" s="189"/>
-      <c r="N23" s="190"/>
-      <c r="O23" s="190"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="181"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="211"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="182"/>
+      <c r="K24" s="212"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="181"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="211"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="182"/>
+      <c r="K25" s="212"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="181"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="211"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="182"/>
+      <c r="K26" s="212"/>
       <c r="L26" s="8" t="s">
         <v>16</v>
       </c>
@@ -7248,41 +7251,41 @@
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="181"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="211"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="182"/>
+      <c r="K27" s="212"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="K28" s="182"/>
+      <c r="K28" s="212"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="179" t="s">
+      <c r="K29" s="212"/>
+      <c r="L29" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="179"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
@@ -7295,7 +7298,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="182"/>
+      <c r="K30" s="212"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K31" s="26"/>
@@ -7305,15 +7308,27 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="K1:K30"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O19"/>
+    <mergeCell ref="C23:I27"/>
+    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L9:O11"/>
+    <mergeCell ref="L13:O15"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="H6:H10"/>
@@ -7330,27 +7345,15 @@
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L9:O11"/>
-    <mergeCell ref="L13:O15"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="C14:I15"/>
-    <mergeCell ref="K1:K30"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O19"/>
-    <mergeCell ref="C23:I27"/>
-    <mergeCell ref="C20:I21"/>
-    <mergeCell ref="C17:I18"/>
-    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8053,7 +8056,9 @@
       <c r="C3" s="125"/>
       <c r="D3" s="128"/>
       <c r="E3" s="128"/>
-      <c r="G3" s="233"/>
+      <c r="G3" s="233" t="s">
+        <v>317</v>
+      </c>
       <c r="H3" s="233"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8062,6 +8067,8 @@
       <c r="C4" s="125"/>
       <c r="D4" s="128"/>
       <c r="E4" s="128"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
@@ -9437,6 +9444,9 @@
       <c r="E200" s="128"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354FE1D6-68B0-4A19-BAB6-681B3E0466CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602C6C6-5BCB-4D8B-B2FE-9CE2BA8FA57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="321">
   <si>
     <t>Счет на оплату №</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>Форма КО-1</t>
-  </si>
-  <si>
-    <t>Номер документа</t>
-  </si>
-  <si>
-    <t>Дата составления</t>
   </si>
   <si>
     <t>Код аналитического учета</t>
@@ -992,13 +986,30 @@
   </si>
   <si>
     <t>Автоматически</t>
+  </si>
+  <si>
+    <t>01 января 2020 г.</t>
+  </si>
+  <si>
+    <t>07 января 2020 г.</t>
+  </si>
+  <si>
+    <t>Номер
+документа</t>
+  </si>
+  <si>
+    <t>Дата
+составления</t>
+  </si>
+  <si>
+    <t>2088</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\'sh\е\т\ \н\а\ \о\п\л\а\т\у\ \№\'\ dd\/mm"/>
     <numFmt numFmtId="166" formatCode="&quot;№&quot;dd\/mm"/>
@@ -1007,8 +1018,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.00\ _₽"/>
     <numFmt numFmtId="170" formatCode="#,##0.0\ _₽"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1310,7 +1320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1619,15 +1629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1663,28 +1664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1695,58 +1674,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1844,7 +1771,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1913,7 +1840,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +1922,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2070,7 +1997,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,7 +2012,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2108,49 +2035,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2168,120 +2089,138 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2318,6 +2257,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2339,73 +2287,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2417,26 +2308,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2462,6 +2335,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="22" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2477,10 +2353,13 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2786,23 +2665,23 @@
   <sheetData>
     <row r="1" spans="1:13" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="105" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="109" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="106" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="107" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B3" s="111" t="str">
         <f>"Договор №"&amp;B2&amp;" от "&amp;TEXT(B4,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
@@ -2811,42 +2690,42 @@
     </row>
     <row r="4" spans="1:13" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="106" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="112">
-        <v>43831</v>
+        <v>284</v>
+      </c>
+      <c r="B4" s="129" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="113">
-        <v>43837</v>
+        <v>39</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="106" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="107" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="107" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="114" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="B8" s="112" t="s">
+        <v>97</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -2861,50 +2740,50 @@
     </row>
     <row r="9" spans="1:13" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="106" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="115">
+        <v>294</v>
+      </c>
+      <c r="B13" s="113">
         <v>2500</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="103" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="108" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="116" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2913,64 +2792,64 @@
     </row>
     <row r="16" spans="1:13" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="104"/>
     </row>
     <row r="17" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="110" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="111" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="111" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="111">
-        <v>2088</v>
+        <v>48</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" s="111">
         <v>2498</v>
@@ -2978,50 +2857,50 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="107" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="111" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="107" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="111" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="111" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="107" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B27" s="111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="107" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" s="111" t="str">
         <f>B6</f>
@@ -3029,11 +2908,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="118" t="s">
-        <v>100</v>
+      <c r="A30" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3041,41 +2920,44 @@
       <c r="B31" s="102"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="119" t="s">
-        <v>299</v>
-      </c>
-      <c r="B32" s="123">
+      <c r="A32" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="121">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="B33" s="121">
+        <v>298</v>
+      </c>
+      <c r="B33" s="119">
         <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="B34" s="121">
+        <v>295</v>
+      </c>
+      <c r="B34" s="119">
         <v>888880</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="120" t="s">
-        <v>298</v>
-      </c>
-      <c r="B35" s="122" t="s">
-        <v>316</v>
+      <c r="A35" s="118" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="120" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B22" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3096,27 +2978,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="D1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="E1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="69">
         <v>43831</v>
@@ -3136,27 +3018,27 @@
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="70" t="str">
         <f>Дано!B17</f>
@@ -3181,54 +3063,54 @@
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="70">
+        <v>66</v>
+      </c>
+      <c r="B5" s="70" t="str">
         <f>Дано!B22</f>
         <v>2088</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="70" t="str">
         <f>$B$5</f>
         <v>2088</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="70" t="str">
         <f t="shared" ref="D5:F5" si="1">$B$5</f>
         <v>2088</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="70" t="str">
         <f t="shared" si="1"/>
         <v>2088</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="70" t="str">
         <f t="shared" si="1"/>
         <v>2088</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="228" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="228"/>
+      <c r="A7" s="211" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="211"/>
       <c r="C7" s="76">
         <v>0</v>
       </c>
@@ -3243,28 +3125,28 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="231" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="232"/>
+      <c r="A8" s="214" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="215"/>
       <c r="C8" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="F8" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="9" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="228" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" s="228"/>
+      <c r="A9" s="211" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="211"/>
       <c r="C9" s="74">
         <v>1</v>
       </c>
@@ -3279,10 +3161,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="229" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="229"/>
+      <c r="A10" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="212"/>
       <c r="C10" s="73">
         <f>C7*C9</f>
         <v>0</v>
@@ -3301,10 +3183,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="228" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="228"/>
+      <c r="A11" s="211" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="211"/>
       <c r="C11" s="74">
         <v>1</v>
       </c>
@@ -3319,10 +3201,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="229" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="229"/>
+      <c r="A12" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="212"/>
       <c r="C12" s="73">
         <f>C10*C11</f>
         <v>0</v>
@@ -3341,10 +3223,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="228" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" s="228"/>
+      <c r="A13" s="211" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="211"/>
       <c r="C13" s="74">
         <v>1</v>
       </c>
@@ -3359,10 +3241,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="229" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="229"/>
+      <c r="A14" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="212"/>
       <c r="C14" s="73">
         <f>C12*C13</f>
         <v>0</v>
@@ -3381,10 +3263,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="228" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="228"/>
+      <c r="A15" s="211" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="211"/>
       <c r="C15" s="74">
         <v>1</v>
       </c>
@@ -3399,10 +3281,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="229" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="229"/>
+      <c r="A16" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="212"/>
       <c r="C16" s="73">
         <f>C14*C15</f>
         <v>0</v>
@@ -3421,10 +3303,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="228" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="228"/>
+      <c r="A17" s="211" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="211"/>
       <c r="C17" s="74">
         <v>1</v>
       </c>
@@ -3439,10 +3321,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="229" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="229"/>
+      <c r="A18" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="212"/>
       <c r="C18" s="73">
         <f>C16*C17</f>
         <v>0</v>
@@ -3461,10 +3343,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="228" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="228"/>
+      <c r="A19" s="211" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="211"/>
       <c r="C19" s="74">
         <v>1</v>
       </c>
@@ -3479,10 +3361,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="72" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="229" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="229"/>
+      <c r="A20" s="212" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="212"/>
       <c r="C20" s="73">
         <f>C18*C19</f>
         <v>0</v>
@@ -3501,17 +3383,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="230" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="230"/>
-      <c r="C21" s="227">
+      <c r="A21" s="213" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="213"/>
+      <c r="C21" s="210">
         <f>ROUND(AVERAGE(C20:F20),-2)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
     </row>
     <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
@@ -3564,73 +3446,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="A1" s="131" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131" t="str">
-        <f>LEFT(Дано!B2,3)&amp;"-"&amp;MONTH(H4)</f>
-        <v>001-1</v>
-      </c>
+      <c r="A4" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="140" t="str">
+        <f>Дано!B2</f>
+        <v>001-01/20</v>
+      </c>
+      <c r="E4" s="140"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="137">
+      <c r="H4" s="138" t="str">
         <f>Дано!B4</f>
-        <v>43831</v>
-      </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
+        <v>01 января 2020 г.</v>
+      </c>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -3644,21 +3527,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="142" t="str">
+      <c r="B7" s="135"/>
+      <c r="C7" s="144" t="str">
         <f>Дано!B6</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -3672,21 +3555,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="142" t="str">
-        <f>"Договор №"&amp;Дано!B2&amp;" от "&amp;TEXT(Дано!B4,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
+      <c r="B9" s="135"/>
+      <c r="C9" s="144" t="str">
+        <f>Дано!B3</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -3700,20 +3583,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="143" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -3727,96 +3610,96 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151" t="s">
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="151" t="s">
+      <c r="H13" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="151" t="s">
+      <c r="I13" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="149" t="s">
+      <c r="J13" s="151" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="133"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="150"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="152"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="153">
+      <c r="A15" s="155">
         <v>1</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="157" t="str">
+      <c r="C15" s="159" t="str">
         <f>"Экспертиза и оценка: "&amp;Дано!B16&amp;" "&amp;Дано!B17&amp;", "&amp;Дано!B18</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="148" t="s">
-        <v>278</v>
-      </c>
-      <c r="H15" s="148">
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="150" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" s="150">
         <v>1</v>
       </c>
-      <c r="I15" s="144">
+      <c r="I15" s="146">
         <f>Дано!B13</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="146">
+      <c r="J15" s="148">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="154"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="147"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="139" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="141"/>
+      <c r="A17" s="141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="10">
         <f>J15</f>
         <v>2500</v>
@@ -3834,18 +3717,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="164"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -3859,18 +3742,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -3884,21 +3767,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="165" t="str">
+      <c r="B23" s="135"/>
+      <c r="C23" s="167" t="str">
         <f>Дано!B14&amp;" сом, 00 тыйын"</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -3924,16 +3807,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -4060,76 +3943,77 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="129" t="str">
+      <c r="A38" s="131" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="129"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="129"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="131" t="str">
+      <c r="A41" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="140" t="str">
         <f>D4</f>
-        <v>001-1</v>
-      </c>
+        <v>001-01/20</v>
+      </c>
+      <c r="E41" s="140"/>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="137">
+      <c r="H41" s="168" t="str">
         <f>H4</f>
-        <v>43831</v>
-      </c>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
+        <v>01 января 2020 г.</v>
+      </c>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="130"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="5"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -4143,21 +4027,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="142" t="str">
+      <c r="B44" s="135"/>
+      <c r="C44" s="144" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -4171,21 +4055,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="142" t="str">
+      <c r="B46" s="135"/>
+      <c r="C46" s="144" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -4199,21 +4083,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="134" t="s">
+      <c r="A48" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="134"/>
-      <c r="C48" s="143" t="str">
+      <c r="B48" s="135"/>
+      <c r="C48" s="145" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="143"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -4227,99 +4111,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="132" t="s">
+      <c r="A50" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="151" t="s">
+      <c r="C50" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151" t="s">
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="151" t="s">
+      <c r="H50" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="151" t="s">
+      <c r="I50" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="149" t="s">
+      <c r="J50" s="151" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="133"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="150"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="152"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="153">
+      <c r="A52" s="155">
         <v>1</v>
       </c>
-      <c r="B52" s="166" t="str">
+      <c r="B52" s="169" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="157" t="str">
+      <c r="C52" s="159" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="148" t="str">
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="150" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="148">
+      <c r="H52" s="150">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="144">
+      <c r="I52" s="146">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="146">
+      <c r="J52" s="148">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="154"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="147"/>
+      <c r="A53" s="156"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="147"/>
+      <c r="J53" s="149"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="139" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="141"/>
+      <c r="A54" s="141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="142"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="143"/>
       <c r="J54" s="10">
         <f>J52</f>
         <v>2500</v>
@@ -4337,18 +4221,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="164"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -4362,18 +4246,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="164" t="s">
+      <c r="A58" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="164"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
+      <c r="E58" s="166"/>
+      <c r="F58" s="166"/>
+      <c r="G58" s="166"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -4387,21 +4271,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="134" t="s">
+      <c r="A60" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="134"/>
-      <c r="C60" s="165" t="str">
+      <c r="B60" s="135"/>
+      <c r="C60" s="167" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -4427,16 +4311,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="163" t="s">
+      <c r="C63" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="163"/>
-      <c r="E63" s="163"/>
-      <c r="F63" s="163"/>
-      <c r="G63" s="163"/>
-      <c r="H63" s="163"/>
-      <c r="I63" s="163"/>
-      <c r="J63" s="163"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="165"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -5131,10 +5015,10 @@
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="A38:J40"/>
     <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
     <mergeCell ref="H41:J42"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:J44"/>
+    <mergeCell ref="D41:E42"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A21:J21"/>
@@ -5158,13 +5042,13 @@
     <mergeCell ref="C15:F16"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="H4:J5"/>
+    <mergeCell ref="D4:E5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5190,76 +5074,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="str">
+      <c r="A1" s="131" t="str">
         <f>счёт!A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="167" t="str">
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="171" t="str">
         <f>счёт!D4</f>
-        <v>001-1</v>
-      </c>
+        <v>001-01/20</v>
+      </c>
+      <c r="E4" s="171"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="137">
-        <f ca="1">TODAY()</f>
-        <v>44013</v>
-      </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
+      <c r="H4" s="170" t="str">
+        <f>счёт!H4</f>
+        <v>01 января 2020 г.</v>
+      </c>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -5273,21 +5158,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="142" t="str">
-        <f>счёт!C7:J7</f>
+      <c r="B7" s="135"/>
+      <c r="C7" s="144" t="str">
+        <f>счёт!C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -5301,21 +5186,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="142" t="str">
-        <f>счёт!C9:J9</f>
+      <c r="B9" s="135"/>
+      <c r="C9" s="144" t="str">
+        <f>счёт!C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -5329,20 +5214,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="143" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -5356,98 +5241,98 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="172" t="s">
+      <c r="C13" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172" t="s">
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="172" t="s">
+      <c r="H13" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="172" t="s">
+      <c r="I13" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="174" t="s">
+      <c r="J13" s="178" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="169"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="175"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="179"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="153">
+      <c r="A15" s="155">
         <v>1</v>
       </c>
-      <c r="B15" s="155" t="str">
+      <c r="B15" s="157" t="str">
         <f>счёт!B15:B16</f>
         <v>00001</v>
       </c>
-      <c r="C15" s="157" t="str">
-        <f>счёт!C15:F16</f>
+      <c r="C15" s="159" t="str">
+        <f>счёт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="148" t="s">
-        <v>278</v>
-      </c>
-      <c r="H15" s="148">
-        <f>счёт!H15:H16</f>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="150" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" s="150">
+        <f>счёт!H15</f>
         <v>1</v>
       </c>
-      <c r="I15" s="144">
-        <f>счёт!I15:I16</f>
+      <c r="I15" s="146">
+        <f>счёт!I15</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="146">
+      <c r="J15" s="148">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="154"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="147"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="176" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178"/>
+      <c r="A17" s="180" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="182"/>
       <c r="J17" s="13">
         <f>J15</f>
         <v>2500</v>
@@ -5465,18 +5350,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="164"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -5490,18 +5375,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -5515,21 +5400,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="165" t="str">
-        <f>счёт!C23:J23</f>
+      <c r="B23" s="135"/>
+      <c r="C23" s="167" t="str">
+        <f>счёт!C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -5555,16 +5440,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -5693,76 +5578,77 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="129" t="str">
+      <c r="A38" s="131" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="129"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="129"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="130" t="s">
+      <c r="A41" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="131" t="str">
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="140" t="str">
         <f>D4</f>
-        <v>001-1</v>
-      </c>
+        <v>001-01/20</v>
+      </c>
+      <c r="E41" s="140"/>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="137">
-        <f ca="1">H4</f>
-        <v>44013</v>
-      </c>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
+      <c r="H41" s="170" t="str">
+        <f>H4</f>
+        <v>01 января 2020 г.</v>
+      </c>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="130"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="5"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -5776,21 +5662,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="142" t="str">
+      <c r="B44" s="135"/>
+      <c r="C44" s="144" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -5804,21 +5690,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="142" t="str">
+      <c r="B46" s="135"/>
+      <c r="C46" s="144" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -5832,21 +5718,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="134" t="s">
+      <c r="A48" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="134"/>
-      <c r="C48" s="143" t="str">
+      <c r="B48" s="135"/>
+      <c r="C48" s="145" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="143"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -5860,99 +5746,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="168" t="s">
+      <c r="A50" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="170" t="s">
+      <c r="B50" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="172" t="s">
+      <c r="C50" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="172"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="172"/>
-      <c r="G50" s="172" t="s">
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="172" t="s">
+      <c r="H50" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="172" t="s">
+      <c r="I50" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="174" t="s">
+      <c r="J50" s="178" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="169"/>
-      <c r="B51" s="171"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="173"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="173"/>
-      <c r="H51" s="173"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="175"/>
+      <c r="A51" s="173"/>
+      <c r="B51" s="175"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="177"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="179"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="153">
+      <c r="A52" s="155">
         <v>1</v>
       </c>
-      <c r="B52" s="166" t="str">
+      <c r="B52" s="169" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="157" t="str">
+      <c r="C52" s="159" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="148" t="str">
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="150" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="148">
+      <c r="H52" s="150">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="144">
+      <c r="I52" s="146">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="146">
+      <c r="J52" s="148">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="154"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="147"/>
+      <c r="A53" s="156"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="147"/>
+      <c r="J53" s="149"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="176" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
-      <c r="E54" s="177"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="177"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="178"/>
+      <c r="A54" s="180" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="181"/>
+      <c r="I54" s="182"/>
       <c r="J54" s="13">
         <f>J52</f>
         <v>2500</v>
@@ -5970,18 +5856,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="164"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -5995,18 +5881,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="164" t="s">
+      <c r="A58" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="164"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
+      <c r="E58" s="166"/>
+      <c r="F58" s="166"/>
+      <c r="G58" s="166"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -6020,21 +5906,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="134" t="s">
+      <c r="A60" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="134"/>
-      <c r="C60" s="165" t="str">
+      <c r="B60" s="135"/>
+      <c r="C60" s="167" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -6060,16 +5946,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="163" t="s">
+      <c r="C63" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="163"/>
-      <c r="E63" s="163"/>
-      <c r="F63" s="163"/>
-      <c r="G63" s="163"/>
-      <c r="H63" s="163"/>
-      <c r="I63" s="163"/>
-      <c r="J63" s="163"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="165"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -6718,10 +6604,10 @@
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="A38:J40"/>
     <mergeCell ref="A41:C42"/>
-    <mergeCell ref="D41:D42"/>
     <mergeCell ref="H41:J42"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:J44"/>
+    <mergeCell ref="D41:E42"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="A15:A16"/>
@@ -6748,10 +6634,10 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:J7"/>
+    <mergeCell ref="D4:E5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
@@ -6766,7 +6652,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C12"/>
+      <selection activeCell="L23" sqref="L23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6789,362 +6675,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="H1" s="182" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="H1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="182"/>
+      <c r="I1" s="189"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="212" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="179" t="s">
+      <c r="K1" s="200" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="180" t="s">
+      <c r="K2" s="200"/>
+      <c r="L2" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="185" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="185"/>
+      <c r="H3" s="192" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="192"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="212"/>
+      <c r="K3" s="200"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="183"/>
-      <c r="I4" s="184"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="191"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="181" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+    </row>
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="188" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="188" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+    </row>
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="184" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="184" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="181" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-    </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="194" t="s">
+      <c r="F6" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="G6" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="186" t="s">
+      <c r="H6" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="190"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="127" t="str">
+        <f>A11</f>
+        <v>001-01/20</v>
+      </c>
+      <c r="N6" s="128"/>
+    </row>
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="184"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="200"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="184"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="186" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="186" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="202"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="212"/>
-      <c r="M6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="204" t="str">
-        <f>A11</f>
-        <v>001-1</v>
-      </c>
-      <c r="O6" s="205"/>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="195"/>
-      <c r="B7" s="198"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="212"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="195"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="206" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="206"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="195"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="203"/>
+      <c r="A9" s="184"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="190"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="208" t="str">
+      <c r="K9" s="200"/>
+      <c r="L9" s="196" t="str">
         <f>C14</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="M9" s="209"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="195"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="203"/>
+      <c r="A10" s="184"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="212"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="209"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="190" t="str">
+      <c r="A11" s="216" t="str">
         <f>факт!D4</f>
-        <v>001-1</v>
-      </c>
-      <c r="B11" s="213">
-        <f>Дано!B4</f>
-        <v>43831</v>
-      </c>
-      <c r="C11" s="214"/>
+        <v>001-01/20</v>
+      </c>
+      <c r="B11" s="183" t="str">
+        <f>L23</f>
+        <v>01 января 2020 г.</v>
+      </c>
+      <c r="C11" s="183"/>
       <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
       <c r="G11" s="193">
         <f>факт!J17</f>
         <v>2500</v>
       </c>
-      <c r="H11" s="183"/>
-      <c r="I11" s="203"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
-    </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="191"/>
-      <c r="B12" s="215"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="207"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+    </row>
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="217"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="206" t="s">
+      <c r="K12" s="200"/>
+      <c r="L12" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="206"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="212"/>
-      <c r="L13" s="208" t="str">
+      <c r="K13" s="200"/>
+      <c r="L13" s="196" t="str">
         <f>C17</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="M13" s="209"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="209"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="206" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="206"/>
-      <c r="C14" s="210" t="str">
-        <f>факт!C7:J7</f>
+      <c r="A14" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="185"/>
+      <c r="C14" s="198" t="str">
+        <f>факт!C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="211"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="199"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="212"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="211"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="209"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="206"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="185"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="206" t="s">
+      <c r="A17" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="206"/>
-      <c r="C17" s="210" t="str">
-        <f>факт!C9:J9</f>
+      <c r="B17" s="185"/>
+      <c r="C17" s="198" t="str">
+        <f>факт!C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="211"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="199"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="208" t="str">
+      <c r="K17" s="200"/>
+      <c r="L17" s="196" t="str">
         <f>C20</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="209"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="197"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="199"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="209"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="196"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="197"/>
+      <c r="O18" s="197"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="208"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="209"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="206" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="206"/>
-      <c r="C20" s="210" t="str">
-        <f>факт!C23:J23</f>
+      <c r="A20" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="185"/>
+      <c r="C20" s="198" t="str">
+        <f>факт!C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="211"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="199"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="212"/>
+      <c r="K20" s="200"/>
       <c r="L20" s="19">
         <f>G11</f>
         <v>2500</v>
@@ -7153,24 +7039,24 @@
         <v>11</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="211"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="199"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="212"/>
+      <c r="K21" s="200"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="16"/>
@@ -7179,71 +7065,71 @@
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="K22" s="212"/>
+      <c r="K22" s="200"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="206" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="206"/>
-      <c r="C23" s="210" t="str">
+      <c r="A23" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="185"/>
+      <c r="C23" s="198" t="str">
         <f>факт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="211"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="199"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="212"/>
-      <c r="L23" s="217" t="str">
-        <f>TEXT(B11,"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
+      <c r="K23" s="200"/>
+      <c r="L23" s="194" t="str">
+        <f>факт!H4</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="M23" s="217"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="218"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="195"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="211"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="199"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="212"/>
+      <c r="K24" s="200"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="211"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="199"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="212"/>
+      <c r="K25" s="200"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="211"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="199"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="212"/>
+      <c r="K26" s="200"/>
       <c r="L26" s="8" t="s">
         <v>16</v>
       </c>
@@ -7251,41 +7137,41 @@
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="211"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="198"/>
+      <c r="I27" s="199"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="212"/>
+      <c r="K27" s="200"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="K28" s="212"/>
+      <c r="K28" s="200"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="206" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="206"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="206"/>
+      <c r="A29" s="185" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="212"/>
-      <c r="L29" s="206" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" s="206"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
+      <c r="K29" s="200"/>
+      <c r="L29" s="185" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="185"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
@@ -7298,7 +7184,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="212"/>
+      <c r="K30" s="200"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K31" s="26"/>
@@ -7307,44 +7193,38 @@
       <c r="K32" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="C14:I15"/>
-    <mergeCell ref="K1:K30"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
+  <mergeCells count="43">
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A29:I29"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O19"/>
     <mergeCell ref="C23:I27"/>
     <mergeCell ref="C20:I21"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:I18"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="G6:G10"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="L29:O29"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="L9:O11"/>
     <mergeCell ref="L13:O15"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="K1:K30"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O19"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:C10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="G6:G10"/>
     <mergeCell ref="I6:I10"/>
-    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B6:D10"/>
+    <mergeCell ref="L8:O8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="L1:O1"/>
@@ -7354,6 +7234,9 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7376,26 +7259,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="220" t="str">
+      <c r="A1" s="202" t="str">
         <f>"Акт о приемке выполненных работ №"&amp;счёт!D4</f>
-        <v>Акт о приемке выполненных работ №001-1</v>
-      </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
+        <v>Акт о приемке выполненных работ №001-01/20</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
       <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="221" t="str">
-        <f ca="1">"от "&amp;TEXT(TODAY(),"[$-ru-RU-x-genlower]ДД ММММ ГГГГ \г\.;@")</f>
-        <v>от 01 июля 2020 г.</v>
-      </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
+      <c r="A2" s="203" t="str">
+        <f>"от "&amp;факт!H4</f>
+        <v>от 01 января 2020 г.</v>
+      </c>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
       <c r="E2" s="84"/>
       <c r="F2" s="84"/>
       <c r="G2" s="84"/>
@@ -7411,13 +7294,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="87" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="222" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
+        <v>300</v>
+      </c>
+      <c r="B4" s="204" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
       <c r="G4" s="88"/>
@@ -7434,14 +7317,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="87" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="222" t="str">
+        <v>302</v>
+      </c>
+      <c r="B6" s="204" t="str">
         <f>Дано!B6</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
       <c r="G6" s="88"/>
@@ -7458,16 +7341,16 @@
     </row>
     <row r="8" spans="1:8" s="95" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="93" t="s">
         <v>305</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>307</v>
       </c>
       <c r="E8" s="94"/>
       <c r="F8" s="94"/>
@@ -7497,11 +7380,11 @@
       <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" s="95" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="223" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
+      <c r="A10" s="205" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="206"/>
+      <c r="C10" s="207"/>
       <c r="D10" s="99">
         <f>SUM(D9:D9)</f>
         <v>2500</v>
@@ -7544,7 +7427,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="100" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B14" s="100"/>
       <c r="C14" s="100"/>
@@ -7565,7 +7448,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="100" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="100"/>
@@ -7594,27 +7477,27 @@
       <c r="H18" s="90"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="226" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="226" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" s="226"/>
+      <c r="A19" s="208" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="208"/>
+      <c r="C19" s="208" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="208"/>
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
       <c r="H19" s="101"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="219" t="s">
+      <c r="A20" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219" t="s">
+      <c r="B20" s="201"/>
+      <c r="C20" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="219"/>
+      <c r="D20" s="201"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" s="90"/>
@@ -7978,56 +7861,56 @@
   <cols>
     <col min="1" max="1" width="3" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="126" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="126" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="126" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="124" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="124" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="124" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.26953125" style="28"/>
     <col min="7" max="12" width="11.7265625" style="28" customWidth="1"/>
     <col min="13" max="16384" width="9.26953125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="124" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="127" t="s">
+      <c r="B1" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="125" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="127" t="s">
-        <v>58</v>
       </c>
       <c r="F1" s="42"/>
       <c r="G1" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="J1" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>107</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
       <c r="G2" s="45">
         <v>0</v>
       </c>
@@ -8053,1395 +7936,1395 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="G3" s="233" t="s">
-        <v>317</v>
-      </c>
-      <c r="H3" s="233"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="G3" s="209" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="209"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="128"/>
-      <c r="E62" s="128"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
+      <c r="C67" s="123"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="31"/>
       <c r="B68" s="31"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="128"/>
-      <c r="E68" s="128"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="128"/>
-      <c r="E69" s="128"/>
+      <c r="C69" s="123"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="128"/>
-      <c r="E70" s="128"/>
+      <c r="C70" s="123"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
+      <c r="C71" s="123"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="128"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
-      <c r="C73" s="125"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="31"/>
       <c r="B74" s="31"/>
-      <c r="C74" s="125"/>
-      <c r="D74" s="128"/>
-      <c r="E74" s="128"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="126"/>
+      <c r="E74" s="126"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="126"/>
+      <c r="E75" s="126"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="128"/>
-      <c r="E76" s="128"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="128"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="128"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="128"/>
-      <c r="E79" s="128"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="31"/>
       <c r="B80" s="31"/>
-      <c r="C80" s="125"/>
-      <c r="D80" s="128"/>
-      <c r="E80" s="128"/>
+      <c r="C80" s="123"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
-      <c r="C81" s="125"/>
-      <c r="D81" s="128"/>
-      <c r="E81" s="128"/>
+      <c r="C81" s="123"/>
+      <c r="D81" s="126"/>
+      <c r="E81" s="126"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="128"/>
-      <c r="E82" s="128"/>
+      <c r="C82" s="123"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
-      <c r="C83" s="125"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="128"/>
+      <c r="C83" s="123"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="128"/>
-      <c r="E84" s="128"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="126"/>
+      <c r="E84" s="126"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="128"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="126"/>
+      <c r="E85" s="126"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="128"/>
-      <c r="E86" s="128"/>
+      <c r="C86" s="123"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="128"/>
-      <c r="E87" s="128"/>
+      <c r="C87" s="123"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="126"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
-      <c r="C88" s="125"/>
-      <c r="D88" s="128"/>
-      <c r="E88" s="128"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="128"/>
+      <c r="C89" s="123"/>
+      <c r="D89" s="126"/>
+      <c r="E89" s="126"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="31"/>
       <c r="B90" s="31"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="128"/>
-      <c r="E90" s="128"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="126"/>
+      <c r="E90" s="126"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="31"/>
       <c r="B91" s="31"/>
-      <c r="C91" s="125"/>
-      <c r="D91" s="128"/>
-      <c r="E91" s="128"/>
+      <c r="C91" s="123"/>
+      <c r="D91" s="126"/>
+      <c r="E91" s="126"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
-      <c r="C92" s="125"/>
-      <c r="D92" s="128"/>
-      <c r="E92" s="128"/>
+      <c r="C92" s="123"/>
+      <c r="D92" s="126"/>
+      <c r="E92" s="126"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="128"/>
-      <c r="E93" s="128"/>
+      <c r="C93" s="123"/>
+      <c r="D93" s="126"/>
+      <c r="E93" s="126"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
-      <c r="C94" s="125"/>
-      <c r="D94" s="128"/>
-      <c r="E94" s="128"/>
+      <c r="C94" s="123"/>
+      <c r="D94" s="126"/>
+      <c r="E94" s="126"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="31"/>
       <c r="B95" s="31"/>
-      <c r="C95" s="125"/>
-      <c r="D95" s="128"/>
-      <c r="E95" s="128"/>
+      <c r="C95" s="123"/>
+      <c r="D95" s="126"/>
+      <c r="E95" s="126"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
-      <c r="C96" s="125"/>
-      <c r="D96" s="128"/>
-      <c r="E96" s="128"/>
+      <c r="C96" s="123"/>
+      <c r="D96" s="126"/>
+      <c r="E96" s="126"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
-      <c r="C97" s="125"/>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
+      <c r="C97" s="123"/>
+      <c r="D97" s="126"/>
+      <c r="E97" s="126"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
-      <c r="C98" s="125"/>
-      <c r="D98" s="128"/>
-      <c r="E98" s="128"/>
+      <c r="C98" s="123"/>
+      <c r="D98" s="126"/>
+      <c r="E98" s="126"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
-      <c r="C99" s="125"/>
-      <c r="D99" s="128"/>
-      <c r="E99" s="128"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="126"/>
+      <c r="E99" s="126"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="31"/>
       <c r="B100" s="31"/>
-      <c r="C100" s="125"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
+      <c r="C100" s="123"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="126"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
-      <c r="C101" s="125"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
+      <c r="C101" s="123"/>
+      <c r="D101" s="126"/>
+      <c r="E101" s="126"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
-      <c r="C102" s="125"/>
-      <c r="D102" s="128"/>
-      <c r="E102" s="128"/>
+      <c r="C102" s="123"/>
+      <c r="D102" s="126"/>
+      <c r="E102" s="126"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
-      <c r="C103" s="125"/>
-      <c r="D103" s="128"/>
-      <c r="E103" s="128"/>
+      <c r="C103" s="123"/>
+      <c r="D103" s="126"/>
+      <c r="E103" s="126"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
-      <c r="C104" s="125"/>
-      <c r="D104" s="128"/>
-      <c r="E104" s="128"/>
+      <c r="C104" s="123"/>
+      <c r="D104" s="126"/>
+      <c r="E104" s="126"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="31"/>
       <c r="B105" s="31"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="128"/>
-      <c r="E105" s="128"/>
+      <c r="C105" s="123"/>
+      <c r="D105" s="126"/>
+      <c r="E105" s="126"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="31"/>
       <c r="B106" s="31"/>
-      <c r="C106" s="125"/>
-      <c r="D106" s="128"/>
-      <c r="E106" s="128"/>
+      <c r="C106" s="123"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="126"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
-      <c r="C107" s="125"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="128"/>
+      <c r="C107" s="123"/>
+      <c r="D107" s="126"/>
+      <c r="E107" s="126"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
-      <c r="C108" s="125"/>
-      <c r="D108" s="128"/>
-      <c r="E108" s="128"/>
+      <c r="C108" s="123"/>
+      <c r="D108" s="126"/>
+      <c r="E108" s="126"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
-      <c r="C109" s="125"/>
-      <c r="D109" s="128"/>
-      <c r="E109" s="128"/>
+      <c r="C109" s="123"/>
+      <c r="D109" s="126"/>
+      <c r="E109" s="126"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
-      <c r="C110" s="125"/>
-      <c r="D110" s="128"/>
-      <c r="E110" s="128"/>
+      <c r="C110" s="123"/>
+      <c r="D110" s="126"/>
+      <c r="E110" s="126"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="31"/>
       <c r="B111" s="31"/>
-      <c r="C111" s="125"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="128"/>
+      <c r="C111" s="123"/>
+      <c r="D111" s="126"/>
+      <c r="E111" s="126"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="31"/>
       <c r="B112" s="31"/>
-      <c r="C112" s="125"/>
-      <c r="D112" s="128"/>
-      <c r="E112" s="128"/>
+      <c r="C112" s="123"/>
+      <c r="D112" s="126"/>
+      <c r="E112" s="126"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="31"/>
       <c r="B113" s="31"/>
-      <c r="C113" s="125"/>
-      <c r="D113" s="128"/>
-      <c r="E113" s="128"/>
+      <c r="C113" s="123"/>
+      <c r="D113" s="126"/>
+      <c r="E113" s="126"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="31"/>
       <c r="B114" s="31"/>
-      <c r="C114" s="125"/>
-      <c r="D114" s="128"/>
-      <c r="E114" s="128"/>
+      <c r="C114" s="123"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="126"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="31"/>
       <c r="B115" s="31"/>
-      <c r="C115" s="125"/>
-      <c r="D115" s="128"/>
-      <c r="E115" s="128"/>
+      <c r="C115" s="123"/>
+      <c r="D115" s="126"/>
+      <c r="E115" s="126"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="31"/>
       <c r="B116" s="31"/>
-      <c r="C116" s="125"/>
-      <c r="D116" s="128"/>
-      <c r="E116" s="128"/>
+      <c r="C116" s="123"/>
+      <c r="D116" s="126"/>
+      <c r="E116" s="126"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="31"/>
       <c r="B117" s="31"/>
-      <c r="C117" s="125"/>
-      <c r="D117" s="128"/>
-      <c r="E117" s="128"/>
+      <c r="C117" s="123"/>
+      <c r="D117" s="126"/>
+      <c r="E117" s="126"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="31"/>
       <c r="B118" s="31"/>
-      <c r="C118" s="125"/>
-      <c r="D118" s="128"/>
-      <c r="E118" s="128"/>
+      <c r="C118" s="123"/>
+      <c r="D118" s="126"/>
+      <c r="E118" s="126"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="31"/>
       <c r="B119" s="31"/>
-      <c r="C119" s="125"/>
-      <c r="D119" s="128"/>
-      <c r="E119" s="128"/>
+      <c r="C119" s="123"/>
+      <c r="D119" s="126"/>
+      <c r="E119" s="126"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="31"/>
       <c r="B120" s="31"/>
-      <c r="C120" s="125"/>
-      <c r="D120" s="128"/>
-      <c r="E120" s="128"/>
+      <c r="C120" s="123"/>
+      <c r="D120" s="126"/>
+      <c r="E120" s="126"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="31"/>
       <c r="B121" s="31"/>
-      <c r="C121" s="125"/>
-      <c r="D121" s="128"/>
-      <c r="E121" s="128"/>
+      <c r="C121" s="123"/>
+      <c r="D121" s="126"/>
+      <c r="E121" s="126"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="31"/>
       <c r="B122" s="31"/>
-      <c r="C122" s="125"/>
-      <c r="D122" s="128"/>
-      <c r="E122" s="128"/>
+      <c r="C122" s="123"/>
+      <c r="D122" s="126"/>
+      <c r="E122" s="126"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="31"/>
       <c r="B123" s="31"/>
-      <c r="C123" s="125"/>
-      <c r="D123" s="128"/>
-      <c r="E123" s="128"/>
+      <c r="C123" s="123"/>
+      <c r="D123" s="126"/>
+      <c r="E123" s="126"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="31"/>
       <c r="B124" s="31"/>
-      <c r="C124" s="125"/>
-      <c r="D124" s="128"/>
-      <c r="E124" s="128"/>
+      <c r="C124" s="123"/>
+      <c r="D124" s="126"/>
+      <c r="E124" s="126"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="31"/>
       <c r="B125" s="31"/>
-      <c r="C125" s="125"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="128"/>
+      <c r="C125" s="123"/>
+      <c r="D125" s="126"/>
+      <c r="E125" s="126"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="31"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="125"/>
-      <c r="D126" s="128"/>
-      <c r="E126" s="128"/>
+      <c r="C126" s="123"/>
+      <c r="D126" s="126"/>
+      <c r="E126" s="126"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="31"/>
       <c r="B127" s="31"/>
-      <c r="C127" s="125"/>
-      <c r="D127" s="128"/>
-      <c r="E127" s="128"/>
+      <c r="C127" s="123"/>
+      <c r="D127" s="126"/>
+      <c r="E127" s="126"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="31"/>
       <c r="B128" s="31"/>
-      <c r="C128" s="125"/>
-      <c r="D128" s="128"/>
-      <c r="E128" s="128"/>
+      <c r="C128" s="123"/>
+      <c r="D128" s="126"/>
+      <c r="E128" s="126"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="31"/>
       <c r="B129" s="31"/>
-      <c r="C129" s="125"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="128"/>
+      <c r="C129" s="123"/>
+      <c r="D129" s="126"/>
+      <c r="E129" s="126"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="31"/>
       <c r="B130" s="31"/>
-      <c r="C130" s="125"/>
-      <c r="D130" s="128"/>
-      <c r="E130" s="128"/>
+      <c r="C130" s="123"/>
+      <c r="D130" s="126"/>
+      <c r="E130" s="126"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="31"/>
       <c r="B131" s="31"/>
-      <c r="C131" s="125"/>
-      <c r="D131" s="128"/>
-      <c r="E131" s="128"/>
+      <c r="C131" s="123"/>
+      <c r="D131" s="126"/>
+      <c r="E131" s="126"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="31"/>
       <c r="B132" s="31"/>
-      <c r="C132" s="125"/>
-      <c r="D132" s="128"/>
-      <c r="E132" s="128"/>
+      <c r="C132" s="123"/>
+      <c r="D132" s="126"/>
+      <c r="E132" s="126"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="31"/>
       <c r="B133" s="31"/>
-      <c r="C133" s="125"/>
-      <c r="D133" s="128"/>
-      <c r="E133" s="128"/>
+      <c r="C133" s="123"/>
+      <c r="D133" s="126"/>
+      <c r="E133" s="126"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="31"/>
       <c r="B134" s="31"/>
-      <c r="C134" s="125"/>
-      <c r="D134" s="128"/>
-      <c r="E134" s="128"/>
+      <c r="C134" s="123"/>
+      <c r="D134" s="126"/>
+      <c r="E134" s="126"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="31"/>
       <c r="B135" s="31"/>
-      <c r="C135" s="125"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="128"/>
+      <c r="C135" s="123"/>
+      <c r="D135" s="126"/>
+      <c r="E135" s="126"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="31"/>
       <c r="B136" s="31"/>
-      <c r="C136" s="125"/>
-      <c r="D136" s="128"/>
-      <c r="E136" s="128"/>
+      <c r="C136" s="123"/>
+      <c r="D136" s="126"/>
+      <c r="E136" s="126"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="31"/>
       <c r="B137" s="31"/>
-      <c r="C137" s="125"/>
-      <c r="D137" s="128"/>
-      <c r="E137" s="128"/>
+      <c r="C137" s="123"/>
+      <c r="D137" s="126"/>
+      <c r="E137" s="126"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="31"/>
       <c r="B138" s="31"/>
-      <c r="C138" s="125"/>
-      <c r="D138" s="128"/>
-      <c r="E138" s="128"/>
+      <c r="C138" s="123"/>
+      <c r="D138" s="126"/>
+      <c r="E138" s="126"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="31"/>
       <c r="B139" s="31"/>
-      <c r="C139" s="125"/>
-      <c r="D139" s="128"/>
-      <c r="E139" s="128"/>
+      <c r="C139" s="123"/>
+      <c r="D139" s="126"/>
+      <c r="E139" s="126"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="31"/>
       <c r="B140" s="31"/>
-      <c r="C140" s="125"/>
-      <c r="D140" s="128"/>
-      <c r="E140" s="128"/>
+      <c r="C140" s="123"/>
+      <c r="D140" s="126"/>
+      <c r="E140" s="126"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="31"/>
       <c r="B141" s="31"/>
-      <c r="C141" s="125"/>
-      <c r="D141" s="128"/>
-      <c r="E141" s="128"/>
+      <c r="C141" s="123"/>
+      <c r="D141" s="126"/>
+      <c r="E141" s="126"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="31"/>
       <c r="B142" s="31"/>
-      <c r="C142" s="125"/>
-      <c r="D142" s="128"/>
-      <c r="E142" s="128"/>
+      <c r="C142" s="123"/>
+      <c r="D142" s="126"/>
+      <c r="E142" s="126"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="31"/>
       <c r="B143" s="31"/>
-      <c r="C143" s="125"/>
-      <c r="D143" s="128"/>
-      <c r="E143" s="128"/>
+      <c r="C143" s="123"/>
+      <c r="D143" s="126"/>
+      <c r="E143" s="126"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="31"/>
       <c r="B144" s="31"/>
-      <c r="C144" s="125"/>
-      <c r="D144" s="128"/>
-      <c r="E144" s="128"/>
+      <c r="C144" s="123"/>
+      <c r="D144" s="126"/>
+      <c r="E144" s="126"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="31"/>
       <c r="B145" s="31"/>
-      <c r="C145" s="125"/>
-      <c r="D145" s="128"/>
-      <c r="E145" s="128"/>
+      <c r="C145" s="123"/>
+      <c r="D145" s="126"/>
+      <c r="E145" s="126"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="31"/>
       <c r="B146" s="31"/>
-      <c r="C146" s="125"/>
-      <c r="D146" s="128"/>
-      <c r="E146" s="128"/>
+      <c r="C146" s="123"/>
+      <c r="D146" s="126"/>
+      <c r="E146" s="126"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="31"/>
       <c r="B147" s="31"/>
-      <c r="C147" s="125"/>
-      <c r="D147" s="128"/>
-      <c r="E147" s="128"/>
+      <c r="C147" s="123"/>
+      <c r="D147" s="126"/>
+      <c r="E147" s="126"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="31"/>
       <c r="B148" s="31"/>
-      <c r="C148" s="125"/>
-      <c r="D148" s="128"/>
-      <c r="E148" s="128"/>
+      <c r="C148" s="123"/>
+      <c r="D148" s="126"/>
+      <c r="E148" s="126"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="31"/>
       <c r="B149" s="31"/>
-      <c r="C149" s="125"/>
-      <c r="D149" s="128"/>
-      <c r="E149" s="128"/>
+      <c r="C149" s="123"/>
+      <c r="D149" s="126"/>
+      <c r="E149" s="126"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="31"/>
       <c r="B150" s="31"/>
-      <c r="C150" s="125"/>
-      <c r="D150" s="128"/>
-      <c r="E150" s="128"/>
+      <c r="C150" s="123"/>
+      <c r="D150" s="126"/>
+      <c r="E150" s="126"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="31"/>
       <c r="B151" s="31"/>
-      <c r="C151" s="125"/>
-      <c r="D151" s="128"/>
-      <c r="E151" s="128"/>
+      <c r="C151" s="123"/>
+      <c r="D151" s="126"/>
+      <c r="E151" s="126"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="31"/>
       <c r="B152" s="31"/>
-      <c r="C152" s="125"/>
-      <c r="D152" s="128"/>
-      <c r="E152" s="128"/>
+      <c r="C152" s="123"/>
+      <c r="D152" s="126"/>
+      <c r="E152" s="126"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="31"/>
       <c r="B153" s="31"/>
-      <c r="C153" s="125"/>
-      <c r="D153" s="128"/>
-      <c r="E153" s="128"/>
+      <c r="C153" s="123"/>
+      <c r="D153" s="126"/>
+      <c r="E153" s="126"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="31"/>
       <c r="B154" s="31"/>
-      <c r="C154" s="125"/>
-      <c r="D154" s="128"/>
-      <c r="E154" s="128"/>
+      <c r="C154" s="123"/>
+      <c r="D154" s="126"/>
+      <c r="E154" s="126"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="31"/>
       <c r="B155" s="31"/>
-      <c r="C155" s="125"/>
-      <c r="D155" s="128"/>
-      <c r="E155" s="128"/>
+      <c r="C155" s="123"/>
+      <c r="D155" s="126"/>
+      <c r="E155" s="126"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="31"/>
       <c r="B156" s="31"/>
-      <c r="C156" s="125"/>
-      <c r="D156" s="128"/>
-      <c r="E156" s="128"/>
+      <c r="C156" s="123"/>
+      <c r="D156" s="126"/>
+      <c r="E156" s="126"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="31"/>
       <c r="B157" s="31"/>
-      <c r="C157" s="125"/>
-      <c r="D157" s="128"/>
-      <c r="E157" s="128"/>
+      <c r="C157" s="123"/>
+      <c r="D157" s="126"/>
+      <c r="E157" s="126"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="31"/>
       <c r="B158" s="31"/>
-      <c r="C158" s="125"/>
-      <c r="D158" s="128"/>
-      <c r="E158" s="128"/>
+      <c r="C158" s="123"/>
+      <c r="D158" s="126"/>
+      <c r="E158" s="126"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="31"/>
       <c r="B159" s="31"/>
-      <c r="C159" s="125"/>
-      <c r="D159" s="128"/>
-      <c r="E159" s="128"/>
+      <c r="C159" s="123"/>
+      <c r="D159" s="126"/>
+      <c r="E159" s="126"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="31"/>
       <c r="B160" s="31"/>
-      <c r="C160" s="125"/>
-      <c r="D160" s="128"/>
-      <c r="E160" s="128"/>
+      <c r="C160" s="123"/>
+      <c r="D160" s="126"/>
+      <c r="E160" s="126"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="31"/>
       <c r="B161" s="31"/>
-      <c r="C161" s="125"/>
-      <c r="D161" s="128"/>
-      <c r="E161" s="128"/>
+      <c r="C161" s="123"/>
+      <c r="D161" s="126"/>
+      <c r="E161" s="126"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="31"/>
       <c r="B162" s="31"/>
-      <c r="C162" s="125"/>
-      <c r="D162" s="128"/>
-      <c r="E162" s="128"/>
+      <c r="C162" s="123"/>
+      <c r="D162" s="126"/>
+      <c r="E162" s="126"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="31"/>
       <c r="B163" s="31"/>
-      <c r="C163" s="125"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="128"/>
+      <c r="C163" s="123"/>
+      <c r="D163" s="126"/>
+      <c r="E163" s="126"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="31"/>
       <c r="B164" s="31"/>
-      <c r="C164" s="125"/>
-      <c r="D164" s="128"/>
-      <c r="E164" s="128"/>
+      <c r="C164" s="123"/>
+      <c r="D164" s="126"/>
+      <c r="E164" s="126"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="31"/>
       <c r="B165" s="31"/>
-      <c r="C165" s="125"/>
-      <c r="D165" s="128"/>
-      <c r="E165" s="128"/>
+      <c r="C165" s="123"/>
+      <c r="D165" s="126"/>
+      <c r="E165" s="126"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="31"/>
       <c r="B166" s="31"/>
-      <c r="C166" s="125"/>
-      <c r="D166" s="128"/>
-      <c r="E166" s="128"/>
+      <c r="C166" s="123"/>
+      <c r="D166" s="126"/>
+      <c r="E166" s="126"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="31"/>
       <c r="B167" s="31"/>
-      <c r="C167" s="125"/>
-      <c r="D167" s="128"/>
-      <c r="E167" s="128"/>
+      <c r="C167" s="123"/>
+      <c r="D167" s="126"/>
+      <c r="E167" s="126"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="31"/>
       <c r="B168" s="31"/>
-      <c r="C168" s="125"/>
-      <c r="D168" s="128"/>
-      <c r="E168" s="128"/>
+      <c r="C168" s="123"/>
+      <c r="D168" s="126"/>
+      <c r="E168" s="126"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="31"/>
       <c r="B169" s="31"/>
-      <c r="C169" s="125"/>
-      <c r="D169" s="128"/>
-      <c r="E169" s="128"/>
+      <c r="C169" s="123"/>
+      <c r="D169" s="126"/>
+      <c r="E169" s="126"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="31"/>
       <c r="B170" s="31"/>
-      <c r="C170" s="125"/>
-      <c r="D170" s="128"/>
-      <c r="E170" s="128"/>
+      <c r="C170" s="123"/>
+      <c r="D170" s="126"/>
+      <c r="E170" s="126"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="31"/>
       <c r="B171" s="31"/>
-      <c r="C171" s="125"/>
-      <c r="D171" s="128"/>
-      <c r="E171" s="128"/>
+      <c r="C171" s="123"/>
+      <c r="D171" s="126"/>
+      <c r="E171" s="126"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="31"/>
       <c r="B172" s="31"/>
-      <c r="C172" s="125"/>
-      <c r="D172" s="128"/>
-      <c r="E172" s="128"/>
+      <c r="C172" s="123"/>
+      <c r="D172" s="126"/>
+      <c r="E172" s="126"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="31"/>
       <c r="B173" s="31"/>
-      <c r="C173" s="125"/>
-      <c r="D173" s="128"/>
-      <c r="E173" s="128"/>
+      <c r="C173" s="123"/>
+      <c r="D173" s="126"/>
+      <c r="E173" s="126"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="31"/>
       <c r="B174" s="31"/>
-      <c r="C174" s="125"/>
-      <c r="D174" s="128"/>
-      <c r="E174" s="128"/>
+      <c r="C174" s="123"/>
+      <c r="D174" s="126"/>
+      <c r="E174" s="126"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="31"/>
       <c r="B175" s="31"/>
-      <c r="C175" s="125"/>
-      <c r="D175" s="128"/>
-      <c r="E175" s="128"/>
+      <c r="C175" s="123"/>
+      <c r="D175" s="126"/>
+      <c r="E175" s="126"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="31"/>
       <c r="B176" s="31"/>
-      <c r="C176" s="125"/>
-      <c r="D176" s="128"/>
-      <c r="E176" s="128"/>
+      <c r="C176" s="123"/>
+      <c r="D176" s="126"/>
+      <c r="E176" s="126"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="31"/>
       <c r="B177" s="31"/>
-      <c r="C177" s="125"/>
-      <c r="D177" s="128"/>
-      <c r="E177" s="128"/>
+      <c r="C177" s="123"/>
+      <c r="D177" s="126"/>
+      <c r="E177" s="126"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="31"/>
       <c r="B178" s="31"/>
-      <c r="C178" s="125"/>
-      <c r="D178" s="128"/>
-      <c r="E178" s="128"/>
+      <c r="C178" s="123"/>
+      <c r="D178" s="126"/>
+      <c r="E178" s="126"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="31"/>
       <c r="B179" s="31"/>
-      <c r="C179" s="125"/>
-      <c r="D179" s="128"/>
-      <c r="E179" s="128"/>
+      <c r="C179" s="123"/>
+      <c r="D179" s="126"/>
+      <c r="E179" s="126"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="31"/>
       <c r="B180" s="31"/>
-      <c r="C180" s="125"/>
-      <c r="D180" s="128"/>
-      <c r="E180" s="128"/>
+      <c r="C180" s="123"/>
+      <c r="D180" s="126"/>
+      <c r="E180" s="126"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="31"/>
       <c r="B181" s="31"/>
-      <c r="C181" s="125"/>
-      <c r="D181" s="128"/>
-      <c r="E181" s="128"/>
+      <c r="C181" s="123"/>
+      <c r="D181" s="126"/>
+      <c r="E181" s="126"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="31"/>
       <c r="B182" s="31"/>
-      <c r="C182" s="125"/>
-      <c r="D182" s="128"/>
-      <c r="E182" s="128"/>
+      <c r="C182" s="123"/>
+      <c r="D182" s="126"/>
+      <c r="E182" s="126"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="31"/>
       <c r="B183" s="31"/>
-      <c r="C183" s="125"/>
-      <c r="D183" s="128"/>
-      <c r="E183" s="128"/>
+      <c r="C183" s="123"/>
+      <c r="D183" s="126"/>
+      <c r="E183" s="126"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="31"/>
       <c r="B184" s="31"/>
-      <c r="C184" s="125"/>
-      <c r="D184" s="128"/>
-      <c r="E184" s="128"/>
+      <c r="C184" s="123"/>
+      <c r="D184" s="126"/>
+      <c r="E184" s="126"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="31"/>
       <c r="B185" s="31"/>
-      <c r="C185" s="125"/>
-      <c r="D185" s="128"/>
-      <c r="E185" s="128"/>
+      <c r="C185" s="123"/>
+      <c r="D185" s="126"/>
+      <c r="E185" s="126"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="31"/>
       <c r="B186" s="31"/>
-      <c r="C186" s="125"/>
-      <c r="D186" s="128"/>
-      <c r="E186" s="128"/>
+      <c r="C186" s="123"/>
+      <c r="D186" s="126"/>
+      <c r="E186" s="126"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="31"/>
       <c r="B187" s="31"/>
-      <c r="C187" s="125"/>
-      <c r="D187" s="128"/>
-      <c r="E187" s="128"/>
+      <c r="C187" s="123"/>
+      <c r="D187" s="126"/>
+      <c r="E187" s="126"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="31"/>
       <c r="B188" s="31"/>
-      <c r="C188" s="125"/>
-      <c r="D188" s="128"/>
-      <c r="E188" s="128"/>
+      <c r="C188" s="123"/>
+      <c r="D188" s="126"/>
+      <c r="E188" s="126"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="31"/>
       <c r="B189" s="31"/>
-      <c r="C189" s="125"/>
-      <c r="D189" s="128"/>
-      <c r="E189" s="128"/>
+      <c r="C189" s="123"/>
+      <c r="D189" s="126"/>
+      <c r="E189" s="126"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="31"/>
       <c r="B190" s="31"/>
-      <c r="C190" s="125"/>
-      <c r="D190" s="128"/>
-      <c r="E190" s="128"/>
+      <c r="C190" s="123"/>
+      <c r="D190" s="126"/>
+      <c r="E190" s="126"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="31"/>
       <c r="B191" s="31"/>
-      <c r="C191" s="125"/>
-      <c r="D191" s="128"/>
-      <c r="E191" s="128"/>
+      <c r="C191" s="123"/>
+      <c r="D191" s="126"/>
+      <c r="E191" s="126"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="31"/>
       <c r="B192" s="31"/>
-      <c r="C192" s="125"/>
-      <c r="D192" s="128"/>
-      <c r="E192" s="128"/>
+      <c r="C192" s="123"/>
+      <c r="D192" s="126"/>
+      <c r="E192" s="126"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="31"/>
       <c r="B193" s="31"/>
-      <c r="C193" s="125"/>
-      <c r="D193" s="128"/>
-      <c r="E193" s="128"/>
+      <c r="C193" s="123"/>
+      <c r="D193" s="126"/>
+      <c r="E193" s="126"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="31"/>
       <c r="B194" s="31"/>
-      <c r="C194" s="125"/>
-      <c r="D194" s="128"/>
-      <c r="E194" s="128"/>
+      <c r="C194" s="123"/>
+      <c r="D194" s="126"/>
+      <c r="E194" s="126"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="31"/>
       <c r="B195" s="31"/>
-      <c r="C195" s="125"/>
-      <c r="D195" s="128"/>
-      <c r="E195" s="128"/>
+      <c r="C195" s="123"/>
+      <c r="D195" s="126"/>
+      <c r="E195" s="126"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="31"/>
       <c r="B196" s="31"/>
-      <c r="C196" s="125"/>
-      <c r="D196" s="128"/>
-      <c r="E196" s="128"/>
+      <c r="C196" s="123"/>
+      <c r="D196" s="126"/>
+      <c r="E196" s="126"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="31"/>
       <c r="B197" s="31"/>
-      <c r="C197" s="125"/>
-      <c r="D197" s="128"/>
-      <c r="E197" s="128"/>
+      <c r="C197" s="123"/>
+      <c r="D197" s="126"/>
+      <c r="E197" s="126"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="31"/>
       <c r="B198" s="31"/>
-      <c r="C198" s="125"/>
-      <c r="D198" s="128"/>
-      <c r="E198" s="128"/>
+      <c r="C198" s="123"/>
+      <c r="D198" s="126"/>
+      <c r="E198" s="126"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="31"/>
       <c r="B199" s="31"/>
-      <c r="C199" s="125"/>
-      <c r="D199" s="128"/>
-      <c r="E199" s="128"/>
+      <c r="C199" s="123"/>
+      <c r="D199" s="126"/>
+      <c r="E199" s="126"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="31"/>
       <c r="B200" s="31"/>
-      <c r="C200" s="125"/>
-      <c r="D200" s="128"/>
-      <c r="E200" s="128"/>
+      <c r="C200" s="123"/>
+      <c r="D200" s="126"/>
+      <c r="E200" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9474,13 +9357,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -9488,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="29">
         <v>0</v>
@@ -9503,7 +9386,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="29">
         <v>0</v>
@@ -9518,7 +9401,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="29">
         <v>0</v>
@@ -9533,7 +9416,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="29">
         <v>0</v>
@@ -9548,7 +9431,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="29">
         <v>0</v>
@@ -9563,7 +9446,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="29">
         <v>0</v>
@@ -9578,7 +9461,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="29">
         <v>0</v>
@@ -9593,7 +9476,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="29">
         <v>0</v>
@@ -9608,7 +9491,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="29">
         <v>0</v>
@@ -9623,7 +9506,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="29">
         <v>0</v>
@@ -9638,7 +9521,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="29">
         <v>0</v>
@@ -9653,7 +9536,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="29">
         <v>0</v>
@@ -9668,7 +9551,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="29">
         <v>0</v>
@@ -9683,7 +9566,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="29">
         <v>0</v>
@@ -9698,7 +9581,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="29">
         <v>0</v>
@@ -9713,7 +9596,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="29">
         <v>0</v>
@@ -9728,7 +9611,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="29">
         <v>0</v>
@@ -9743,7 +9626,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="29">
         <v>0</v>
@@ -9758,7 +9641,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="29">
         <v>0</v>
@@ -9773,7 +9656,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="29">
         <v>0</v>
@@ -9823,16 +9706,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>58</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
@@ -10449,29 +10332,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="56"/>
       <c r="E1" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="46">
         <v>0.7</v>
@@ -10485,7 +10368,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="59">
         <v>20</v>
@@ -10497,7 +10380,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="59">
         <v>30</v>
@@ -10509,7 +10392,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="59">
         <v>13</v>
@@ -10521,7 +10404,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="59">
         <v>3</v>
@@ -10533,7 +10416,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="59">
         <v>3</v>
@@ -10545,7 +10428,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="59">
         <v>2.5</v>
@@ -10557,7 +10440,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="59">
         <v>2</v>
@@ -10569,7 +10452,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="59">
         <v>2</v>
@@ -10581,7 +10464,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="59">
         <v>2.5</v>
@@ -10593,7 +10476,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="59">
         <v>2</v>
@@ -10605,7 +10488,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="59">
         <v>16</v>
@@ -10617,7 +10500,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="59">
         <v>10</v>
@@ -10629,7 +10512,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="59">
         <v>7</v>
@@ -10641,7 +10524,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="59">
         <v>10</v>
@@ -10653,7 +10536,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="59">
         <v>2</v>
@@ -10665,7 +10548,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="59">
         <v>8</v>
@@ -10677,7 +10560,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="59">
         <v>18</v>
@@ -10689,7 +10572,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" s="59">
         <v>2</v>
@@ -10701,7 +10584,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="59">
         <v>2</v>
@@ -10713,7 +10596,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="59">
         <v>3</v>
@@ -10746,7 +10629,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25" s="60"/>
       <c r="F25" s="36"/>
@@ -10755,13 +10638,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
@@ -10769,7 +10652,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="62">
         <v>50</v>
@@ -10779,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="38"/>
@@ -10787,7 +10670,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" s="62">
         <v>14</v>
@@ -10799,7 +10682,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B29" s="62">
         <v>1.9</v>
@@ -10811,7 +10694,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" s="62">
         <v>0.8</v>
@@ -10823,7 +10706,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B31" s="62">
         <v>1.9</v>
@@ -10835,7 +10718,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B32" s="62">
         <v>0.8</v>
@@ -10847,7 +10730,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B33" s="62">
         <v>0.8</v>
@@ -10859,7 +10742,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="62">
         <v>1.4</v>
@@ -10871,7 +10754,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B35" s="62">
         <v>1.7</v>
@@ -10883,7 +10766,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" s="62">
         <v>1.4</v>
@@ -10895,7 +10778,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="62">
         <v>0.3</v>
@@ -10907,7 +10790,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="62">
         <v>12</v>
@@ -10917,12 +10800,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39" s="62">
         <v>1.6</v>
@@ -10934,7 +10817,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" s="62">
         <v>2.1</v>
@@ -10944,12 +10827,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B41" s="62">
         <v>1.9</v>
@@ -10961,7 +10844,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B42" s="62">
         <v>0.8</v>
@@ -10973,7 +10856,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B43" s="62">
         <v>0.8</v>
@@ -10985,7 +10868,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B44" s="62">
         <v>1.1000000000000001</v>
@@ -10997,7 +10880,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B45" s="62">
         <v>1.6</v>
@@ -11009,7 +10892,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46" s="62">
         <v>24</v>
@@ -11019,12 +10902,12 @@
         <v>0</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B47" s="62">
         <v>1.4</v>
@@ -11036,7 +10919,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" s="62">
         <v>1.4</v>
@@ -11046,12 +10929,12 @@
         <v>0</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B49" s="62">
         <v>2.5</v>
@@ -11061,12 +10944,12 @@
         <v>0</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B50" s="62">
         <v>1.9</v>
@@ -11078,7 +10961,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B51" s="62">
         <v>0.5</v>
@@ -11090,7 +10973,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B52" s="62">
         <v>1.1000000000000001</v>
@@ -11102,7 +10985,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" s="62">
         <v>3.5</v>
@@ -11114,7 +10997,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B54" s="62">
         <v>0.8</v>
@@ -11126,7 +11009,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="62">
         <v>2.5</v>
@@ -11138,7 +11021,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B56" s="62">
         <v>0.3</v>
@@ -11150,7 +11033,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B57" s="62">
         <v>0.6</v>
@@ -11162,7 +11045,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B58" s="62">
         <v>11</v>
@@ -11172,12 +11055,12 @@
         <v>0</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B59" s="62">
         <v>4.9000000000000004</v>
@@ -11189,7 +11072,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B60" s="62">
         <v>0.5</v>
@@ -11201,7 +11084,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B61" s="62">
         <v>0.5</v>
@@ -11213,7 +11096,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B62" s="62">
         <v>2.2000000000000002</v>
@@ -11225,7 +11108,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B63" s="62">
         <v>1.4</v>
@@ -11237,7 +11120,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" s="62">
         <v>0.8</v>
@@ -11249,7 +11132,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B65" s="62">
         <v>0.5</v>
@@ -11261,7 +11144,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B66" s="62">
         <v>0.5</v>
@@ -11273,7 +11156,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B67" s="62">
         <v>0.8</v>
@@ -11285,7 +11168,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" s="62">
         <v>0.5</v>
@@ -11297,7 +11180,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B69" s="62">
         <v>0.5</v>
@@ -11309,7 +11192,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B70" s="62">
         <v>0.8</v>
@@ -11321,7 +11204,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B71" s="62">
         <v>1.4</v>
@@ -11331,12 +11214,12 @@
         <v>0</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B72" s="62">
         <v>0.6</v>
@@ -11346,12 +11229,12 @@
         <v>0</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B73" s="62">
         <v>2.5</v>
@@ -11363,7 +11246,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B74" s="62">
         <v>0.7</v>
@@ -11375,7 +11258,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B75" s="62">
         <v>1.8</v>
@@ -11387,7 +11270,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B76" s="62">
         <v>4.5</v>
@@ -11399,7 +11282,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B77" s="62">
         <v>4.5</v>
@@ -11411,7 +11294,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B78" s="62">
         <v>10</v>
@@ -11423,7 +11306,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B79" s="62">
         <v>5.5</v>
@@ -11433,12 +11316,12 @@
         <v>0</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B80" s="62">
         <v>4.5</v>
@@ -11448,12 +11331,12 @@
         <v>0</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B81" s="62">
         <v>10</v>
@@ -11463,12 +11346,12 @@
         <v>0</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B82" s="62">
         <v>3</v>
@@ -11480,7 +11363,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B83" s="62">
         <v>0.5</v>
@@ -11492,7 +11375,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B84" s="62">
         <v>0.8</v>
@@ -11504,7 +11387,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B85" s="62">
         <v>1.2</v>
@@ -11516,7 +11399,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B86" s="62">
         <v>0.5</v>
@@ -11528,7 +11411,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B87" s="62">
         <v>0.3</v>
@@ -11540,7 +11423,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B88" s="62">
         <v>3.5</v>
@@ -11552,7 +11435,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B89" s="62">
         <v>0.5</v>
@@ -11564,7 +11447,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B90" s="62">
         <v>0.5</v>
@@ -11576,7 +11459,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B91" s="62">
         <v>0.3</v>
@@ -11588,7 +11471,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B92" s="62">
         <v>0.7</v>
@@ -11600,7 +11483,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B93" s="62">
         <v>12.5</v>
@@ -11612,7 +11495,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94" s="62">
         <v>0.5</v>
@@ -11624,7 +11507,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B95" s="62">
         <v>0.5</v>
@@ -11636,7 +11519,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B96" s="62">
         <v>1</v>
@@ -11648,7 +11531,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B97" s="62">
         <v>0.5</v>
@@ -11660,7 +11543,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B98" s="62">
         <v>0.8</v>
@@ -11672,7 +11555,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B99" s="62">
         <v>2.1</v>
@@ -11684,7 +11567,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B100" s="62">
         <v>0.5</v>
@@ -11696,7 +11579,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B101" s="62">
         <v>0.6</v>
@@ -11708,7 +11591,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B102" s="62">
         <v>1.1000000000000001</v>
@@ -11720,7 +11603,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B103" s="62">
         <v>0.9</v>
@@ -11732,7 +11615,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B104" s="62">
         <v>0.8</v>
@@ -11744,7 +11627,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B105" s="62">
         <v>0.3</v>
@@ -11756,7 +11639,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B106" s="62">
         <v>0.8</v>
@@ -11768,7 +11651,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B107" s="62">
         <v>3</v>
@@ -11778,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -11793,70 +11676,70 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B109" s="60"/>
       <c r="C109" s="33"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B110" s="60"/>
       <c r="C110" s="33"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B111" s="60"/>
       <c r="C111" s="33"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B112" s="60"/>
       <c r="C112" s="33"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B114" s="60"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B115" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D115" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="E115" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C115" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="D115" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="E115" s="66" t="s">
+      <c r="G115" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="F115" s="67" t="s">
+      <c r="H115" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="G115" s="67" t="s">
+      <c r="I115" s="67" t="s">
         <v>264</v>
-      </c>
-      <c r="H115" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="I115" s="67" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B116" s="62">
         <v>24</v>
@@ -11866,27 +11749,27 @@
         <v>0</v>
       </c>
       <c r="D116" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="63" t="s">
+      <c r="G116" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="F116" s="63" t="s">
+      <c r="H116" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="G116" s="63" t="s">
+      <c r="I116" s="63" t="s">
         <v>231</v>
-      </c>
-      <c r="H116" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="I116" s="63" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B117" s="62">
         <v>1</v>
@@ -11916,7 +11799,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B118" s="62">
         <v>1.3</v>
@@ -11926,27 +11809,27 @@
         <v>0</v>
       </c>
       <c r="D118" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E118" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F118" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="G118" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="E118" s="63" t="s">
+      <c r="H118" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="F118" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="G118" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="H118" s="63" t="s">
-        <v>274</v>
-      </c>
       <c r="I118" s="63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B119" s="62">
         <v>0.4</v>
@@ -11976,7 +11859,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B120" s="62">
         <v>0.6</v>
@@ -12006,7 +11889,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B121" s="62">
         <v>0.5</v>
@@ -12036,7 +11919,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B122" s="62">
         <v>0.3</v>
@@ -12066,7 +11949,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B123" s="62">
         <v>0.9</v>
@@ -12096,7 +11979,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B124" s="62">
         <v>2.8</v>
@@ -12126,7 +12009,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B125" s="62">
         <v>0.6</v>
@@ -12156,7 +12039,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B126" s="62">
         <v>2.1</v>
@@ -12186,7 +12069,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B127" s="62">
         <v>0.5</v>
@@ -12216,7 +12099,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B128" s="62">
         <v>0.8</v>
@@ -12246,7 +12129,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B129" s="62">
         <v>1.3</v>
@@ -12276,7 +12159,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B130" s="62">
         <v>0.6</v>
@@ -12306,7 +12189,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B131" s="62">
         <v>0.7</v>
@@ -12336,7 +12219,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B132" s="62">
         <v>0.3</v>
@@ -12366,7 +12249,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B133" s="62">
         <v>0.2</v>
@@ -12396,7 +12279,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B134" s="62">
         <v>0.6</v>
@@ -12426,7 +12309,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B135" s="62">
         <v>0.2</v>
@@ -12456,7 +12339,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B136" s="62">
         <v>0.6</v>
@@ -12486,7 +12369,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B137" s="62">
         <v>2.5</v>
@@ -12516,7 +12399,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B138" s="62">
         <v>34</v>
@@ -12546,7 +12429,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B139" s="62">
         <v>21</v>
@@ -12576,7 +12459,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B140" s="62">
         <v>1</v>
@@ -12606,7 +12489,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B141" s="62">
         <v>1</v>
@@ -12636,7 +12519,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B142" s="62">
         <v>14</v>
@@ -12666,7 +12549,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B143" s="62">
         <v>1.1000000000000001</v>
@@ -12696,7 +12579,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B144" s="62">
         <v>0.5</v>
@@ -12726,7 +12609,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B145" s="62">
         <v>0.5</v>
@@ -12756,7 +12639,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B146" s="62">
         <v>0.9</v>
@@ -12786,7 +12669,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B147" s="62">
         <v>1.4</v>
@@ -12816,7 +12699,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B148" s="62">
         <v>0.8</v>
@@ -12846,7 +12729,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B149" s="62">
         <v>0.9</v>
@@ -12876,7 +12759,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B150" s="62">
         <v>0.8</v>
@@ -12906,7 +12789,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B151" s="62">
         <v>1</v>
@@ -12936,7 +12819,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B152" s="62">
         <v>1.2</v>
@@ -12966,7 +12849,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B153" s="62">
         <v>1</v>
@@ -12996,7 +12879,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B154" s="62">
         <v>2.1</v>
@@ -13026,7 +12909,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B155" s="62">
         <v>1.6</v>
@@ -13056,7 +12939,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B156" s="62">
         <v>3</v>
@@ -13086,7 +12969,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B157" s="62">
         <v>10</v>
@@ -13116,7 +12999,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B158" s="62">
         <v>15</v>
@@ -13146,7 +13029,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B159" s="62">
         <v>3</v>
@@ -13176,7 +13059,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B160" s="62">
         <v>0.5</v>
@@ -13206,7 +13089,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B161" s="62">
         <v>1</v>
@@ -13236,7 +13119,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B162" s="62">
         <v>1.2</v>
@@ -13266,7 +13149,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B163" s="62">
         <v>0.3</v>
@@ -13296,7 +13179,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B164" s="62">
         <v>0.1</v>
@@ -13326,7 +13209,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B165" s="62">
         <v>3</v>
@@ -13356,7 +13239,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B166" s="62">
         <v>5</v>
@@ -13386,7 +13269,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B167" s="62">
         <v>3</v>
@@ -13396,27 +13279,27 @@
         <v>0</v>
       </c>
       <c r="D167" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E167" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F167" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G167" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H167" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I167" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B168" s="47">
         <f t="shared" ref="B168:C168" si="0">SUM(B116:B167)</f>

--- a/media/excel.xlsx
+++ b/media/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F741A3D5-6616-4643-9AB4-143335790EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F1842-7D82-462F-8012-9A282A606D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="323">
   <si>
     <t>Счет на оплату №</t>
   </si>
@@ -1006,6 +1006,9 @@
   </si>
   <si>
     <t>Авто</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1776,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2102,128 +2105,146 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2240,90 +2261,66 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2351,23 +2348,23 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3114,10 +3111,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="210" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="211"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="72">
         <v>0</v>
       </c>
@@ -3132,10 +3129,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="213"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="73" t="s">
         <v>59</v>
       </c>
@@ -3150,10 +3147,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="210" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="211"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="70">
         <v>1</v>
       </c>
@@ -3168,10 +3165,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="68" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="214" t="s">
+      <c r="A10" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="214"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="69">
         <f>C7*C9</f>
         <v>0</v>
@@ -3190,10 +3187,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="211" t="s">
+      <c r="A11" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="211"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="70">
         <v>1</v>
       </c>
@@ -3208,10 +3205,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="68" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="214"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="69">
         <f>C10*C11</f>
         <v>0</v>
@@ -3230,10 +3227,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="211" t="s">
+      <c r="A13" s="210" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="211"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="70">
         <v>1</v>
       </c>
@@ -3248,10 +3245,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="68" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="214"/>
+      <c r="B14" s="211"/>
       <c r="C14" s="69">
         <f>C12*C13</f>
         <v>0</v>
@@ -3270,10 +3267,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="211" t="s">
+      <c r="A15" s="210" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="211"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="70">
         <v>1</v>
       </c>
@@ -3288,10 +3285,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="68" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="214"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="69">
         <f>C14*C15</f>
         <v>0</v>
@@ -3310,10 +3307,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="211" t="s">
+      <c r="A17" s="210" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="211"/>
+      <c r="B17" s="210"/>
       <c r="C17" s="70">
         <v>1</v>
       </c>
@@ -3328,10 +3325,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="68" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="214"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="69">
         <f>C16*C17</f>
         <v>0</v>
@@ -3350,10 +3347,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="211" t="s">
+      <c r="A19" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="211"/>
+      <c r="B19" s="210"/>
       <c r="C19" s="70">
         <v>1</v>
       </c>
@@ -3368,10 +3365,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="68" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="214"/>
+      <c r="B20" s="211"/>
       <c r="C20" s="69">
         <f>C18*C19</f>
         <v>0</v>
@@ -3390,17 +3387,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="216" t="s">
+      <c r="A21" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="216"/>
-      <c r="C21" s="215">
+      <c r="B21" s="212"/>
+      <c r="C21" s="209">
         <f>ROUND(AVERAGE(C20:F20),-2)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
     </row>
     <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="32"/>
@@ -3412,22 +3409,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3453,74 +3450,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="165" t="str">
+      <c r="A4" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="137" t="str">
         <f>Дано!B2</f>
         <v>001-01/20</v>
       </c>
-      <c r="E4" s="165"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="168" t="str">
+      <c r="H4" s="135" t="str">
         <f>Дано!B4</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -3534,21 +3531,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="154" t="str">
+      <c r="B7" s="132"/>
+      <c r="C7" s="141" t="str">
         <f>Дано!B6</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -3562,21 +3559,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="154" t="str">
+      <c r="B9" s="132"/>
+      <c r="C9" s="141" t="str">
         <f>Дано!B3</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -3590,20 +3587,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="155" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -3617,96 +3614,96 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159" t="s">
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="159" t="s">
+      <c r="H13" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="159" t="s">
+      <c r="I13" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="131" t="s">
+      <c r="J13" s="148" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="157"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="132"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="133">
+      <c r="A15" s="152">
         <v>1</v>
       </c>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="137" t="str">
+      <c r="C15" s="156" t="str">
         <f>"Экспертиза и оценка: "&amp;Дано!B16&amp;" "&amp;Дано!B17&amp;", "&amp;Дано!B18</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="143" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="147" t="s">
         <v>276</v>
       </c>
-      <c r="H15" s="143">
+      <c r="H15" s="147">
         <v>1</v>
       </c>
-      <c r="I15" s="144">
+      <c r="I15" s="143">
         <f>Дано!B13</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="146">
+      <c r="J15" s="145">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="134"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="147"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="138" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="10">
         <f>J15</f>
         <v>2500</v>
@@ -3724,18 +3721,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -3749,18 +3746,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="151" t="s">
+      <c r="A21" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -3774,21 +3771,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="153" t="str">
+      <c r="B23" s="132"/>
+      <c r="C23" s="164" t="str">
         <f>Дано!B14&amp;" сом, 00 тыйын"</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -3814,16 +3811,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -3950,77 +3947,77 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="161" t="str">
+      <c r="A38" s="128" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="161"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="161"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="161"/>
-      <c r="B40" s="161"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="165" t="str">
+      <c r="A41" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="137" t="str">
         <f>D4</f>
         <v>001-01/20</v>
       </c>
-      <c r="E41" s="165"/>
+      <c r="E41" s="137"/>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="163" t="str">
+      <c r="H41" s="165" t="str">
         <f>H4</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="162"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -4034,21 +4031,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="152" t="s">
+      <c r="A44" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="152"/>
-      <c r="C44" s="154" t="str">
+      <c r="B44" s="132"/>
+      <c r="C44" s="141" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -4062,21 +4059,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="152" t="s">
+      <c r="A46" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="152"/>
-      <c r="C46" s="154" t="str">
+      <c r="B46" s="132"/>
+      <c r="C46" s="141" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="141"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -4090,21 +4087,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="152" t="s">
+      <c r="A48" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="152"/>
-      <c r="C48" s="155" t="str">
+      <c r="B48" s="132"/>
+      <c r="C48" s="142" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -4118,99 +4115,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="156" t="s">
+      <c r="A50" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="158" t="s">
+      <c r="B50" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="159" t="s">
+      <c r="C50" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159" t="s">
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="159" t="s">
+      <c r="H50" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="159" t="s">
+      <c r="I50" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="131" t="s">
+      <c r="J50" s="148" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="157"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="132"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="149"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="133">
+      <c r="A52" s="152">
         <v>1</v>
       </c>
-      <c r="B52" s="135" t="str">
+      <c r="B52" s="166" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="137" t="str">
+      <c r="C52" s="156" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="138"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="143" t="str">
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="147" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="143">
+      <c r="H52" s="147">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="144">
+      <c r="I52" s="143">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="146">
+      <c r="J52" s="145">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="134"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="147"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="146"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="138" t="s">
         <v>277</v>
       </c>
-      <c r="B54" s="149"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="150"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="140"/>
       <c r="J54" s="10">
         <f>J52</f>
         <v>2500</v>
@@ -4228,18 +4225,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="151" t="s">
+      <c r="A56" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="151"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="163"/>
+      <c r="F56" s="163"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -4253,18 +4250,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="151" t="s">
+      <c r="A58" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="151"/>
-      <c r="C58" s="151"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="151"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -4278,21 +4275,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="152" t="s">
+      <c r="A60" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="152"/>
-      <c r="C60" s="153" t="str">
+      <c r="B60" s="132"/>
+      <c r="C60" s="164" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -4318,16 +4315,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="130" t="s">
+      <c r="C63" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
+      <c r="D63" s="162"/>
+      <c r="E63" s="162"/>
+      <c r="F63" s="162"/>
+      <c r="G63" s="162"/>
+      <c r="H63" s="162"/>
+      <c r="I63" s="162"/>
+      <c r="J63" s="162"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -4996,15 +4993,41 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C7:J7"/>
@@ -5021,41 +5044,15 @@
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:F16"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="D4:E5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5081,77 +5078,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="str">
+      <c r="A1" s="128" t="str">
         <f>счёт!A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="181" t="str">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="168" t="str">
         <f>счёт!D4</f>
         <v>001-01/20</v>
       </c>
-      <c r="E4" s="181"/>
+      <c r="E4" s="168"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="180" t="str">
+      <c r="H4" s="167" t="str">
         <f>счёт!H4</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -5165,21 +5162,21 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="154" t="str">
+      <c r="B7" s="132"/>
+      <c r="C7" s="141" t="str">
         <f>счёт!C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -5193,21 +5190,21 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="154" t="str">
+      <c r="B9" s="132"/>
+      <c r="C9" s="141" t="str">
         <f>счёт!C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -5221,20 +5218,20 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="155" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
@@ -5248,98 +5245,98 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178" t="s">
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="178" t="s">
+      <c r="H13" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="178" t="s">
+      <c r="I13" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="169" t="s">
+      <c r="J13" s="175" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="175"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="170"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="176"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="133">
+      <c r="A15" s="152">
         <v>1</v>
       </c>
-      <c r="B15" s="166" t="str">
+      <c r="B15" s="154" t="str">
         <f>счёт!B15:B16</f>
         <v>00001</v>
       </c>
-      <c r="C15" s="137" t="str">
+      <c r="C15" s="156" t="str">
         <f>счёт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="143" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="147" t="s">
         <v>276</v>
       </c>
-      <c r="H15" s="143">
+      <c r="H15" s="147">
         <f>счёт!H15</f>
         <v>1</v>
       </c>
-      <c r="I15" s="144">
+      <c r="I15" s="143">
         <f>счёт!I15</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="146">
+      <c r="J15" s="145">
         <f>I15*H15</f>
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="134"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="147"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="177" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="173"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="179"/>
       <c r="J17" s="13">
         <f>J15</f>
         <v>2500</v>
@@ -5357,18 +5354,18 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
@@ -5382,18 +5379,18 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="151" t="s">
+      <c r="A21" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
@@ -5407,21 +5404,21 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="153" t="str">
+      <c r="B23" s="132"/>
+      <c r="C23" s="164" t="str">
         <f>счёт!C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
@@ -5447,16 +5444,16 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -5585,77 +5582,77 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="161" t="str">
+      <c r="A38" s="128" t="str">
         <f>A1</f>
         <v>ОсОО "Первый Автосервис", г. Бишкек, ул. Атбашинская, 2/1; ИНН 01501201910391;
 Р/с 1091805549830135; БЦФ ОАО «Оптима Банк»; БИК 109018; УГНС по Первомайскому району (004);
 Тел. +996 (550) 560 220, +996 (706) 560 220, +996 (776) 560 220</v>
       </c>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="161"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="161"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
     </row>
     <row r="40" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="161"/>
-      <c r="B40" s="161"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="165" t="str">
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="137" t="str">
         <f>D4</f>
         <v>001-01/20</v>
       </c>
-      <c r="E41" s="165"/>
+      <c r="E41" s="137"/>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="180" t="str">
+      <c r="H41" s="167" t="str">
         <f>H4</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="162"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
@@ -5669,21 +5666,21 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="152" t="s">
+      <c r="A44" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="152"/>
-      <c r="C44" s="154" t="str">
+      <c r="B44" s="132"/>
+      <c r="C44" s="141" t="str">
         <f>C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
@@ -5697,21 +5694,21 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="152" t="s">
+      <c r="A46" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="152"/>
-      <c r="C46" s="154" t="str">
+      <c r="B46" s="132"/>
+      <c r="C46" s="141" t="str">
         <f>C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="141"/>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
@@ -5725,21 +5722,21 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="152" t="s">
+      <c r="A48" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="152"/>
-      <c r="C48" s="155" t="str">
+      <c r="B48" s="132"/>
+      <c r="C48" s="142" t="str">
         <f>C11</f>
         <v>____________________________________</v>
       </c>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
@@ -5753,99 +5750,99 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="174" t="s">
+      <c r="A50" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="178" t="s">
+      <c r="C50" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="178" t="s">
+      <c r="D50" s="173"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="178" t="s">
+      <c r="H50" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="178" t="s">
+      <c r="I50" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="169" t="s">
+      <c r="J50" s="175" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="175"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="179"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="179"/>
-      <c r="J51" s="170"/>
+      <c r="A51" s="170"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
+      <c r="E51" s="174"/>
+      <c r="F51" s="174"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="174"/>
+      <c r="J51" s="176"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="133">
+      <c r="A52" s="152">
         <v>1</v>
       </c>
-      <c r="B52" s="135" t="str">
+      <c r="B52" s="166" t="str">
         <f>B15</f>
         <v>00001</v>
       </c>
-      <c r="C52" s="137" t="str">
+      <c r="C52" s="156" t="str">
         <f>C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D52" s="138"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="143" t="str">
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="147" t="str">
         <f>G15</f>
         <v>шт.</v>
       </c>
-      <c r="H52" s="143">
+      <c r="H52" s="147">
         <f>H15</f>
         <v>1</v>
       </c>
-      <c r="I52" s="144">
+      <c r="I52" s="143">
         <f>I15</f>
         <v>2500</v>
       </c>
-      <c r="J52" s="146">
+      <c r="J52" s="145">
         <f>I52*H52</f>
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="134"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="147"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="146"/>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="171" t="s">
+      <c r="A54" s="177" t="s">
         <v>277</v>
       </c>
-      <c r="B54" s="172"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="172"/>
-      <c r="F54" s="172"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="173"/>
+      <c r="B54" s="178"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="178"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="178"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="179"/>
       <c r="J54" s="13">
         <f>J52</f>
         <v>2500</v>
@@ -5863,18 +5860,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="151" t="s">
+      <c r="A56" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="151"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="163"/>
+      <c r="F56" s="163"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="6.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
@@ -5888,18 +5885,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="151" t="s">
+      <c r="A58" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="151"/>
-      <c r="C58" s="151"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="151"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
@@ -5913,21 +5910,21 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="152" t="s">
+      <c r="A60" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="152"/>
-      <c r="C60" s="153" t="str">
+      <c r="B60" s="132"/>
+      <c r="C60" s="164" t="str">
         <f>C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
     </row>
     <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
@@ -5953,16 +5950,16 @@
     </row>
     <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
-      <c r="C63" s="130" t="s">
+      <c r="C63" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
+      <c r="D63" s="162"/>
+      <c r="E63" s="162"/>
+      <c r="F63" s="162"/>
+      <c r="G63" s="162"/>
+      <c r="H63" s="162"/>
+      <c r="I63" s="162"/>
+      <c r="J63" s="162"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -6585,22 +6582,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A41:C42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="D41:E42"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="A15:A16"/>
@@ -6615,36 +6626,22 @@
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A38:J40"/>
-    <mergeCell ref="A41:C42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="D4:E5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
@@ -6682,110 +6679,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="H1" s="199" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="H1" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="199"/>
+      <c r="I1" s="184"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="193" t="s">
+      <c r="K1" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="197" t="s">
+      <c r="L1" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="198" t="s">
+      <c r="K2" s="195"/>
+      <c r="L2" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="201"/>
+      <c r="I3" s="187"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="193"/>
+      <c r="K3" s="195"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="187"/>
-      <c r="I4" s="200"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="186"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="194" t="s">
+      <c r="K4" s="195"/>
+      <c r="L4" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="194" t="s">
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="188" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="188" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196" t="s">
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="196" t="s">
+      <c r="F6" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="196" t="s">
+      <c r="G6" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="196" t="s">
+      <c r="H6" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="187"/>
+      <c r="I6" s="185"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="193"/>
+      <c r="K6" s="195"/>
       <c r="L6" s="21" t="s">
         <v>4</v>
       </c>
@@ -6796,50 +6793,50 @@
       <c r="N6" s="124"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="196"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="187"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="185"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="193"/>
+      <c r="K7" s="195"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="196"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="187"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="185"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="182" t="s">
+      <c r="K8" s="195"/>
+      <c r="L8" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="182"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="196"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="187"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="185"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="193"/>
+      <c r="K9" s="195"/>
       <c r="L9" s="191" t="str">
         <f>C14</f>
         <v>Навальный Алексей «ФБК»</v>
@@ -6849,69 +6846,69 @@
       <c r="O9" s="192"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="196"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="187"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="185"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="193"/>
+      <c r="K10" s="195"/>
       <c r="L10" s="191"/>
       <c r="M10" s="192"/>
       <c r="N10" s="192"/>
       <c r="O10" s="192"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="185" t="str">
+      <c r="A11" s="197" t="str">
         <f>факт!D4</f>
         <v>001-01/20</v>
       </c>
-      <c r="B11" s="195" t="str">
+      <c r="B11" s="196" t="str">
         <f>L23</f>
         <v>01 января 2020 г.</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="188">
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="199">
         <f>факт!J17</f>
         <v>2500</v>
       </c>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="193"/>
+      <c r="K11" s="195"/>
       <c r="L11" s="191"/>
       <c r="M11" s="192"/>
       <c r="N11" s="192"/>
       <c r="O11" s="192"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="186"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="182" t="s">
+      <c r="K12" s="195"/>
+      <c r="L12" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="182"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="193"/>
+      <c r="K13" s="195"/>
       <c r="L13" s="191" t="str">
         <f>C17</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
@@ -6921,22 +6918,22 @@
       <c r="O13" s="192"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="182"/>
-      <c r="C14" s="183" t="str">
+      <c r="B14" s="180"/>
+      <c r="C14" s="193" t="str">
         <f>факт!C7</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="184"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="194"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="193"/>
+      <c r="K14" s="195"/>
       <c r="L14" s="191"/>
       <c r="M14" s="192"/>
       <c r="N14" s="192"/>
@@ -6945,15 +6942,15 @@
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="184"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="194"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="193"/>
+      <c r="K15" s="195"/>
       <c r="L15" s="191"/>
       <c r="M15" s="192"/>
       <c r="N15" s="192"/>
@@ -6962,31 +6959,31 @@
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="182" t="s">
+      <c r="K16" s="195"/>
+      <c r="L16" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="182"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="182" t="s">
+      <c r="A17" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="182"/>
-      <c r="C17" s="183" t="str">
+      <c r="B17" s="180"/>
+      <c r="C17" s="193" t="str">
         <f>факт!C9</f>
         <v>Договор №001-01/20 от 01 января 2020 г.</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="194"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="193"/>
+      <c r="K17" s="195"/>
       <c r="L17" s="191" t="str">
         <f>C20</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
@@ -6998,15 +6995,15 @@
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="184"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="194"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="193"/>
+      <c r="K18" s="195"/>
       <c r="L18" s="191"/>
       <c r="M18" s="192"/>
       <c r="N18" s="192"/>
@@ -7015,29 +7012,29 @@
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="K19" s="193"/>
+      <c r="K19" s="195"/>
       <c r="L19" s="191"/>
       <c r="M19" s="192"/>
       <c r="N19" s="192"/>
       <c r="O19" s="192"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="183" t="str">
+      <c r="B20" s="180"/>
+      <c r="C20" s="193" t="str">
         <f>факт!C23</f>
         <v>Две тысячи пятьсот сом, 00 тыйын</v>
       </c>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="184"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="194"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="193"/>
+      <c r="K20" s="195"/>
       <c r="L20" s="19">
         <f>G11</f>
         <v>2500</v>
@@ -7055,15 +7052,15 @@
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="184"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="194"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="193"/>
+      <c r="K21" s="195"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="16"/>
@@ -7072,25 +7069,25 @@
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="K22" s="193"/>
+      <c r="K22" s="195"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="182" t="s">
+      <c r="A23" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="182"/>
-      <c r="C23" s="183" t="str">
+      <c r="B23" s="180"/>
+      <c r="C23" s="193" t="str">
         <f>факт!C15</f>
         <v>Экспертиза и оценка: Транспортное средство Subaru Outback, 08KG848ААА</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="184"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="194"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="193"/>
+      <c r="K23" s="195"/>
       <c r="L23" s="189" t="str">
         <f>факт!H4</f>
         <v>01 января 2020 г.</v>
@@ -7102,41 +7099,41 @@
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="184"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="193"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="194"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="193"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="184"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="193"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="184"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="193"/>
+      <c r="K26" s="195"/>
       <c r="L26" s="8" t="s">
         <v>16</v>
       </c>
@@ -7144,41 +7141,41 @@
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="184"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="194"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="193"/>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="K28" s="193"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="193"/>
-      <c r="L29" s="182" t="s">
+      <c r="K29" s="195"/>
+      <c r="L29" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="182"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
@@ -7191,7 +7188,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="193"/>
+      <c r="K30" s="195"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K31" s="26"/>
@@ -7201,21 +7198,18 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="C23:I27"/>
+    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="L29:O29"/>
     <mergeCell ref="H11:H12"/>
@@ -7232,18 +7226,21 @@
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="B11:D12"/>
     <mergeCell ref="B6:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:I18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="C23:I27"/>
-    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="G6:G10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7266,26 +7263,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="203" t="str">
+      <c r="A1" s="201" t="str">
         <f>"Акт о приемке выполненных работ №"&amp;счёт!D4</f>
         <v>Акт о приемке выполненных работ №001-01/20</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
       <c r="E1" s="78"/>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
       <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="204" t="str">
+      <c r="A2" s="202" t="str">
         <f>"от "&amp;факт!H4</f>
         <v>от 01 января 2020 г.</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
       <c r="G2" s="80"/>
@@ -7303,11 +7300,11 @@
       <c r="A4" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="203" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
@@ -7326,12 +7323,12 @@
       <c r="A6" s="83" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="205" t="str">
+      <c r="B6" s="203" t="str">
         <f>Дано!B6</f>
         <v>Навальный Алексей «ФБК»</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
       <c r="G6" s="84"/>
@@ -7387,11 +7384,11 @@
       <c r="H9" s="90"/>
     </row>
     <row r="10" spans="1:8" s="91" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="206" t="s">
+      <c r="A10" s="204" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="95">
         <f>SUM(D9:D9)</f>
         <v>2500</v>
@@ -7484,27 +7481,27 @@
       <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="209" t="s">
+      <c r="A19" s="207" t="s">
         <v>309</v>
       </c>
-      <c r="B19" s="209"/>
-      <c r="C19" s="209" t="s">
+      <c r="B19" s="207"/>
+      <c r="C19" s="207" t="s">
         <v>310</v>
       </c>
-      <c r="D19" s="209"/>
+      <c r="D19" s="207"/>
       <c r="F19" s="97"/>
       <c r="G19" s="97"/>
       <c r="H19" s="97"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="202" t="s">
+      <c r="A20" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202" t="s">
+      <c r="B20" s="200"/>
+      <c r="C20" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="202"/>
+      <c r="D20" s="200"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" s="86"/>
@@ -7860,8 +7857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7946,10 +7943,10 @@
       <c r="C3" s="119"/>
       <c r="D3" s="122"/>
       <c r="E3" s="122"/>
-      <c r="G3" s="210" t="s">
+      <c r="G3" s="208" t="s">
         <v>315</v>
       </c>
-      <c r="H3" s="210"/>
+      <c r="H3" s="208"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="31"/>
@@ -11169,7 +11166,9 @@
       <c r="G3" s="127" t="s">
         <v>321</v>
       </c>
-      <c r="H3" s="129"/>
+      <c r="H3" s="127" t="s">
+        <v>322</v>
+      </c>
       <c r="I3" s="50"/>
       <c r="J3" s="51"/>
       <c r="K3" s="30"/>
@@ -11185,7 +11184,10 @@
       <c r="G4" s="45">
         <v>0</v>
       </c>
-      <c r="H4" s="128"/>
+      <c r="H4" s="45">
+        <f>ROUND(H2/Дано!B32,2)</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="50"/>
       <c r="J4" s="51"/>
     </row>
